--- a/tabulacion/Primefaces-ram.xlsx
+++ b/tabulacion/Primefaces-ram.xlsx
@@ -407,7 +407,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:P642"/>
+  <dimension ref="A1:P649"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,10 +467,10 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2">
-        <v>1544905918702</v>
+        <v>1544944092437</v>
       </c>
       <c r="B2">
-        <v>49432</v>
+        <v>22491</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -502,10 +502,10 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3">
-        <v>1544905919703</v>
+        <v>1544944093437</v>
       </c>
       <c r="B3">
-        <v>49515</v>
+        <v>22551</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -537,10 +537,10 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4">
-        <v>1544905920718</v>
+        <v>1544944094453</v>
       </c>
       <c r="B4">
-        <v>49594</v>
+        <v>22626</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -572,10 +572,10 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5">
-        <v>1544905921718</v>
+        <v>1544944095468</v>
       </c>
       <c r="B5">
-        <v>49645</v>
+        <v>22516</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -607,10 +607,10 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6">
-        <v>1544905922734</v>
+        <v>1544944096468</v>
       </c>
       <c r="B6">
-        <v>49557</v>
+        <v>22691</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -642,10 +642,10 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7">
-        <v>1544905923749</v>
+        <v>1544944097484</v>
       </c>
       <c r="B7">
-        <v>49525</v>
+        <v>22778</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
@@ -677,10 +677,10 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8">
-        <v>1544905924765</v>
+        <v>1544944098484</v>
       </c>
       <c r="B8">
-        <v>49526</v>
+        <v>22752</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9">
-        <v>1544905925765</v>
+        <v>1544944099500</v>
       </c>
       <c r="B9">
-        <v>49515</v>
+        <v>22702</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -747,10 +747,10 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10">
-        <v>1544905926780</v>
+        <v>1544944100515</v>
       </c>
       <c r="B10">
-        <v>49598</v>
+        <v>22701</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -782,10 +782,10 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11">
-        <v>1544905927796</v>
+        <v>1544944101531</v>
       </c>
       <c r="B11">
-        <v>49656</v>
+        <v>22691</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
@@ -817,10 +817,10 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12">
-        <v>1544905928796</v>
+        <v>1544944102531</v>
       </c>
       <c r="B12">
-        <v>49600</v>
+        <v>22862</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
@@ -852,10 +852,10 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13">
-        <v>1544905929812</v>
+        <v>1544944103547</v>
       </c>
       <c r="B13">
-        <v>49587</v>
+        <v>22719</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
@@ -887,10 +887,10 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14">
-        <v>1544905930827</v>
+        <v>1544944104547</v>
       </c>
       <c r="B14">
-        <v>49598</v>
+        <v>22725</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
@@ -922,10 +922,10 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15">
-        <v>1544905931843</v>
+        <v>1544944105562</v>
       </c>
       <c r="B15">
-        <v>49567</v>
+        <v>22680</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
@@ -957,10 +957,10 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16">
-        <v>1544905932843</v>
+        <v>1544944106562</v>
       </c>
       <c r="B16">
-        <v>49599</v>
+        <v>22660</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
@@ -992,10 +992,10 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17">
-        <v>1544905933858</v>
+        <v>1544944107578</v>
       </c>
       <c r="B17">
-        <v>49671</v>
+        <v>22718</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
@@ -1027,10 +1027,10 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18">
-        <v>1544905934858</v>
+        <v>1544944108593</v>
       </c>
       <c r="B18">
-        <v>49606</v>
+        <v>22808</v>
       </c>
       <c r="C18" t="s">
         <v>16</v>
@@ -1062,10 +1062,10 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19">
-        <v>1544905935874</v>
+        <v>1544944109594</v>
       </c>
       <c r="B19">
-        <v>49624</v>
+        <v>22741</v>
       </c>
       <c r="C19" t="s">
         <v>16</v>
@@ -1097,10 +1097,10 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20">
-        <v>1544905936890</v>
+        <v>1544944110609</v>
       </c>
       <c r="B20">
-        <v>49626</v>
+        <v>22708</v>
       </c>
       <c r="C20" t="s">
         <v>16</v>
@@ -1132,10 +1132,10 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21">
-        <v>1544905937905</v>
+        <v>1544944111625</v>
       </c>
       <c r="B21">
-        <v>49589</v>
+        <v>22745</v>
       </c>
       <c r="C21" t="s">
         <v>16</v>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22">
-        <v>1544905938905</v>
+        <v>1544944112625</v>
       </c>
       <c r="B22">
-        <v>49671</v>
+        <v>22780</v>
       </c>
       <c r="C22" t="s">
         <v>16</v>
@@ -1202,10 +1202,10 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23">
-        <v>1544905939921</v>
+        <v>1544944113625</v>
       </c>
       <c r="B23">
-        <v>49604</v>
+        <v>22825</v>
       </c>
       <c r="C23" t="s">
         <v>16</v>
@@ -1237,10 +1237,10 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24">
-        <v>1544905940921</v>
+        <v>1544944114625</v>
       </c>
       <c r="B24">
-        <v>49621</v>
+        <v>22830</v>
       </c>
       <c r="C24" t="s">
         <v>16</v>
@@ -1272,10 +1272,10 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25">
-        <v>1544905941936</v>
+        <v>1544944115641</v>
       </c>
       <c r="B25">
-        <v>49621</v>
+        <v>22826</v>
       </c>
       <c r="C25" t="s">
         <v>16</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26">
-        <v>1544905942952</v>
+        <v>1544944116703</v>
       </c>
       <c r="B26">
-        <v>49571</v>
+        <v>22844</v>
       </c>
       <c r="C26" t="s">
         <v>16</v>
@@ -1342,10 +1342,10 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27">
-        <v>1544905943968</v>
+        <v>1544944117718</v>
       </c>
       <c r="B27">
-        <v>49604</v>
+        <v>22838</v>
       </c>
       <c r="C27" t="s">
         <v>16</v>
@@ -1377,10 +1377,10 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28">
-        <v>1544905944983</v>
+        <v>1544944118718</v>
       </c>
       <c r="B28">
-        <v>49632</v>
+        <v>22853</v>
       </c>
       <c r="C28" t="s">
         <v>16</v>
@@ -1412,10 +1412,10 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29">
-        <v>1544905945984</v>
+        <v>1544944119734</v>
       </c>
       <c r="B29">
-        <v>49648</v>
+        <v>22874</v>
       </c>
       <c r="C29" t="s">
         <v>16</v>
@@ -1447,10 +1447,10 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30">
-        <v>1544905946999</v>
+        <v>1544944120750</v>
       </c>
       <c r="B30">
-        <v>49648</v>
+        <v>22877</v>
       </c>
       <c r="C30" t="s">
         <v>16</v>
@@ -1482,10 +1482,10 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31">
-        <v>1544905948014</v>
+        <v>1544944121765</v>
       </c>
       <c r="B31">
-        <v>49632</v>
+        <v>22847</v>
       </c>
       <c r="C31" t="s">
         <v>16</v>
@@ -1517,10 +1517,10 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32">
-        <v>1544905949046</v>
+        <v>1544944122781</v>
       </c>
       <c r="B32">
-        <v>49636</v>
+        <v>22874</v>
       </c>
       <c r="C32" t="s">
         <v>16</v>
@@ -1552,10 +1552,10 @@
     </row>
     <row r="33" spans="1:16">
       <c r="A33">
-        <v>1544905950046</v>
+        <v>1544944123797</v>
       </c>
       <c r="B33">
-        <v>49603</v>
+        <v>22946</v>
       </c>
       <c r="C33" t="s">
         <v>16</v>
@@ -1587,10 +1587,10 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34">
-        <v>1544905951061</v>
+        <v>1544944124797</v>
       </c>
       <c r="B34">
-        <v>49674</v>
+        <v>22917</v>
       </c>
       <c r="C34" t="s">
         <v>16</v>
@@ -1622,10 +1622,10 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35">
-        <v>1544905952077</v>
+        <v>1544944125797</v>
       </c>
       <c r="B35">
-        <v>49701</v>
+        <v>22859</v>
       </c>
       <c r="C35" t="s">
         <v>16</v>
@@ -1657,10 +1657,10 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36">
-        <v>1544905953077</v>
+        <v>1544944126859</v>
       </c>
       <c r="B36">
-        <v>49649</v>
+        <v>22895</v>
       </c>
       <c r="C36" t="s">
         <v>16</v>
@@ -1692,10 +1692,10 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37">
-        <v>1544905954093</v>
+        <v>1544944127859</v>
       </c>
       <c r="B37">
-        <v>49603</v>
+        <v>22829</v>
       </c>
       <c r="C37" t="s">
         <v>16</v>
@@ -1727,10 +1727,10 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38">
-        <v>1544905955093</v>
+        <v>1544944128875</v>
       </c>
       <c r="B38">
-        <v>49610</v>
+        <v>22880</v>
       </c>
       <c r="C38" t="s">
         <v>16</v>
@@ -1762,10 +1762,10 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39">
-        <v>1544905956093</v>
+        <v>1544944129890</v>
       </c>
       <c r="B39">
-        <v>49602</v>
+        <v>22915</v>
       </c>
       <c r="C39" t="s">
         <v>16</v>
@@ -1797,10 +1797,10 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40">
-        <v>1544905957108</v>
+        <v>1544944130890</v>
       </c>
       <c r="B40">
-        <v>49664</v>
+        <v>23001</v>
       </c>
       <c r="C40" t="s">
         <v>16</v>
@@ -1832,10 +1832,10 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41">
-        <v>1544905958124</v>
+        <v>1544944131906</v>
       </c>
       <c r="B41">
-        <v>49667</v>
+        <v>22880</v>
       </c>
       <c r="C41" t="s">
         <v>16</v>
@@ -1867,10 +1867,10 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42">
-        <v>1544905959139</v>
+        <v>1544944132906</v>
       </c>
       <c r="B42">
-        <v>49658</v>
+        <v>22865</v>
       </c>
       <c r="C42" t="s">
         <v>16</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43">
-        <v>1544905960139</v>
+        <v>1544944133922</v>
       </c>
       <c r="B43">
-        <v>49683</v>
+        <v>22931</v>
       </c>
       <c r="C43" t="s">
         <v>16</v>
@@ -1937,10 +1937,10 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44">
-        <v>1544905961155</v>
+        <v>1544944134937</v>
       </c>
       <c r="B44">
-        <v>49690</v>
+        <v>23079</v>
       </c>
       <c r="C44" t="s">
         <v>16</v>
@@ -1972,10 +1972,10 @@
     </row>
     <row r="45" spans="1:16">
       <c r="A45">
-        <v>1544905962171</v>
+        <v>1544944135937</v>
       </c>
       <c r="B45">
-        <v>49640</v>
+        <v>23100</v>
       </c>
       <c r="C45" t="s">
         <v>16</v>
@@ -2007,10 +2007,10 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46">
-        <v>1544905963186</v>
+        <v>1544944136937</v>
       </c>
       <c r="B46">
-        <v>49709</v>
+        <v>23237</v>
       </c>
       <c r="C46" t="s">
         <v>16</v>
@@ -2042,10 +2042,10 @@
     </row>
     <row r="47" spans="1:16">
       <c r="A47">
-        <v>1544905964186</v>
+        <v>1544944137953</v>
       </c>
       <c r="B47">
-        <v>49741</v>
+        <v>23174</v>
       </c>
       <c r="C47" t="s">
         <v>16</v>
@@ -2077,10 +2077,10 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48">
-        <v>1544905965202</v>
+        <v>1544944138953</v>
       </c>
       <c r="B48">
-        <v>49741</v>
+        <v>23522</v>
       </c>
       <c r="C48" t="s">
         <v>16</v>
@@ -2112,10 +2112,10 @@
     </row>
     <row r="49" spans="1:16">
       <c r="A49">
-        <v>1544905966202</v>
+        <v>1544944139953</v>
       </c>
       <c r="B49">
-        <v>49671</v>
+        <v>23594</v>
       </c>
       <c r="C49" t="s">
         <v>16</v>
@@ -2147,10 +2147,10 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50">
-        <v>1544905967218</v>
+        <v>1544944140968</v>
       </c>
       <c r="B50">
-        <v>49641</v>
+        <v>23821</v>
       </c>
       <c r="C50" t="s">
         <v>16</v>
@@ -2182,10 +2182,10 @@
     </row>
     <row r="51" spans="1:16">
       <c r="A51">
-        <v>1544905968264</v>
+        <v>1544944141969</v>
       </c>
       <c r="B51">
-        <v>49769</v>
+        <v>23783</v>
       </c>
       <c r="C51" t="s">
         <v>16</v>
@@ -2217,10 +2217,10 @@
     </row>
     <row r="52" spans="1:16">
       <c r="A52">
-        <v>1544905969264</v>
+        <v>1544944142984</v>
       </c>
       <c r="B52">
-        <v>49720</v>
+        <v>23858</v>
       </c>
       <c r="C52" t="s">
         <v>16</v>
@@ -2252,10 +2252,10 @@
     </row>
     <row r="53" spans="1:16">
       <c r="A53">
-        <v>1544905970280</v>
+        <v>1544944143984</v>
       </c>
       <c r="B53">
-        <v>49731</v>
+        <v>23845</v>
       </c>
       <c r="C53" t="s">
         <v>16</v>
@@ -2287,10 +2287,10 @@
     </row>
     <row r="54" spans="1:16">
       <c r="A54">
-        <v>1544905971280</v>
+        <v>1544944145000</v>
       </c>
       <c r="B54">
-        <v>49751</v>
+        <v>23919</v>
       </c>
       <c r="C54" t="s">
         <v>16</v>
@@ -2322,10 +2322,10 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55">
-        <v>1544905972295</v>
+        <v>1544944146015</v>
       </c>
       <c r="B55">
-        <v>49709</v>
+        <v>23867</v>
       </c>
       <c r="C55" t="s">
         <v>16</v>
@@ -2357,10 +2357,10 @@
     </row>
     <row r="56" spans="1:16">
       <c r="A56">
-        <v>1544905973296</v>
+        <v>1544944147015</v>
       </c>
       <c r="B56">
-        <v>49700</v>
+        <v>23968</v>
       </c>
       <c r="C56" t="s">
         <v>16</v>
@@ -2392,10 +2392,10 @@
     </row>
     <row r="57" spans="1:16">
       <c r="A57">
-        <v>1544905974296</v>
+        <v>1544944148031</v>
       </c>
       <c r="B57">
-        <v>49791</v>
+        <v>23894</v>
       </c>
       <c r="C57" t="s">
         <v>16</v>
@@ -2427,10 +2427,10 @@
     </row>
     <row r="58" spans="1:16">
       <c r="A58">
-        <v>1544905975311</v>
+        <v>1544944149031</v>
       </c>
       <c r="B58">
-        <v>49776</v>
+        <v>23920</v>
       </c>
       <c r="C58" t="s">
         <v>16</v>
@@ -2462,10 +2462,10 @@
     </row>
     <row r="59" spans="1:16">
       <c r="A59">
-        <v>1544905976327</v>
+        <v>1544944150047</v>
       </c>
       <c r="B59">
-        <v>49748</v>
+        <v>23874</v>
       </c>
       <c r="C59" t="s">
         <v>16</v>
@@ -2497,10 +2497,10 @@
     </row>
     <row r="60" spans="1:16">
       <c r="A60">
-        <v>1544905977342</v>
+        <v>1544944151062</v>
       </c>
       <c r="B60">
-        <v>49737</v>
+        <v>23909</v>
       </c>
       <c r="C60" t="s">
         <v>16</v>
@@ -2532,10 +2532,10 @@
     </row>
     <row r="61" spans="1:16">
       <c r="A61">
-        <v>1544905978342</v>
+        <v>1544944152062</v>
       </c>
       <c r="B61">
-        <v>49694</v>
+        <v>23922</v>
       </c>
       <c r="C61" t="s">
         <v>16</v>
@@ -2567,10 +2567,10 @@
     </row>
     <row r="62" spans="1:16">
       <c r="A62">
-        <v>1544905979342</v>
+        <v>1544944153078</v>
       </c>
       <c r="B62">
-        <v>49762</v>
+        <v>23918</v>
       </c>
       <c r="C62" t="s">
         <v>16</v>
@@ -2602,10 +2602,10 @@
     </row>
     <row r="63" spans="1:16">
       <c r="A63">
-        <v>1544905980358</v>
+        <v>1544944154078</v>
       </c>
       <c r="B63">
-        <v>49783</v>
+        <v>23906</v>
       </c>
       <c r="C63" t="s">
         <v>16</v>
@@ -2637,10 +2637,10 @@
     </row>
     <row r="64" spans="1:16">
       <c r="A64">
-        <v>1544905981374</v>
+        <v>1544944155093</v>
       </c>
       <c r="B64">
-        <v>49823</v>
+        <v>23910</v>
       </c>
       <c r="C64" t="s">
         <v>16</v>
@@ -2672,10 +2672,10 @@
     </row>
     <row r="65" spans="1:16">
       <c r="A65">
-        <v>1544905982389</v>
+        <v>1544944156301</v>
       </c>
       <c r="B65">
-        <v>49735</v>
+        <v>23939</v>
       </c>
       <c r="C65" t="s">
         <v>16</v>
@@ -2707,10 +2707,10 @@
     </row>
     <row r="66" spans="1:16">
       <c r="A66">
-        <v>1544905983389</v>
+        <v>1544944157309</v>
       </c>
       <c r="B66">
-        <v>49727</v>
+        <v>24010</v>
       </c>
       <c r="C66" t="s">
         <v>16</v>
@@ -2742,10 +2742,10 @@
     </row>
     <row r="67" spans="1:16">
       <c r="A67">
-        <v>1544905984389</v>
+        <v>1544944158312</v>
       </c>
       <c r="B67">
-        <v>49699</v>
+        <v>23932</v>
       </c>
       <c r="C67" t="s">
         <v>16</v>
@@ -2777,10 +2777,10 @@
     </row>
     <row r="68" spans="1:16">
       <c r="A68">
-        <v>1544905985389</v>
+        <v>1544944159313</v>
       </c>
       <c r="B68">
-        <v>49822</v>
+        <v>23895</v>
       </c>
       <c r="C68" t="s">
         <v>16</v>
@@ -2812,10 +2812,10 @@
     </row>
     <row r="69" spans="1:16">
       <c r="A69">
-        <v>1544905986405</v>
+        <v>1544944160328</v>
       </c>
       <c r="B69">
-        <v>49809</v>
+        <v>23907</v>
       </c>
       <c r="C69" t="s">
         <v>16</v>
@@ -2847,10 +2847,10 @@
     </row>
     <row r="70" spans="1:16">
       <c r="A70">
-        <v>1544905987420</v>
+        <v>1544944161375</v>
       </c>
       <c r="B70">
-        <v>49859</v>
+        <v>23944</v>
       </c>
       <c r="C70" t="s">
         <v>16</v>
@@ -2882,10 +2882,10 @@
     </row>
     <row r="71" spans="1:16">
       <c r="A71">
-        <v>1544905988436</v>
+        <v>1544944162390</v>
       </c>
       <c r="B71">
-        <v>49826</v>
+        <v>23929</v>
       </c>
       <c r="C71" t="s">
         <v>16</v>
@@ -2917,10 +2917,10 @@
     </row>
     <row r="72" spans="1:16">
       <c r="A72">
-        <v>1544905989452</v>
+        <v>1544944163406</v>
       </c>
       <c r="B72">
-        <v>49813</v>
+        <v>23950</v>
       </c>
       <c r="C72" t="s">
         <v>16</v>
@@ -2952,10 +2952,10 @@
     </row>
     <row r="73" spans="1:16">
       <c r="A73">
-        <v>1544905990467</v>
+        <v>1544944164484</v>
       </c>
       <c r="B73">
-        <v>49788</v>
+        <v>23904</v>
       </c>
       <c r="C73" t="s">
         <v>16</v>
@@ -2987,10 +2987,10 @@
     </row>
     <row r="74" spans="1:16">
       <c r="A74">
-        <v>1544905991483</v>
+        <v>1544944165485</v>
       </c>
       <c r="B74">
-        <v>49855</v>
+        <v>23940</v>
       </c>
       <c r="C74" t="s">
         <v>16</v>
@@ -3022,10 +3022,10 @@
     </row>
     <row r="75" spans="1:16">
       <c r="A75">
-        <v>1544905992498</v>
+        <v>1544944166500</v>
       </c>
       <c r="B75">
-        <v>49875</v>
+        <v>23958</v>
       </c>
       <c r="C75" t="s">
         <v>16</v>
@@ -3057,10 +3057,10 @@
     </row>
     <row r="76" spans="1:16">
       <c r="A76">
-        <v>1544905993499</v>
+        <v>1544944167500</v>
       </c>
       <c r="B76">
-        <v>49822</v>
+        <v>23859</v>
       </c>
       <c r="C76" t="s">
         <v>16</v>
@@ -3092,10 +3092,10 @@
     </row>
     <row r="77" spans="1:16">
       <c r="A77">
-        <v>1544905994514</v>
+        <v>1544944168515</v>
       </c>
       <c r="B77">
-        <v>49861</v>
+        <v>24011</v>
       </c>
       <c r="C77" t="s">
         <v>16</v>
@@ -3127,10 +3127,10 @@
     </row>
     <row r="78" spans="1:16">
       <c r="A78">
-        <v>1544905995530</v>
+        <v>1544944169515</v>
       </c>
       <c r="B78">
-        <v>49862</v>
+        <v>24021</v>
       </c>
       <c r="C78" t="s">
         <v>16</v>
@@ -3162,10 +3162,10 @@
     </row>
     <row r="79" spans="1:16">
       <c r="A79">
-        <v>1544905996545</v>
+        <v>1544944170531</v>
       </c>
       <c r="B79">
-        <v>49904</v>
+        <v>24014</v>
       </c>
       <c r="C79" t="s">
         <v>16</v>
@@ -3197,10 +3197,10 @@
     </row>
     <row r="80" spans="1:16">
       <c r="A80">
-        <v>1544905997545</v>
+        <v>1544944171547</v>
       </c>
       <c r="B80">
-        <v>49870</v>
+        <v>24245</v>
       </c>
       <c r="C80" t="s">
         <v>16</v>
@@ -3232,10 +3232,10 @@
     </row>
     <row r="81" spans="1:16">
       <c r="A81">
-        <v>1544905998561</v>
+        <v>1544944172547</v>
       </c>
       <c r="B81">
-        <v>49883</v>
+        <v>24299</v>
       </c>
       <c r="C81" t="s">
         <v>16</v>
@@ -3267,10 +3267,10 @@
     </row>
     <row r="82" spans="1:16">
       <c r="A82">
-        <v>1544905999576</v>
+        <v>1544944173562</v>
       </c>
       <c r="B82">
-        <v>49841</v>
+        <v>24256</v>
       </c>
       <c r="C82" t="s">
         <v>16</v>
@@ -3302,10 +3302,10 @@
     </row>
     <row r="83" spans="1:16">
       <c r="A83">
-        <v>1544906000576</v>
+        <v>1544944174578</v>
       </c>
       <c r="B83">
-        <v>49793</v>
+        <v>24323</v>
       </c>
       <c r="C83" t="s">
         <v>16</v>
@@ -3337,10 +3337,10 @@
     </row>
     <row r="84" spans="1:16">
       <c r="A84">
-        <v>1544906001592</v>
+        <v>1544944175579</v>
       </c>
       <c r="B84">
-        <v>49922</v>
+        <v>24281</v>
       </c>
       <c r="C84" t="s">
         <v>16</v>
@@ -3372,10 +3372,10 @@
     </row>
     <row r="85" spans="1:16">
       <c r="A85">
-        <v>1544906002592</v>
+        <v>1544944176593</v>
       </c>
       <c r="B85">
-        <v>49903</v>
+        <v>24463</v>
       </c>
       <c r="C85" t="s">
         <v>16</v>
@@ -3407,10 +3407,10 @@
     </row>
     <row r="86" spans="1:16">
       <c r="A86">
-        <v>1544906003608</v>
+        <v>1544944177594</v>
       </c>
       <c r="B86">
-        <v>49875</v>
+        <v>24489</v>
       </c>
       <c r="C86" t="s">
         <v>16</v>
@@ -3442,10 +3442,10 @@
     </row>
     <row r="87" spans="1:16">
       <c r="A87">
-        <v>1544906004623</v>
+        <v>1544944178609</v>
       </c>
       <c r="B87">
-        <v>49856</v>
+        <v>24500</v>
       </c>
       <c r="C87" t="s">
         <v>16</v>
@@ -3477,10 +3477,10 @@
     </row>
     <row r="88" spans="1:16">
       <c r="A88">
-        <v>1544906005639</v>
+        <v>1544944179625</v>
       </c>
       <c r="B88">
-        <v>49798</v>
+        <v>24525</v>
       </c>
       <c r="C88" t="s">
         <v>16</v>
@@ -3512,10 +3512,10 @@
     </row>
     <row r="89" spans="1:16">
       <c r="A89">
-        <v>1544906006654</v>
+        <v>1544944180640</v>
       </c>
       <c r="B89">
-        <v>49864</v>
+        <v>24536</v>
       </c>
       <c r="C89" t="s">
         <v>16</v>
@@ -3547,10 +3547,10 @@
     </row>
     <row r="90" spans="1:16">
       <c r="A90">
-        <v>1544906007655</v>
+        <v>1544944181656</v>
       </c>
       <c r="B90">
-        <v>49851</v>
+        <v>24726</v>
       </c>
       <c r="C90" t="s">
         <v>16</v>
@@ -3582,10 +3582,10 @@
     </row>
     <row r="91" spans="1:16">
       <c r="A91">
-        <v>1544906008670</v>
+        <v>1544944182656</v>
       </c>
       <c r="B91">
-        <v>49893</v>
+        <v>24844</v>
       </c>
       <c r="C91" t="s">
         <v>16</v>
@@ -3617,10 +3617,10 @@
     </row>
     <row r="92" spans="1:16">
       <c r="A92">
-        <v>1544906009686</v>
+        <v>1544944183672</v>
       </c>
       <c r="B92">
-        <v>49851</v>
+        <v>24864</v>
       </c>
       <c r="C92" t="s">
         <v>16</v>
@@ -3652,10 +3652,10 @@
     </row>
     <row r="93" spans="1:16">
       <c r="A93">
-        <v>1544906010701</v>
+        <v>1544944184687</v>
       </c>
       <c r="B93">
-        <v>49888</v>
+        <v>24914</v>
       </c>
       <c r="C93" t="s">
         <v>16</v>
@@ -3687,10 +3687,10 @@
     </row>
     <row r="94" spans="1:16">
       <c r="A94">
-        <v>1544906011717</v>
+        <v>1544944185703</v>
       </c>
       <c r="B94">
-        <v>49908</v>
+        <v>24860</v>
       </c>
       <c r="C94" t="s">
         <v>16</v>
@@ -3722,10 +3722,10 @@
     </row>
     <row r="95" spans="1:16">
       <c r="A95">
-        <v>1544906012733</v>
+        <v>1544944186704</v>
       </c>
       <c r="B95">
-        <v>49854</v>
+        <v>24975</v>
       </c>
       <c r="C95" t="s">
         <v>16</v>
@@ -3757,10 +3757,10 @@
     </row>
     <row r="96" spans="1:16">
       <c r="A96">
-        <v>1544906013733</v>
+        <v>1544944187718</v>
       </c>
       <c r="B96">
-        <v>49929</v>
+        <v>25076</v>
       </c>
       <c r="C96" t="s">
         <v>16</v>
@@ -3792,10 +3792,10 @@
     </row>
     <row r="97" spans="1:16">
       <c r="A97">
-        <v>1544906014733</v>
+        <v>1544944188719</v>
       </c>
       <c r="B97">
-        <v>49872</v>
+        <v>25142</v>
       </c>
       <c r="C97" t="s">
         <v>16</v>
@@ -3827,10 +3827,10 @@
     </row>
     <row r="98" spans="1:16">
       <c r="A98">
-        <v>1544906015733</v>
+        <v>1544944189734</v>
       </c>
       <c r="B98">
-        <v>49826</v>
+        <v>25094</v>
       </c>
       <c r="C98" t="s">
         <v>16</v>
@@ -3862,10 +3862,10 @@
     </row>
     <row r="99" spans="1:16">
       <c r="A99">
-        <v>1544906016748</v>
+        <v>1544944190734</v>
       </c>
       <c r="B99">
-        <v>49945</v>
+        <v>25144</v>
       </c>
       <c r="C99" t="s">
         <v>16</v>
@@ -3897,10 +3897,10 @@
     </row>
     <row r="100" spans="1:16">
       <c r="A100">
-        <v>1544906017764</v>
+        <v>1544944191750</v>
       </c>
       <c r="B100">
-        <v>49931</v>
+        <v>25199</v>
       </c>
       <c r="C100" t="s">
         <v>16</v>
@@ -3932,10 +3932,10 @@
     </row>
     <row r="101" spans="1:16">
       <c r="A101">
-        <v>1544906018764</v>
+        <v>1544944192750</v>
       </c>
       <c r="B101">
-        <v>49936</v>
+        <v>25278</v>
       </c>
       <c r="C101" t="s">
         <v>16</v>
@@ -3967,10 +3967,10 @@
     </row>
     <row r="102" spans="1:16">
       <c r="A102">
-        <v>1544906019764</v>
+        <v>1544944193765</v>
       </c>
       <c r="B102">
-        <v>49877</v>
+        <v>25221</v>
       </c>
       <c r="C102" t="s">
         <v>16</v>
@@ -4002,10 +4002,10 @@
     </row>
     <row r="103" spans="1:16">
       <c r="A103">
-        <v>1544906020779</v>
+        <v>1544944194781</v>
       </c>
       <c r="B103">
-        <v>49851</v>
+        <v>25238</v>
       </c>
       <c r="C103" t="s">
         <v>16</v>
@@ -4037,10 +4037,10 @@
     </row>
     <row r="104" spans="1:16">
       <c r="A104">
-        <v>1544906021795</v>
+        <v>1544944195781</v>
       </c>
       <c r="B104">
-        <v>49886</v>
+        <v>25211</v>
       </c>
       <c r="C104" t="s">
         <v>16</v>
@@ -4072,10 +4072,10 @@
     </row>
     <row r="105" spans="1:16">
       <c r="A105">
-        <v>1544906022795</v>
+        <v>1544944196781</v>
       </c>
       <c r="B105">
-        <v>49886</v>
+        <v>25207</v>
       </c>
       <c r="C105" t="s">
         <v>16</v>
@@ -4107,10 +4107,10 @@
     </row>
     <row r="106" spans="1:16">
       <c r="A106">
-        <v>1544906023811</v>
+        <v>1544944197797</v>
       </c>
       <c r="B106">
-        <v>49908</v>
+        <v>25267</v>
       </c>
       <c r="C106" t="s">
         <v>16</v>
@@ -4142,10 +4142,10 @@
     </row>
     <row r="107" spans="1:16">
       <c r="A107">
-        <v>1544906024826</v>
+        <v>1544944198812</v>
       </c>
       <c r="B107">
-        <v>49874</v>
+        <v>25344</v>
       </c>
       <c r="C107" t="s">
         <v>16</v>
@@ -4177,10 +4177,10 @@
     </row>
     <row r="108" spans="1:16">
       <c r="A108">
-        <v>1544906025826</v>
+        <v>1544944199828</v>
       </c>
       <c r="B108">
-        <v>49869</v>
+        <v>25237</v>
       </c>
       <c r="C108" t="s">
         <v>16</v>
@@ -4212,10 +4212,10 @@
     </row>
     <row r="109" spans="1:16">
       <c r="A109">
-        <v>1544906026842</v>
+        <v>1544944200828</v>
       </c>
       <c r="B109">
-        <v>49844</v>
+        <v>25245</v>
       </c>
       <c r="C109" t="s">
         <v>16</v>
@@ -4247,10 +4247,10 @@
     </row>
     <row r="110" spans="1:16">
       <c r="A110">
-        <v>1544906027857</v>
+        <v>1544944201844</v>
       </c>
       <c r="B110">
-        <v>49872</v>
+        <v>25238</v>
       </c>
       <c r="C110" t="s">
         <v>16</v>
@@ -4282,10 +4282,10 @@
     </row>
     <row r="111" spans="1:16">
       <c r="A111">
-        <v>1544906028873</v>
+        <v>1544944202844</v>
       </c>
       <c r="B111">
-        <v>49867</v>
+        <v>25200</v>
       </c>
       <c r="C111" t="s">
         <v>16</v>
@@ -4317,10 +4317,10 @@
     </row>
     <row r="112" spans="1:16">
       <c r="A112">
-        <v>1544906029889</v>
+        <v>1544944203859</v>
       </c>
       <c r="B112">
-        <v>49893</v>
+        <v>25303</v>
       </c>
       <c r="C112" t="s">
         <v>16</v>
@@ -4352,10 +4352,10 @@
     </row>
     <row r="113" spans="1:16">
       <c r="A113">
-        <v>1544906030904</v>
+        <v>1544944204860</v>
       </c>
       <c r="B113">
-        <v>49911</v>
+        <v>25221</v>
       </c>
       <c r="C113" t="s">
         <v>16</v>
@@ -4387,10 +4387,10 @@
     </row>
     <row r="114" spans="1:16">
       <c r="A114">
-        <v>1544906031904</v>
+        <v>1544944205860</v>
       </c>
       <c r="B114">
-        <v>49828</v>
+        <v>25256</v>
       </c>
       <c r="C114" t="s">
         <v>16</v>
@@ -4422,10 +4422,10 @@
     </row>
     <row r="115" spans="1:16">
       <c r="A115">
-        <v>1544906032921</v>
+        <v>1544944206875</v>
       </c>
       <c r="B115">
-        <v>49911</v>
+        <v>25237</v>
       </c>
       <c r="C115" t="s">
         <v>16</v>
@@ -4457,10 +4457,10 @@
     </row>
     <row r="116" spans="1:16">
       <c r="A116">
-        <v>1544906033935</v>
+        <v>1544944207890</v>
       </c>
       <c r="B116">
-        <v>49924</v>
+        <v>25252</v>
       </c>
       <c r="C116" t="s">
         <v>16</v>
@@ -4492,10 +4492,10 @@
     </row>
     <row r="117" spans="1:16">
       <c r="A117">
-        <v>1544906034935</v>
+        <v>1544944208906</v>
       </c>
       <c r="B117">
-        <v>49898</v>
+        <v>25267</v>
       </c>
       <c r="C117" t="s">
         <v>16</v>
@@ -4527,10 +4527,10 @@
     </row>
     <row r="118" spans="1:16">
       <c r="A118">
-        <v>1544906035951</v>
+        <v>1544944209906</v>
       </c>
       <c r="B118">
-        <v>49886</v>
+        <v>25218</v>
       </c>
       <c r="C118" t="s">
         <v>16</v>
@@ -4562,10 +4562,10 @@
     </row>
     <row r="119" spans="1:16">
       <c r="A119">
-        <v>1544906036967</v>
+        <v>1544944210922</v>
       </c>
       <c r="B119">
-        <v>49923</v>
+        <v>25223</v>
       </c>
       <c r="C119" t="s">
         <v>16</v>
@@ -4597,10 +4597,10 @@
     </row>
     <row r="120" spans="1:16">
       <c r="A120">
-        <v>1544906037967</v>
+        <v>1544944211937</v>
       </c>
       <c r="B120">
-        <v>49852</v>
+        <v>25213</v>
       </c>
       <c r="C120" t="s">
         <v>16</v>
@@ -4632,10 +4632,10 @@
     </row>
     <row r="121" spans="1:16">
       <c r="A121">
-        <v>1544906038982</v>
+        <v>1544944212937</v>
       </c>
       <c r="B121">
-        <v>49854</v>
+        <v>25198</v>
       </c>
       <c r="C121" t="s">
         <v>16</v>
@@ -4667,10 +4667,10 @@
     </row>
     <row r="122" spans="1:16">
       <c r="A122">
-        <v>1544906039982</v>
+        <v>1544944213953</v>
       </c>
       <c r="B122">
-        <v>49931</v>
+        <v>25232</v>
       </c>
       <c r="C122" t="s">
         <v>16</v>
@@ -4702,10 +4702,10 @@
     </row>
     <row r="123" spans="1:16">
       <c r="A123">
-        <v>1544906040982</v>
+        <v>1544944214969</v>
       </c>
       <c r="B123">
-        <v>49908</v>
+        <v>25267</v>
       </c>
       <c r="C123" t="s">
         <v>16</v>
@@ -4737,10 +4737,10 @@
     </row>
     <row r="124" spans="1:16">
       <c r="A124">
-        <v>1544906041998</v>
+        <v>1544944215969</v>
       </c>
       <c r="B124">
-        <v>49869</v>
+        <v>25310</v>
       </c>
       <c r="C124" t="s">
         <v>16</v>
@@ -4772,10 +4772,10 @@
     </row>
     <row r="125" spans="1:16">
       <c r="A125">
-        <v>1544906043092</v>
+        <v>1544944216984</v>
       </c>
       <c r="B125">
-        <v>49867</v>
+        <v>25263</v>
       </c>
       <c r="C125" t="s">
         <v>16</v>
@@ -4807,10 +4807,10 @@
     </row>
     <row r="126" spans="1:16">
       <c r="A126">
-        <v>1544906044092</v>
+        <v>1544944217984</v>
       </c>
       <c r="B126">
-        <v>49943</v>
+        <v>25307</v>
       </c>
       <c r="C126" t="s">
         <v>16</v>
@@ -4842,10 +4842,10 @@
     </row>
     <row r="127" spans="1:16">
       <c r="A127">
-        <v>1544906045107</v>
+        <v>1544944219000</v>
       </c>
       <c r="B127">
-        <v>49890</v>
+        <v>25461</v>
       </c>
       <c r="C127" t="s">
         <v>16</v>
@@ -4877,10 +4877,10 @@
     </row>
     <row r="128" spans="1:16">
       <c r="A128">
-        <v>1544906046123</v>
+        <v>1544944220000</v>
       </c>
       <c r="B128">
-        <v>49957</v>
+        <v>25374</v>
       </c>
       <c r="C128" t="s">
         <v>16</v>
@@ -4912,10 +4912,10 @@
     </row>
     <row r="129" spans="1:16">
       <c r="A129">
-        <v>1544906047138</v>
+        <v>1544944221015</v>
       </c>
       <c r="B129">
-        <v>49885</v>
+        <v>25376</v>
       </c>
       <c r="C129" t="s">
         <v>16</v>
@@ -4947,10 +4947,10 @@
     </row>
     <row r="130" spans="1:16">
       <c r="A130">
-        <v>1544906048138</v>
+        <v>1544944222015</v>
       </c>
       <c r="B130">
-        <v>49875</v>
+        <v>25333</v>
       </c>
       <c r="C130" t="s">
         <v>16</v>
@@ -4982,10 +4982,10 @@
     </row>
     <row r="131" spans="1:16">
       <c r="A131">
-        <v>1544906049154</v>
+        <v>1544944223031</v>
       </c>
       <c r="B131">
-        <v>49930</v>
+        <v>25357</v>
       </c>
       <c r="C131" t="s">
         <v>16</v>
@@ -5017,10 +5017,10 @@
     </row>
     <row r="132" spans="1:16">
       <c r="A132">
-        <v>1544906050170</v>
+        <v>1544944224047</v>
       </c>
       <c r="B132">
-        <v>49935</v>
+        <v>25509</v>
       </c>
       <c r="C132" t="s">
         <v>16</v>
@@ -5052,10 +5052,10 @@
     </row>
     <row r="133" spans="1:16">
       <c r="A133">
-        <v>1544906051185</v>
+        <v>1544944225062</v>
       </c>
       <c r="B133">
-        <v>49881</v>
+        <v>25402</v>
       </c>
       <c r="C133" t="s">
         <v>16</v>
@@ -5087,10 +5087,10 @@
     </row>
     <row r="134" spans="1:16">
       <c r="A134">
-        <v>1544906052201</v>
+        <v>1544944226064</v>
       </c>
       <c r="B134">
-        <v>49909</v>
+        <v>25398</v>
       </c>
       <c r="C134" t="s">
         <v>16</v>
@@ -5122,10 +5122,10 @@
     </row>
     <row r="135" spans="1:16">
       <c r="A135">
-        <v>1544906053201</v>
+        <v>1544944227078</v>
       </c>
       <c r="B135">
-        <v>49860</v>
+        <v>25440</v>
       </c>
       <c r="C135" t="s">
         <v>16</v>
@@ -5157,10 +5157,10 @@
     </row>
     <row r="136" spans="1:16">
       <c r="A136">
-        <v>1544906054217</v>
+        <v>1544944228094</v>
       </c>
       <c r="B136">
-        <v>49993</v>
+        <v>25370</v>
       </c>
       <c r="C136" t="s">
         <v>16</v>
@@ -5192,10 +5192,10 @@
     </row>
     <row r="137" spans="1:16">
       <c r="A137">
-        <v>1544906055232</v>
+        <v>1544944229109</v>
       </c>
       <c r="B137">
-        <v>49920</v>
+        <v>25465</v>
       </c>
       <c r="C137" t="s">
         <v>16</v>
@@ -5227,10 +5227,10 @@
     </row>
     <row r="138" spans="1:16">
       <c r="A138">
-        <v>1544906056248</v>
+        <v>1544944230125</v>
       </c>
       <c r="B138">
-        <v>49921</v>
+        <v>25432</v>
       </c>
       <c r="C138" t="s">
         <v>16</v>
@@ -5262,10 +5262,10 @@
     </row>
     <row r="139" spans="1:16">
       <c r="A139">
-        <v>1544906057263</v>
+        <v>1544944231140</v>
       </c>
       <c r="B139">
-        <v>49874</v>
+        <v>25395</v>
       </c>
       <c r="C139" t="s">
         <v>16</v>
@@ -5297,10 +5297,10 @@
     </row>
     <row r="140" spans="1:16">
       <c r="A140">
-        <v>1544906058279</v>
+        <v>1544944232156</v>
       </c>
       <c r="B140">
-        <v>49864</v>
+        <v>25423</v>
       </c>
       <c r="C140" t="s">
         <v>16</v>
@@ -5332,10 +5332,10 @@
     </row>
     <row r="141" spans="1:16">
       <c r="A141">
-        <v>1544906059295</v>
+        <v>1544944233156</v>
       </c>
       <c r="B141">
-        <v>49931</v>
+        <v>25380</v>
       </c>
       <c r="C141" t="s">
         <v>16</v>
@@ -5367,10 +5367,10 @@
     </row>
     <row r="142" spans="1:16">
       <c r="A142">
-        <v>1544906060295</v>
+        <v>1544944234156</v>
       </c>
       <c r="B142">
-        <v>49946</v>
+        <v>25372</v>
       </c>
       <c r="C142" t="s">
         <v>16</v>
@@ -5402,10 +5402,10 @@
     </row>
     <row r="143" spans="1:16">
       <c r="A143">
-        <v>1544906061310</v>
+        <v>1544944235172</v>
       </c>
       <c r="B143">
-        <v>49929</v>
+        <v>25468</v>
       </c>
       <c r="C143" t="s">
         <v>16</v>
@@ -5437,10 +5437,10 @@
     </row>
     <row r="144" spans="1:16">
       <c r="A144">
-        <v>1544906062310</v>
+        <v>1544944236187</v>
       </c>
       <c r="B144">
-        <v>49903</v>
+        <v>25459</v>
       </c>
       <c r="C144" t="s">
         <v>16</v>
@@ -5472,10 +5472,10 @@
     </row>
     <row r="145" spans="1:16">
       <c r="A145">
-        <v>1544906063310</v>
+        <v>1544944237188</v>
       </c>
       <c r="B145">
-        <v>49864</v>
+        <v>25419</v>
       </c>
       <c r="C145" t="s">
         <v>16</v>
@@ -5507,10 +5507,10 @@
     </row>
     <row r="146" spans="1:16">
       <c r="A146">
-        <v>1544906064326</v>
+        <v>1544944238203</v>
       </c>
       <c r="B146">
-        <v>50002</v>
+        <v>25394</v>
       </c>
       <c r="C146" t="s">
         <v>16</v>
@@ -5542,10 +5542,10 @@
     </row>
     <row r="147" spans="1:16">
       <c r="A147">
-        <v>1544906065341</v>
+        <v>1544944239219</v>
       </c>
       <c r="B147">
-        <v>49923</v>
+        <v>25430</v>
       </c>
       <c r="C147" t="s">
         <v>16</v>
@@ -5577,10 +5577,10 @@
     </row>
     <row r="148" spans="1:16">
       <c r="A148">
-        <v>1544906066341</v>
+        <v>1544944240234</v>
       </c>
       <c r="B148">
-        <v>49883</v>
+        <v>25446</v>
       </c>
       <c r="C148" t="s">
         <v>16</v>
@@ -5612,10 +5612,10 @@
     </row>
     <row r="149" spans="1:16">
       <c r="A149">
-        <v>1544906067357</v>
+        <v>1544944241234</v>
       </c>
       <c r="B149">
-        <v>49886</v>
+        <v>25443</v>
       </c>
       <c r="C149" t="s">
         <v>16</v>
@@ -5647,10 +5647,10 @@
     </row>
     <row r="150" spans="1:16">
       <c r="A150">
-        <v>1544906068357</v>
+        <v>1544944242234</v>
       </c>
       <c r="B150">
-        <v>49874</v>
+        <v>25497</v>
       </c>
       <c r="C150" t="s">
         <v>16</v>
@@ -5682,10 +5682,10 @@
     </row>
     <row r="151" spans="1:16">
       <c r="A151">
-        <v>1544906069373</v>
+        <v>1544944243250</v>
       </c>
       <c r="B151">
-        <v>49974</v>
+        <v>25438</v>
       </c>
       <c r="C151" t="s">
         <v>16</v>
@@ -5717,10 +5717,10 @@
     </row>
     <row r="152" spans="1:16">
       <c r="A152">
-        <v>1544906070388</v>
+        <v>1544944244250</v>
       </c>
       <c r="B152">
-        <v>49919</v>
+        <v>25475</v>
       </c>
       <c r="C152" t="s">
         <v>16</v>
@@ -5752,10 +5752,10 @@
     </row>
     <row r="153" spans="1:16">
       <c r="A153">
-        <v>1544906071404</v>
+        <v>1544944245265</v>
       </c>
       <c r="B153">
-        <v>49904</v>
+        <v>25400</v>
       </c>
       <c r="C153" t="s">
         <v>16</v>
@@ -5787,10 +5787,10 @@
     </row>
     <row r="154" spans="1:16">
       <c r="A154">
-        <v>1544906072419</v>
+        <v>1544944246281</v>
       </c>
       <c r="B154">
-        <v>49960</v>
+        <v>25486</v>
       </c>
       <c r="C154" t="s">
         <v>16</v>
@@ -5822,10 +5822,10 @@
     </row>
     <row r="155" spans="1:16">
       <c r="A155">
-        <v>1544906073419</v>
+        <v>1544944247282</v>
       </c>
       <c r="B155">
-        <v>49866</v>
+        <v>25421</v>
       </c>
       <c r="C155" t="s">
         <v>16</v>
@@ -5857,10 +5857,10 @@
     </row>
     <row r="156" spans="1:16">
       <c r="A156">
-        <v>1544906074419</v>
+        <v>1544944248297</v>
       </c>
       <c r="B156">
-        <v>49941</v>
+        <v>25501</v>
       </c>
       <c r="C156" t="s">
         <v>16</v>
@@ -5892,10 +5892,10 @@
     </row>
     <row r="157" spans="1:16">
       <c r="A157">
-        <v>1544906075435</v>
+        <v>1544944249297</v>
       </c>
       <c r="B157">
-        <v>49949</v>
+        <v>25382</v>
       </c>
       <c r="C157" t="s">
         <v>16</v>
@@ -5927,10 +5927,10 @@
     </row>
     <row r="158" spans="1:16">
       <c r="A158">
-        <v>1544906076435</v>
+        <v>1544944250338</v>
       </c>
       <c r="B158">
-        <v>49913</v>
+        <v>25287</v>
       </c>
       <c r="C158" t="s">
         <v>16</v>
@@ -5962,10 +5962,10 @@
     </row>
     <row r="159" spans="1:16">
       <c r="A159">
-        <v>1544906077451</v>
+        <v>1544944251657</v>
       </c>
       <c r="B159">
-        <v>49888</v>
+        <v>25496</v>
       </c>
       <c r="C159" t="s">
         <v>16</v>
@@ -5997,10 +5997,10 @@
     </row>
     <row r="160" spans="1:16">
       <c r="A160">
-        <v>1544906078466</v>
+        <v>1544944252842</v>
       </c>
       <c r="B160">
-        <v>49961</v>
+        <v>25481</v>
       </c>
       <c r="C160" t="s">
         <v>16</v>
@@ -6032,10 +6032,10 @@
     </row>
     <row r="161" spans="1:16">
       <c r="A161">
-        <v>1544906079466</v>
+        <v>1544944253844</v>
       </c>
       <c r="B161">
-        <v>49915</v>
+        <v>25470</v>
       </c>
       <c r="C161" t="s">
         <v>16</v>
@@ -6067,10 +6067,10 @@
     </row>
     <row r="162" spans="1:16">
       <c r="A162">
-        <v>1544906080466</v>
+        <v>1544944254859</v>
       </c>
       <c r="B162">
-        <v>49923</v>
+        <v>25480</v>
       </c>
       <c r="C162" t="s">
         <v>16</v>
@@ -6102,10 +6102,10 @@
     </row>
     <row r="163" spans="1:16">
       <c r="A163">
-        <v>1544906081482</v>
+        <v>1544944255859</v>
       </c>
       <c r="B163">
-        <v>49920</v>
+        <v>25542</v>
       </c>
       <c r="C163" t="s">
         <v>16</v>
@@ -6137,10 +6137,10 @@
     </row>
     <row r="164" spans="1:16">
       <c r="A164">
-        <v>1544906082497</v>
+        <v>1544944256859</v>
       </c>
       <c r="B164">
-        <v>49887</v>
+        <v>25520</v>
       </c>
       <c r="C164" t="s">
         <v>16</v>
@@ -6172,10 +6172,10 @@
     </row>
     <row r="165" spans="1:16">
       <c r="A165">
-        <v>1544906083497</v>
+        <v>1544944257875</v>
       </c>
       <c r="B165">
-        <v>49947</v>
+        <v>25584</v>
       </c>
       <c r="C165" t="s">
         <v>16</v>
@@ -6207,10 +6207,10 @@
     </row>
     <row r="166" spans="1:16">
       <c r="A166">
-        <v>1544906084513</v>
+        <v>1544944258891</v>
       </c>
       <c r="B166">
-        <v>49951</v>
+        <v>25626</v>
       </c>
       <c r="C166" t="s">
         <v>16</v>
@@ -6242,10 +6242,10 @@
     </row>
     <row r="167" spans="1:16">
       <c r="A167">
-        <v>1544906085513</v>
+        <v>1544944259906</v>
       </c>
       <c r="B167">
-        <v>49945</v>
+        <v>25583</v>
       </c>
       <c r="C167" t="s">
         <v>16</v>
@@ -6277,10 +6277,10 @@
     </row>
     <row r="168" spans="1:16">
       <c r="A168">
-        <v>1544906086529</v>
+        <v>1544944260906</v>
       </c>
       <c r="B168">
-        <v>49882</v>
+        <v>25585</v>
       </c>
       <c r="C168" t="s">
         <v>16</v>
@@ -6312,10 +6312,10 @@
     </row>
     <row r="169" spans="1:16">
       <c r="A169">
-        <v>1544906087544</v>
+        <v>1544944261922</v>
       </c>
       <c r="B169">
-        <v>49883</v>
+        <v>25558</v>
       </c>
       <c r="C169" t="s">
         <v>16</v>
@@ -6347,10 +6347,10 @@
     </row>
     <row r="170" spans="1:16">
       <c r="A170">
-        <v>1544906088544</v>
+        <v>1544944262922</v>
       </c>
       <c r="B170">
-        <v>49963</v>
+        <v>25624</v>
       </c>
       <c r="C170" t="s">
         <v>16</v>
@@ -6382,10 +6382,10 @@
     </row>
     <row r="171" spans="1:16">
       <c r="A171">
-        <v>1544906089560</v>
+        <v>1544944263937</v>
       </c>
       <c r="B171">
-        <v>49942</v>
+        <v>25595</v>
       </c>
       <c r="C171" t="s">
         <v>16</v>
@@ -6417,10 +6417,10 @@
     </row>
     <row r="172" spans="1:16">
       <c r="A172">
-        <v>1544906090575</v>
+        <v>1544944264937</v>
       </c>
       <c r="B172">
-        <v>49901</v>
+        <v>25624</v>
       </c>
       <c r="C172" t="s">
         <v>16</v>
@@ -6452,10 +6452,10 @@
     </row>
     <row r="173" spans="1:16">
       <c r="A173">
-        <v>1544906091576</v>
+        <v>1544944265953</v>
       </c>
       <c r="B173">
-        <v>49902</v>
+        <v>25576</v>
       </c>
       <c r="C173" t="s">
         <v>16</v>
@@ -6487,10 +6487,10 @@
     </row>
     <row r="174" spans="1:16">
       <c r="A174">
-        <v>1544906092576</v>
+        <v>1544944266953</v>
       </c>
       <c r="B174">
-        <v>49907</v>
+        <v>25676</v>
       </c>
       <c r="C174" t="s">
         <v>16</v>
@@ -6522,10 +6522,10 @@
     </row>
     <row r="175" spans="1:16">
       <c r="A175">
-        <v>1544906093591</v>
+        <v>1544944267953</v>
       </c>
       <c r="B175">
-        <v>49963</v>
+        <v>25617</v>
       </c>
       <c r="C175" t="s">
         <v>16</v>
@@ -6557,10 +6557,10 @@
     </row>
     <row r="176" spans="1:16">
       <c r="A176">
-        <v>1544906094607</v>
+        <v>1544944268969</v>
       </c>
       <c r="B176">
-        <v>49972</v>
+        <v>25710</v>
       </c>
       <c r="C176" t="s">
         <v>16</v>
@@ -6592,10 +6592,10 @@
     </row>
     <row r="177" spans="1:16">
       <c r="A177">
-        <v>1544906095622</v>
+        <v>1544944269969</v>
       </c>
       <c r="B177">
-        <v>49943</v>
+        <v>25593</v>
       </c>
       <c r="C177" t="s">
         <v>16</v>
@@ -6627,10 +6627,10 @@
     </row>
     <row r="178" spans="1:16">
       <c r="A178">
-        <v>1544906096623</v>
+        <v>1544944270984</v>
       </c>
       <c r="B178">
-        <v>49894</v>
+        <v>25615</v>
       </c>
       <c r="C178" t="s">
         <v>16</v>
@@ -6662,10 +6662,10 @@
     </row>
     <row r="179" spans="1:16">
       <c r="A179">
-        <v>1544906097638</v>
+        <v>1544944271984</v>
       </c>
       <c r="B179">
-        <v>49896</v>
+        <v>25642</v>
       </c>
       <c r="C179" t="s">
         <v>16</v>
@@ -6697,10 +6697,10 @@
     </row>
     <row r="180" spans="1:16">
       <c r="A180">
-        <v>1544906098654</v>
+        <v>1544944272984</v>
       </c>
       <c r="B180">
-        <v>49974</v>
+        <v>25649</v>
       </c>
       <c r="C180" t="s">
         <v>16</v>
@@ -6732,10 +6732,10 @@
     </row>
     <row r="181" spans="1:16">
       <c r="A181">
-        <v>1544906099669</v>
+        <v>1544944273984</v>
       </c>
       <c r="B181">
-        <v>49988</v>
+        <v>25596</v>
       </c>
       <c r="C181" t="s">
         <v>16</v>
@@ -6767,10 +6767,10 @@
     </row>
     <row r="182" spans="1:16">
       <c r="A182">
-        <v>1544906100685</v>
+        <v>1544944275000</v>
       </c>
       <c r="B182">
-        <v>49935</v>
+        <v>25629</v>
       </c>
       <c r="C182" t="s">
         <v>16</v>
@@ -6802,10 +6802,10 @@
     </row>
     <row r="183" spans="1:16">
       <c r="A183">
-        <v>1544906101685</v>
+        <v>1544944276015</v>
       </c>
       <c r="B183">
-        <v>49913</v>
+        <v>25613</v>
       </c>
       <c r="C183" t="s">
         <v>16</v>
@@ -6837,10 +6837,10 @@
     </row>
     <row r="184" spans="1:16">
       <c r="A184">
-        <v>1544906102685</v>
+        <v>1544944277031</v>
       </c>
       <c r="B184">
-        <v>49909</v>
+        <v>25676</v>
       </c>
       <c r="C184" t="s">
         <v>16</v>
@@ -6872,10 +6872,10 @@
     </row>
     <row r="185" spans="1:16">
       <c r="A185">
-        <v>1544906103701</v>
+        <v>1544944278031</v>
       </c>
       <c r="B185">
-        <v>49945</v>
+        <v>25618</v>
       </c>
       <c r="C185" t="s">
         <v>16</v>
@@ -6907,10 +6907,10 @@
     </row>
     <row r="186" spans="1:16">
       <c r="A186">
-        <v>1544906104716</v>
+        <v>1544944279047</v>
       </c>
       <c r="B186">
-        <v>50114</v>
+        <v>25646</v>
       </c>
       <c r="C186" t="s">
         <v>16</v>
@@ -6942,10 +6942,10 @@
     </row>
     <row r="187" spans="1:16">
       <c r="A187">
-        <v>1544906105716</v>
+        <v>1544944280047</v>
       </c>
       <c r="B187">
-        <v>50178</v>
+        <v>25640</v>
       </c>
       <c r="C187" t="s">
         <v>16</v>
@@ -6977,10 +6977,10 @@
     </row>
     <row r="188" spans="1:16">
       <c r="A188">
-        <v>1544906106716</v>
+        <v>1544944281062</v>
       </c>
       <c r="B188">
-        <v>50196</v>
+        <v>25644</v>
       </c>
       <c r="C188" t="s">
         <v>16</v>
@@ -7012,10 +7012,10 @@
     </row>
     <row r="189" spans="1:16">
       <c r="A189">
-        <v>1544906107732</v>
+        <v>1544944282078</v>
       </c>
       <c r="B189">
-        <v>50225</v>
+        <v>25735</v>
       </c>
       <c r="C189" t="s">
         <v>16</v>
@@ -7047,10 +7047,10 @@
     </row>
     <row r="190" spans="1:16">
       <c r="A190">
-        <v>1544906108732</v>
+        <v>1544944283094</v>
       </c>
       <c r="B190">
-        <v>50222</v>
+        <v>25718</v>
       </c>
       <c r="C190" t="s">
         <v>16</v>
@@ -7082,10 +7082,10 @@
     </row>
     <row r="191" spans="1:16">
       <c r="A191">
-        <v>1544906109747</v>
+        <v>1544944284094</v>
       </c>
       <c r="B191">
-        <v>50265</v>
+        <v>25725</v>
       </c>
       <c r="C191" t="s">
         <v>16</v>
@@ -7117,10 +7117,10 @@
     </row>
     <row r="192" spans="1:16">
       <c r="A192">
-        <v>1544906110747</v>
+        <v>1544944285109</v>
       </c>
       <c r="B192">
-        <v>50195</v>
+        <v>25690</v>
       </c>
       <c r="C192" t="s">
         <v>16</v>
@@ -7152,10 +7152,10 @@
     </row>
     <row r="193" spans="1:16">
       <c r="A193">
-        <v>1544906111747</v>
+        <v>1544944286125</v>
       </c>
       <c r="B193">
-        <v>50205</v>
+        <v>25663</v>
       </c>
       <c r="C193" t="s">
         <v>16</v>
@@ -7187,10 +7187,10 @@
     </row>
     <row r="194" spans="1:16">
       <c r="A194">
-        <v>1544906112763</v>
+        <v>1544944287140</v>
       </c>
       <c r="B194">
-        <v>50278</v>
+        <v>25775</v>
       </c>
       <c r="C194" t="s">
         <v>16</v>
@@ -7222,10 +7222,10 @@
     </row>
     <row r="195" spans="1:16">
       <c r="A195">
-        <v>1544906113763</v>
+        <v>1544944288156</v>
       </c>
       <c r="B195">
-        <v>50428</v>
+        <v>25834</v>
       </c>
       <c r="C195" t="s">
         <v>16</v>
@@ -7257,10 +7257,10 @@
     </row>
     <row r="196" spans="1:16">
       <c r="A196">
-        <v>1544906114763</v>
+        <v>1544944289172</v>
       </c>
       <c r="B196">
-        <v>49955</v>
+        <v>25722</v>
       </c>
       <c r="C196" t="s">
         <v>16</v>
@@ -7292,10 +7292,10 @@
     </row>
     <row r="197" spans="1:16">
       <c r="A197">
-        <v>1544906115779</v>
+        <v>1544944290172</v>
       </c>
       <c r="B197">
-        <v>49984</v>
+        <v>25733</v>
       </c>
       <c r="C197" t="s">
         <v>16</v>
@@ -7327,10 +7327,10 @@
     </row>
     <row r="198" spans="1:16">
       <c r="A198">
-        <v>1544906116779</v>
+        <v>1544944291187</v>
       </c>
       <c r="B198">
-        <v>49936</v>
+        <v>25684</v>
       </c>
       <c r="C198" t="s">
         <v>16</v>
@@ -7362,10 +7362,10 @@
     </row>
     <row r="199" spans="1:16">
       <c r="A199">
-        <v>1544906117795</v>
+        <v>1544944292203</v>
       </c>
       <c r="B199">
-        <v>49926</v>
+        <v>25746</v>
       </c>
       <c r="C199" t="s">
         <v>16</v>
@@ -7397,10 +7397,10 @@
     </row>
     <row r="200" spans="1:16">
       <c r="A200">
-        <v>1544906118810</v>
+        <v>1544944293203</v>
       </c>
       <c r="B200">
-        <v>49982</v>
+        <v>25780</v>
       </c>
       <c r="C200" t="s">
         <v>16</v>
@@ -7432,10 +7432,10 @@
     </row>
     <row r="201" spans="1:16">
       <c r="A201">
-        <v>1544906119826</v>
+        <v>1544944294219</v>
       </c>
       <c r="B201">
-        <v>49943</v>
+        <v>25725</v>
       </c>
       <c r="C201" t="s">
         <v>16</v>
@@ -7467,10 +7467,10 @@
     </row>
     <row r="202" spans="1:16">
       <c r="A202">
-        <v>1544906120841</v>
+        <v>1544944295219</v>
       </c>
       <c r="B202">
-        <v>49928</v>
+        <v>25714</v>
       </c>
       <c r="C202" t="s">
         <v>16</v>
@@ -7502,10 +7502,10 @@
     </row>
     <row r="203" spans="1:16">
       <c r="A203">
-        <v>1544906121858</v>
+        <v>1544944296234</v>
       </c>
       <c r="B203">
-        <v>49950</v>
+        <v>25669</v>
       </c>
       <c r="C203" t="s">
         <v>16</v>
@@ -7537,10 +7537,10 @@
     </row>
     <row r="204" spans="1:16">
       <c r="A204">
-        <v>1544906122873</v>
+        <v>1544944297234</v>
       </c>
       <c r="B204">
-        <v>49962</v>
+        <v>25758</v>
       </c>
       <c r="C204" t="s">
         <v>16</v>
@@ -7572,10 +7572,10 @@
     </row>
     <row r="205" spans="1:16">
       <c r="A205">
-        <v>1544906123888</v>
+        <v>1544944298250</v>
       </c>
       <c r="B205">
-        <v>49948</v>
+        <v>25752</v>
       </c>
       <c r="C205" t="s">
         <v>16</v>
@@ -7607,10 +7607,10 @@
     </row>
     <row r="206" spans="1:16">
       <c r="A206">
-        <v>1544906124904</v>
+        <v>1544944299266</v>
       </c>
       <c r="B206">
-        <v>49965</v>
+        <v>25744</v>
       </c>
       <c r="C206" t="s">
         <v>16</v>
@@ -7642,10 +7642,10 @@
     </row>
     <row r="207" spans="1:16">
       <c r="A207">
-        <v>1544906125904</v>
+        <v>1544944300281</v>
       </c>
       <c r="B207">
-        <v>49925</v>
+        <v>25742</v>
       </c>
       <c r="C207" t="s">
         <v>16</v>
@@ -7677,10 +7677,10 @@
     </row>
     <row r="208" spans="1:16">
       <c r="A208">
-        <v>1544906126919</v>
+        <v>1544944301281</v>
       </c>
       <c r="B208">
-        <v>49922</v>
+        <v>25670</v>
       </c>
       <c r="C208" t="s">
         <v>16</v>
@@ -7712,10 +7712,10 @@
     </row>
     <row r="209" spans="1:16">
       <c r="A209">
-        <v>1544906127935</v>
+        <v>1544944302297</v>
       </c>
       <c r="B209">
-        <v>49973</v>
+        <v>25763</v>
       </c>
       <c r="C209" t="s">
         <v>16</v>
@@ -7747,10 +7747,10 @@
     </row>
     <row r="210" spans="1:16">
       <c r="A210">
-        <v>1544906128950</v>
+        <v>1544944303312</v>
       </c>
       <c r="B210">
-        <v>50001</v>
+        <v>25776</v>
       </c>
       <c r="C210" t="s">
         <v>16</v>
@@ -7782,10 +7782,10 @@
     </row>
     <row r="211" spans="1:16">
       <c r="A211">
-        <v>1544906129951</v>
+        <v>1544944304313</v>
       </c>
       <c r="B211">
-        <v>49934</v>
+        <v>25792</v>
       </c>
       <c r="C211" t="s">
         <v>16</v>
@@ -7817,10 +7817,10 @@
     </row>
     <row r="212" spans="1:16">
       <c r="A212">
-        <v>1544906130966</v>
+        <v>1544944305328</v>
       </c>
       <c r="B212">
-        <v>49920</v>
+        <v>25845</v>
       </c>
       <c r="C212" t="s">
         <v>16</v>
@@ -7852,10 +7852,10 @@
     </row>
     <row r="213" spans="1:16">
       <c r="A213">
-        <v>1544906131982</v>
+        <v>1544944306344</v>
       </c>
       <c r="B213">
-        <v>49927</v>
+        <v>25783</v>
       </c>
       <c r="C213" t="s">
         <v>16</v>
@@ -7887,10 +7887,10 @@
     </row>
     <row r="214" spans="1:16">
       <c r="A214">
-        <v>1544906132982</v>
+        <v>1544944307359</v>
       </c>
       <c r="B214">
-        <v>49982</v>
+        <v>25971</v>
       </c>
       <c r="C214" t="s">
         <v>16</v>
@@ -7922,10 +7922,10 @@
     </row>
     <row r="215" spans="1:16">
       <c r="A215">
-        <v>1544906133997</v>
+        <v>1544944308360</v>
       </c>
       <c r="B215">
-        <v>50008</v>
+        <v>26042</v>
       </c>
       <c r="C215" t="s">
         <v>16</v>
@@ -7957,10 +7957,10 @@
     </row>
     <row r="216" spans="1:16">
       <c r="A216">
-        <v>1544906135013</v>
+        <v>1544944309562</v>
       </c>
       <c r="B216">
-        <v>49944</v>
+        <v>26008</v>
       </c>
       <c r="C216" t="s">
         <v>16</v>
@@ -7992,10 +7992,10 @@
     </row>
     <row r="217" spans="1:16">
       <c r="A217">
-        <v>1544906136029</v>
+        <v>1544944310562</v>
       </c>
       <c r="B217">
-        <v>49934</v>
+        <v>26156</v>
       </c>
       <c r="C217" t="s">
         <v>16</v>
@@ -8027,10 +8027,10 @@
     </row>
     <row r="218" spans="1:16">
       <c r="A218">
-        <v>1544906137044</v>
+        <v>1544944311578</v>
       </c>
       <c r="B218">
-        <v>50069</v>
+        <v>25990</v>
       </c>
       <c r="C218" t="s">
         <v>16</v>
@@ -8062,10 +8062,10 @@
     </row>
     <row r="219" spans="1:16">
       <c r="A219">
-        <v>1544906138044</v>
+        <v>1544944312578</v>
       </c>
       <c r="B219">
-        <v>49968</v>
+        <v>25984</v>
       </c>
       <c r="C219" t="s">
         <v>16</v>
@@ -8097,10 +8097,10 @@
     </row>
     <row r="220" spans="1:16">
       <c r="A220">
-        <v>1544906139045</v>
+        <v>1544944313594</v>
       </c>
       <c r="B220">
-        <v>49995</v>
+        <v>26065</v>
       </c>
       <c r="C220" t="s">
         <v>16</v>
@@ -8132,10 +8132,10 @@
     </row>
     <row r="221" spans="1:16">
       <c r="A221">
-        <v>1544906140045</v>
+        <v>1544944314594</v>
       </c>
       <c r="B221">
-        <v>49936</v>
+        <v>26056</v>
       </c>
       <c r="C221" t="s">
         <v>16</v>
@@ -8167,10 +8167,10 @@
     </row>
     <row r="222" spans="1:16">
       <c r="A222">
-        <v>1544906141060</v>
+        <v>1544944315609</v>
       </c>
       <c r="B222">
-        <v>49905</v>
+        <v>26074</v>
       </c>
       <c r="C222" t="s">
         <v>16</v>
@@ -8202,10 +8202,10 @@
     </row>
     <row r="223" spans="1:16">
       <c r="A223">
-        <v>1544906142060</v>
+        <v>1544944316609</v>
       </c>
       <c r="B223">
-        <v>49955</v>
+        <v>26028</v>
       </c>
       <c r="C223" t="s">
         <v>16</v>
@@ -8237,10 +8237,10 @@
     </row>
     <row r="224" spans="1:16">
       <c r="A224">
-        <v>1544906143060</v>
+        <v>1544944317625</v>
       </c>
       <c r="B224">
-        <v>49983</v>
+        <v>26006</v>
       </c>
       <c r="C224" t="s">
         <v>16</v>
@@ -8272,10 +8272,10 @@
     </row>
     <row r="225" spans="1:16">
       <c r="A225">
-        <v>1544906144075</v>
+        <v>1544944318640</v>
       </c>
       <c r="B225">
-        <v>49926</v>
+        <v>26068</v>
       </c>
       <c r="C225" t="s">
         <v>16</v>
@@ -8307,10 +8307,10 @@
     </row>
     <row r="226" spans="1:16">
       <c r="A226">
-        <v>1544906145075</v>
+        <v>1544944319640</v>
       </c>
       <c r="B226">
-        <v>49907</v>
+        <v>26057</v>
       </c>
       <c r="C226" t="s">
         <v>16</v>
@@ -8342,10 +8342,10 @@
     </row>
     <row r="227" spans="1:16">
       <c r="A227">
-        <v>1544906146091</v>
+        <v>1544944320656</v>
       </c>
       <c r="B227">
-        <v>49947</v>
+        <v>26012</v>
       </c>
       <c r="C227" t="s">
         <v>16</v>
@@ -8377,10 +8377,10 @@
     </row>
     <row r="228" spans="1:16">
       <c r="A228">
-        <v>1544906147107</v>
+        <v>1544944321656</v>
       </c>
       <c r="B228">
-        <v>49957</v>
+        <v>26005</v>
       </c>
       <c r="C228" t="s">
         <v>16</v>
@@ -8412,10 +8412,10 @@
     </row>
     <row r="229" spans="1:16">
       <c r="A229">
-        <v>1544906148107</v>
+        <v>1544944322656</v>
       </c>
       <c r="B229">
-        <v>49996</v>
+        <v>26030</v>
       </c>
       <c r="C229" t="s">
         <v>16</v>
@@ -8447,10 +8447,10 @@
     </row>
     <row r="230" spans="1:16">
       <c r="A230">
-        <v>1544906149122</v>
+        <v>1544944323672</v>
       </c>
       <c r="B230">
-        <v>49962</v>
+        <v>26074</v>
       </c>
       <c r="C230" t="s">
         <v>16</v>
@@ -8482,10 +8482,10 @@
     </row>
     <row r="231" spans="1:16">
       <c r="A231">
-        <v>1544906150122</v>
+        <v>1544944324687</v>
       </c>
       <c r="B231">
-        <v>49917</v>
+        <v>26087</v>
       </c>
       <c r="C231" t="s">
         <v>16</v>
@@ -8517,10 +8517,10 @@
     </row>
     <row r="232" spans="1:16">
       <c r="A232">
-        <v>1544906151138</v>
+        <v>1544944325703</v>
       </c>
       <c r="B232">
-        <v>49988</v>
+        <v>26068</v>
       </c>
       <c r="C232" t="s">
         <v>16</v>
@@ -8552,10 +8552,10 @@
     </row>
     <row r="233" spans="1:16">
       <c r="A233">
-        <v>1544906152138</v>
+        <v>1544944326703</v>
       </c>
       <c r="B233">
-        <v>49957</v>
+        <v>26032</v>
       </c>
       <c r="C233" t="s">
         <v>16</v>
@@ -8587,10 +8587,10 @@
     </row>
     <row r="234" spans="1:16">
       <c r="A234">
-        <v>1544906153138</v>
+        <v>1544944327719</v>
       </c>
       <c r="B234">
-        <v>49957</v>
+        <v>26028</v>
       </c>
       <c r="C234" t="s">
         <v>16</v>
@@ -8622,10 +8622,10 @@
     </row>
     <row r="235" spans="1:16">
       <c r="A235">
-        <v>1544906154153</v>
+        <v>1544944328719</v>
       </c>
       <c r="B235">
-        <v>49907</v>
+        <v>26050</v>
       </c>
       <c r="C235" t="s">
         <v>16</v>
@@ -8657,10 +8657,10 @@
     </row>
     <row r="236" spans="1:16">
       <c r="A236">
-        <v>1544906155169</v>
+        <v>1544944329734</v>
       </c>
       <c r="B236">
-        <v>50035</v>
+        <v>26114</v>
       </c>
       <c r="C236" t="s">
         <v>16</v>
@@ -8692,10 +8692,10 @@
     </row>
     <row r="237" spans="1:16">
       <c r="A237">
-        <v>1544906156169</v>
+        <v>1544944330750</v>
       </c>
       <c r="B237">
-        <v>49974</v>
+        <v>26118</v>
       </c>
       <c r="C237" t="s">
         <v>16</v>
@@ -8727,10 +8727,10 @@
     </row>
     <row r="238" spans="1:16">
       <c r="A238">
-        <v>1544906157169</v>
+        <v>1544944331765</v>
       </c>
       <c r="B238">
-        <v>49981</v>
+        <v>26018</v>
       </c>
       <c r="C238" t="s">
         <v>16</v>
@@ -8762,10 +8762,10 @@
     </row>
     <row r="239" spans="1:16">
       <c r="A239">
-        <v>1544906158185</v>
+        <v>1544944332781</v>
       </c>
       <c r="B239">
-        <v>49961</v>
+        <v>26027</v>
       </c>
       <c r="C239" t="s">
         <v>16</v>
@@ -8797,10 +8797,10 @@
     </row>
     <row r="240" spans="1:16">
       <c r="A240">
-        <v>1544906159185</v>
+        <v>1544944333797</v>
       </c>
       <c r="B240">
-        <v>49933</v>
+        <v>26087</v>
       </c>
       <c r="C240" t="s">
         <v>16</v>
@@ -8832,10 +8832,10 @@
     </row>
     <row r="241" spans="1:16">
       <c r="A241">
-        <v>1544906160216</v>
+        <v>1544944334797</v>
       </c>
       <c r="B241">
-        <v>49974</v>
+        <v>26082</v>
       </c>
       <c r="C241" t="s">
         <v>16</v>
@@ -8867,10 +8867,10 @@
     </row>
     <row r="242" spans="1:16">
       <c r="A242">
-        <v>1544906161216</v>
+        <v>1544944335812</v>
       </c>
       <c r="B242">
-        <v>49996</v>
+        <v>26134</v>
       </c>
       <c r="C242" t="s">
         <v>16</v>
@@ -8902,10 +8902,10 @@
     </row>
     <row r="243" spans="1:16">
       <c r="A243">
-        <v>1544906162232</v>
+        <v>1544944336812</v>
       </c>
       <c r="B243">
-        <v>49927</v>
+        <v>26057</v>
       </c>
       <c r="C243" t="s">
         <v>16</v>
@@ -8937,10 +8937,10 @@
     </row>
     <row r="244" spans="1:16">
       <c r="A244">
-        <v>1544906163247</v>
+        <v>1544944337812</v>
       </c>
       <c r="B244">
-        <v>49922</v>
+        <v>26033</v>
       </c>
       <c r="C244" t="s">
         <v>16</v>
@@ -8972,10 +8972,10 @@
     </row>
     <row r="245" spans="1:16">
       <c r="A245">
-        <v>1544906164263</v>
+        <v>1544944338828</v>
       </c>
       <c r="B245">
-        <v>49984</v>
+        <v>26145</v>
       </c>
       <c r="C245" t="s">
         <v>16</v>
@@ -9007,10 +9007,10 @@
     </row>
     <row r="246" spans="1:16">
       <c r="A246">
-        <v>1544906165263</v>
+        <v>1544944339828</v>
       </c>
       <c r="B246">
-        <v>50022</v>
+        <v>26084</v>
       </c>
       <c r="C246" t="s">
         <v>16</v>
@@ -9042,10 +9042,10 @@
     </row>
     <row r="247" spans="1:16">
       <c r="A247">
-        <v>1544906166278</v>
+        <v>1544944340844</v>
       </c>
       <c r="B247">
-        <v>49970</v>
+        <v>26090</v>
       </c>
       <c r="C247" t="s">
         <v>16</v>
@@ -9077,10 +9077,10 @@
     </row>
     <row r="248" spans="1:16">
       <c r="A248">
-        <v>1544906167294</v>
+        <v>1544944341859</v>
       </c>
       <c r="B248">
-        <v>49937</v>
+        <v>26064</v>
       </c>
       <c r="C248" t="s">
         <v>16</v>
@@ -9112,10 +9112,10 @@
     </row>
     <row r="249" spans="1:16">
       <c r="A249">
-        <v>1544906168310</v>
+        <v>1544944342875</v>
       </c>
       <c r="B249">
-        <v>49911</v>
+        <v>26066</v>
       </c>
       <c r="C249" t="s">
         <v>16</v>
@@ -9147,10 +9147,10 @@
     </row>
     <row r="250" spans="1:16">
       <c r="A250">
-        <v>1544906169325</v>
+        <v>1544944343891</v>
       </c>
       <c r="B250">
-        <v>50039</v>
+        <v>26229</v>
       </c>
       <c r="C250" t="s">
         <v>16</v>
@@ -9182,10 +9182,10 @@
     </row>
     <row r="251" spans="1:16">
       <c r="A251">
-        <v>1544906170341</v>
+        <v>1544944344906</v>
       </c>
       <c r="B251">
-        <v>49962</v>
+        <v>26114</v>
       </c>
       <c r="C251" t="s">
         <v>16</v>
@@ -9217,10 +9217,10 @@
     </row>
     <row r="252" spans="1:16">
       <c r="A252">
-        <v>1544906171356</v>
+        <v>1544944345906</v>
       </c>
       <c r="B252">
-        <v>49920</v>
+        <v>26085</v>
       </c>
       <c r="C252" t="s">
         <v>16</v>
@@ -9252,10 +9252,10 @@
     </row>
     <row r="253" spans="1:16">
       <c r="A253">
-        <v>1544906172357</v>
+        <v>1544944346906</v>
       </c>
       <c r="B253">
-        <v>49913</v>
+        <v>26089</v>
       </c>
       <c r="C253" t="s">
         <v>16</v>
@@ -9287,10 +9287,10 @@
     </row>
     <row r="254" spans="1:16">
       <c r="A254">
-        <v>1544906173357</v>
+        <v>1544944347922</v>
       </c>
       <c r="B254">
-        <v>49975</v>
+        <v>26081</v>
       </c>
       <c r="C254" t="s">
         <v>16</v>
@@ -9322,10 +9322,10 @@
     </row>
     <row r="255" spans="1:16">
       <c r="A255">
-        <v>1544906174372</v>
+        <v>1544944348922</v>
       </c>
       <c r="B255">
-        <v>49966</v>
+        <v>26194</v>
       </c>
       <c r="C255" t="s">
         <v>16</v>
@@ -9357,10 +9357,10 @@
     </row>
     <row r="256" spans="1:16">
       <c r="A256">
-        <v>1544906175388</v>
+        <v>1544944349922</v>
       </c>
       <c r="B256">
-        <v>49948</v>
+        <v>26159</v>
       </c>
       <c r="C256" t="s">
         <v>16</v>
@@ -9392,10 +9392,10 @@
     </row>
     <row r="257" spans="1:16">
       <c r="A257">
-        <v>1544906176403</v>
+        <v>1544944350937</v>
       </c>
       <c r="B257">
-        <v>50005</v>
+        <v>26087</v>
       </c>
       <c r="C257" t="s">
         <v>16</v>
@@ -9427,10 +9427,10 @@
     </row>
     <row r="258" spans="1:16">
       <c r="A258">
-        <v>1544906177419</v>
+        <v>1544944351938</v>
       </c>
       <c r="B258">
-        <v>49900</v>
+        <v>26088</v>
       </c>
       <c r="C258" t="s">
         <v>16</v>
@@ -9462,10 +9462,10 @@
     </row>
     <row r="259" spans="1:16">
       <c r="A259">
-        <v>1544906178419</v>
+        <v>1544944352953</v>
       </c>
       <c r="B259">
-        <v>49975</v>
+        <v>26132</v>
       </c>
       <c r="C259" t="s">
         <v>16</v>
@@ -9497,10 +9497,10 @@
     </row>
     <row r="260" spans="1:16">
       <c r="A260">
-        <v>1544906179435</v>
+        <v>1544944353969</v>
       </c>
       <c r="B260">
-        <v>49956</v>
+        <v>26157</v>
       </c>
       <c r="C260" t="s">
         <v>16</v>
@@ -9532,10 +9532,10 @@
     </row>
     <row r="261" spans="1:16">
       <c r="A261">
-        <v>1544906180450</v>
+        <v>1544944354984</v>
       </c>
       <c r="B261">
-        <v>49925</v>
+        <v>26153</v>
       </c>
       <c r="C261" t="s">
         <v>16</v>
@@ -9567,10 +9567,10 @@
     </row>
     <row r="262" spans="1:16">
       <c r="A262">
-        <v>1544906181466</v>
+        <v>1544944356000</v>
       </c>
       <c r="B262">
-        <v>49938</v>
+        <v>26126</v>
       </c>
       <c r="C262" t="s">
         <v>16</v>
@@ -9602,10 +9602,10 @@
     </row>
     <row r="263" spans="1:16">
       <c r="A263">
-        <v>1544906182466</v>
+        <v>1544944357000</v>
       </c>
       <c r="B263">
-        <v>49993</v>
+        <v>26076</v>
       </c>
       <c r="C263" t="s">
         <v>16</v>
@@ -9637,10 +9637,10 @@
     </row>
     <row r="264" spans="1:16">
       <c r="A264">
-        <v>1544906183466</v>
+        <v>1544944358016</v>
       </c>
       <c r="B264">
-        <v>50014</v>
+        <v>26070</v>
       </c>
       <c r="C264" t="s">
         <v>16</v>
@@ -9672,10 +9672,10 @@
     </row>
     <row r="265" spans="1:16">
       <c r="A265">
-        <v>1544906184481</v>
+        <v>1544944359016</v>
       </c>
       <c r="B265">
-        <v>49962</v>
+        <v>26178</v>
       </c>
       <c r="C265" t="s">
         <v>16</v>
@@ -9707,10 +9707,10 @@
     </row>
     <row r="266" spans="1:16">
       <c r="A266">
-        <v>1544906185482</v>
+        <v>1544944360031</v>
       </c>
       <c r="B266">
-        <v>49928</v>
+        <v>26112</v>
       </c>
       <c r="C266" t="s">
         <v>16</v>
@@ -9742,10 +9742,10 @@
     </row>
     <row r="267" spans="1:16">
       <c r="A267">
-        <v>1544906186497</v>
+        <v>1544944361047</v>
       </c>
       <c r="B267">
-        <v>50031</v>
+        <v>26203</v>
       </c>
       <c r="C267" t="s">
         <v>16</v>
@@ -9777,10 +9777,10 @@
     </row>
     <row r="268" spans="1:16">
       <c r="A268">
-        <v>1544906187513</v>
+        <v>1544944362047</v>
       </c>
       <c r="B268">
-        <v>49962</v>
+        <v>26074</v>
       </c>
       <c r="C268" t="s">
         <v>16</v>
@@ -9812,10 +9812,10 @@
     </row>
     <row r="269" spans="1:16">
       <c r="A269">
-        <v>1544906188528</v>
+        <v>1544944363062</v>
       </c>
       <c r="B269">
-        <v>49932</v>
+        <v>26202</v>
       </c>
       <c r="C269" t="s">
         <v>16</v>
@@ -9847,10 +9847,10 @@
     </row>
     <row r="270" spans="1:16">
       <c r="A270">
-        <v>1544906189544</v>
+        <v>1544944364062</v>
       </c>
       <c r="B270">
-        <v>49945</v>
+        <v>26154</v>
       </c>
       <c r="C270" t="s">
         <v>16</v>
@@ -9882,10 +9882,10 @@
     </row>
     <row r="271" spans="1:16">
       <c r="A271">
-        <v>1544906190560</v>
+        <v>1544944365062</v>
       </c>
       <c r="B271">
-        <v>49979</v>
+        <v>26118</v>
       </c>
       <c r="C271" t="s">
         <v>16</v>
@@ -9917,10 +9917,10 @@
     </row>
     <row r="272" spans="1:16">
       <c r="A272">
-        <v>1544906191560</v>
+        <v>1544944366078</v>
       </c>
       <c r="B272">
-        <v>49997</v>
+        <v>26178</v>
       </c>
       <c r="C272" t="s">
         <v>16</v>
@@ -9952,10 +9952,10 @@
     </row>
     <row r="273" spans="1:16">
       <c r="A273">
-        <v>1544906192575</v>
+        <v>1544944367078</v>
       </c>
       <c r="B273">
-        <v>50081</v>
+        <v>26188</v>
       </c>
       <c r="C273" t="s">
         <v>16</v>
@@ -9987,10 +9987,10 @@
     </row>
     <row r="274" spans="1:16">
       <c r="A274">
-        <v>1544906193591</v>
+        <v>1544944368093</v>
       </c>
       <c r="B274">
-        <v>49985</v>
+        <v>26170</v>
       </c>
       <c r="C274" t="s">
         <v>16</v>
@@ -10022,10 +10022,10 @@
     </row>
     <row r="275" spans="1:16">
       <c r="A275">
-        <v>1544906194606</v>
+        <v>1544944369093</v>
       </c>
       <c r="B275">
-        <v>49905</v>
+        <v>26159</v>
       </c>
       <c r="C275" t="s">
         <v>16</v>
@@ -10057,10 +10057,10 @@
     </row>
     <row r="276" spans="1:16">
       <c r="A276">
-        <v>1544906195622</v>
+        <v>1544944370093</v>
       </c>
       <c r="B276">
-        <v>49992</v>
+        <v>26108</v>
       </c>
       <c r="C276" t="s">
         <v>16</v>
@@ -10092,10 +10092,10 @@
     </row>
     <row r="277" spans="1:16">
       <c r="A277">
-        <v>1544906196622</v>
+        <v>1544944371093</v>
       </c>
       <c r="B277">
-        <v>49962</v>
+        <v>26133</v>
       </c>
       <c r="C277" t="s">
         <v>16</v>
@@ -10127,10 +10127,10 @@
     </row>
     <row r="278" spans="1:16">
       <c r="A278">
-        <v>1544906197622</v>
+        <v>1544944372094</v>
       </c>
       <c r="B278">
-        <v>49927</v>
+        <v>26188</v>
       </c>
       <c r="C278" t="s">
         <v>16</v>
@@ -10162,10 +10162,10 @@
     </row>
     <row r="279" spans="1:16">
       <c r="A279">
-        <v>1544906198638</v>
+        <v>1544944373109</v>
       </c>
       <c r="B279">
-        <v>49929</v>
+        <v>26224</v>
       </c>
       <c r="C279" t="s">
         <v>16</v>
@@ -10197,10 +10197,10 @@
     </row>
     <row r="280" spans="1:16">
       <c r="A280">
-        <v>1544906199638</v>
+        <v>1544944374328</v>
       </c>
       <c r="B280">
-        <v>50010</v>
+        <v>26215</v>
       </c>
       <c r="C280" t="s">
         <v>16</v>
@@ -10232,10 +10232,10 @@
     </row>
     <row r="281" spans="1:16">
       <c r="A281">
-        <v>1544906200638</v>
+        <v>1544944375328</v>
       </c>
       <c r="B281">
-        <v>49970</v>
+        <v>26173</v>
       </c>
       <c r="C281" t="s">
         <v>16</v>
@@ -10267,10 +10267,10 @@
     </row>
     <row r="282" spans="1:16">
       <c r="A282">
-        <v>1544906201653</v>
+        <v>1544944376344</v>
       </c>
       <c r="B282">
-        <v>49959</v>
+        <v>26168</v>
       </c>
       <c r="C282" t="s">
         <v>16</v>
@@ -10302,10 +10302,10 @@
     </row>
     <row r="283" spans="1:16">
       <c r="A283">
-        <v>1544906202669</v>
+        <v>1544944377359</v>
       </c>
       <c r="B283">
-        <v>49949</v>
+        <v>26158</v>
       </c>
       <c r="C283" t="s">
         <v>16</v>
@@ -10337,10 +10337,10 @@
     </row>
     <row r="284" spans="1:16">
       <c r="A284">
-        <v>1544906203669</v>
+        <v>1544944378375</v>
       </c>
       <c r="B284">
-        <v>49968</v>
+        <v>26109</v>
       </c>
       <c r="C284" t="s">
         <v>16</v>
@@ -10372,10 +10372,10 @@
     </row>
     <row r="285" spans="1:16">
       <c r="A285">
-        <v>1544906204669</v>
+        <v>1544944379375</v>
       </c>
       <c r="B285">
-        <v>49984</v>
+        <v>26206</v>
       </c>
       <c r="C285" t="s">
         <v>16</v>
@@ -10407,10 +10407,10 @@
     </row>
     <row r="286" spans="1:16">
       <c r="A286">
-        <v>1544906205685</v>
+        <v>1544944380390</v>
       </c>
       <c r="B286">
-        <v>50003</v>
+        <v>26206</v>
       </c>
       <c r="C286" t="s">
         <v>16</v>
@@ -10442,10 +10442,10 @@
     </row>
     <row r="287" spans="1:16">
       <c r="A287">
-        <v>1544906206685</v>
+        <v>1544944381390</v>
       </c>
       <c r="B287">
-        <v>49972</v>
+        <v>26232</v>
       </c>
       <c r="C287" t="s">
         <v>16</v>
@@ -10477,10 +10477,10 @@
     </row>
     <row r="288" spans="1:16">
       <c r="A288">
-        <v>1544906207685</v>
+        <v>1544944382406</v>
       </c>
       <c r="B288">
-        <v>49970</v>
+        <v>26135</v>
       </c>
       <c r="C288" t="s">
         <v>16</v>
@@ -10512,10 +10512,10 @@
     </row>
     <row r="289" spans="1:16">
       <c r="A289">
-        <v>1544906208700</v>
+        <v>1544944383406</v>
       </c>
       <c r="B289">
-        <v>49911</v>
+        <v>26225</v>
       </c>
       <c r="C289" t="s">
         <v>16</v>
@@ -10547,10 +10547,10 @@
     </row>
     <row r="290" spans="1:16">
       <c r="A290">
-        <v>1544906209700</v>
+        <v>1544944384422</v>
       </c>
       <c r="B290">
-        <v>49997</v>
+        <v>26192</v>
       </c>
       <c r="C290" t="s">
         <v>16</v>
@@ -10582,10 +10582,10 @@
     </row>
     <row r="291" spans="1:16">
       <c r="A291">
-        <v>1544906210700</v>
+        <v>1544944385437</v>
       </c>
       <c r="B291">
-        <v>49991</v>
+        <v>26210</v>
       </c>
       <c r="C291" t="s">
         <v>16</v>
@@ -10617,10 +10617,10 @@
     </row>
     <row r="292" spans="1:16">
       <c r="A292">
-        <v>1544906211700</v>
+        <v>1544944386437</v>
       </c>
       <c r="B292">
-        <v>49975</v>
+        <v>26215</v>
       </c>
       <c r="C292" t="s">
         <v>16</v>
@@ -10652,10 +10652,10 @@
     </row>
     <row r="293" spans="1:16">
       <c r="A293">
-        <v>1544906212701</v>
+        <v>1544944387453</v>
       </c>
       <c r="B293">
-        <v>49930</v>
+        <v>26148</v>
       </c>
       <c r="C293" t="s">
         <v>16</v>
@@ -10687,10 +10687,10 @@
     </row>
     <row r="294" spans="1:16">
       <c r="A294">
-        <v>1544906213716</v>
+        <v>1544944388468</v>
       </c>
       <c r="B294">
-        <v>49981</v>
+        <v>26177</v>
       </c>
       <c r="C294" t="s">
         <v>16</v>
@@ -10722,10 +10722,10 @@
     </row>
     <row r="295" spans="1:16">
       <c r="A295">
-        <v>1544906214732</v>
+        <v>1544944389484</v>
       </c>
       <c r="B295">
-        <v>50016</v>
+        <v>26248</v>
       </c>
       <c r="C295" t="s">
         <v>16</v>
@@ -10757,10 +10757,10 @@
     </row>
     <row r="296" spans="1:16">
       <c r="A296">
-        <v>1544906215733</v>
+        <v>1544944390500</v>
       </c>
       <c r="B296">
-        <v>49975</v>
+        <v>26207</v>
       </c>
       <c r="C296" t="s">
         <v>16</v>
@@ -10792,10 +10792,10 @@
     </row>
     <row r="297" spans="1:16">
       <c r="A297">
-        <v>1544906216747</v>
+        <v>1544944391515</v>
       </c>
       <c r="B297">
-        <v>49953</v>
+        <v>26243</v>
       </c>
       <c r="C297" t="s">
         <v>16</v>
@@ -10827,10 +10827,10 @@
     </row>
     <row r="298" spans="1:16">
       <c r="A298">
-        <v>1544906217747</v>
+        <v>1544944392531</v>
       </c>
       <c r="B298">
-        <v>49908</v>
+        <v>26166</v>
       </c>
       <c r="C298" t="s">
         <v>16</v>
@@ -10862,10 +10862,10 @@
     </row>
     <row r="299" spans="1:16">
       <c r="A299">
-        <v>1544906218763</v>
+        <v>1544944393531</v>
       </c>
       <c r="B299">
-        <v>50007</v>
+        <v>26109</v>
       </c>
       <c r="C299" t="s">
         <v>16</v>
@@ -10897,10 +10897,10 @@
     </row>
     <row r="300" spans="1:16">
       <c r="A300">
-        <v>1544906219778</v>
+        <v>1544944394547</v>
       </c>
       <c r="B300">
-        <v>49990</v>
+        <v>26217</v>
       </c>
       <c r="C300" t="s">
         <v>16</v>
@@ -10932,10 +10932,10 @@
     </row>
     <row r="301" spans="1:16">
       <c r="A301">
-        <v>1544906220778</v>
+        <v>1544944395547</v>
       </c>
       <c r="B301">
-        <v>49961</v>
+        <v>26181</v>
       </c>
       <c r="C301" t="s">
         <v>16</v>
@@ -10967,10 +10967,10 @@
     </row>
     <row r="302" spans="1:16">
       <c r="A302">
-        <v>1544906221794</v>
+        <v>1544944396562</v>
       </c>
       <c r="B302">
-        <v>49956</v>
+        <v>26137</v>
       </c>
       <c r="C302" t="s">
         <v>16</v>
@@ -11002,10 +11002,10 @@
     </row>
     <row r="303" spans="1:16">
       <c r="A303">
-        <v>1544906222810</v>
+        <v>1544944397578</v>
       </c>
       <c r="B303">
-        <v>49993</v>
+        <v>26136</v>
       </c>
       <c r="C303" t="s">
         <v>16</v>
@@ -11037,10 +11037,10 @@
     </row>
     <row r="304" spans="1:16">
       <c r="A304">
-        <v>1544906223825</v>
+        <v>1544944398594</v>
       </c>
       <c r="B304">
-        <v>50026</v>
+        <v>26125</v>
       </c>
       <c r="C304" t="s">
         <v>16</v>
@@ -11072,10 +11072,10 @@
     </row>
     <row r="305" spans="1:16">
       <c r="A305">
-        <v>1544906224841</v>
+        <v>1544944399594</v>
       </c>
       <c r="B305">
-        <v>49979</v>
+        <v>26311</v>
       </c>
       <c r="C305" t="s">
         <v>16</v>
@@ -11107,10 +11107,10 @@
     </row>
     <row r="306" spans="1:16">
       <c r="A306">
-        <v>1544906225841</v>
+        <v>1544944400609</v>
       </c>
       <c r="B306">
-        <v>49996</v>
+        <v>26175</v>
       </c>
       <c r="C306" t="s">
         <v>16</v>
@@ -11142,10 +11142,10 @@
     </row>
     <row r="307" spans="1:16">
       <c r="A307">
-        <v>1544906226856</v>
+        <v>1544944401625</v>
       </c>
       <c r="B307">
-        <v>50009</v>
+        <v>26166</v>
       </c>
       <c r="C307" t="s">
         <v>16</v>
@@ -11177,10 +11177,10 @@
     </row>
     <row r="308" spans="1:16">
       <c r="A308">
-        <v>1544906227872</v>
+        <v>1544944402640</v>
       </c>
       <c r="B308">
-        <v>49992</v>
+        <v>26217</v>
       </c>
       <c r="C308" t="s">
         <v>16</v>
@@ -11212,10 +11212,10 @@
     </row>
     <row r="309" spans="1:16">
       <c r="A309">
-        <v>1544906228888</v>
+        <v>1544944403656</v>
       </c>
       <c r="B309">
-        <v>49943</v>
+        <v>26136</v>
       </c>
       <c r="C309" t="s">
         <v>16</v>
@@ -11247,10 +11247,10 @@
     </row>
     <row r="310" spans="1:16">
       <c r="A310">
-        <v>1544906229888</v>
+        <v>1544944404656</v>
       </c>
       <c r="B310">
-        <v>49964</v>
+        <v>26223</v>
       </c>
       <c r="C310" t="s">
         <v>16</v>
@@ -11282,10 +11282,10 @@
     </row>
     <row r="311" spans="1:16">
       <c r="A311">
-        <v>1544906230903</v>
+        <v>1544944405671</v>
       </c>
       <c r="B311">
-        <v>49898</v>
+        <v>26180</v>
       </c>
       <c r="C311" t="s">
         <v>16</v>
@@ -11317,10 +11317,10 @@
     </row>
     <row r="312" spans="1:16">
       <c r="A312">
-        <v>1544906231903</v>
+        <v>1544944406671</v>
       </c>
       <c r="B312">
-        <v>49970</v>
+        <v>26173</v>
       </c>
       <c r="C312" t="s">
         <v>16</v>
@@ -11352,10 +11352,10 @@
     </row>
     <row r="313" spans="1:16">
       <c r="A313">
-        <v>1544906232904</v>
+        <v>1544944407672</v>
       </c>
       <c r="B313">
-        <v>49970</v>
+        <v>26151</v>
       </c>
       <c r="C313" t="s">
         <v>16</v>
@@ -11387,10 +11387,10 @@
     </row>
     <row r="314" spans="1:16">
       <c r="A314">
-        <v>1544906233919</v>
+        <v>1544944408687</v>
       </c>
       <c r="B314">
-        <v>49984</v>
+        <v>26216</v>
       </c>
       <c r="C314" t="s">
         <v>16</v>
@@ -11422,10 +11422,10 @@
     </row>
     <row r="315" spans="1:16">
       <c r="A315">
-        <v>1544906234934</v>
+        <v>1544944409703</v>
       </c>
       <c r="B315">
-        <v>49936</v>
+        <v>26251</v>
       </c>
       <c r="C315" t="s">
         <v>16</v>
@@ -11457,10 +11457,10 @@
     </row>
     <row r="316" spans="1:16">
       <c r="A316">
-        <v>1544906235950</v>
+        <v>1544944410718</v>
       </c>
       <c r="B316">
-        <v>49994</v>
+        <v>26170</v>
       </c>
       <c r="C316" t="s">
         <v>16</v>
@@ -11492,10 +11492,10 @@
     </row>
     <row r="317" spans="1:16">
       <c r="A317">
-        <v>1544906236950</v>
+        <v>1544944411718</v>
       </c>
       <c r="B317">
-        <v>49992</v>
+        <v>26161</v>
       </c>
       <c r="C317" t="s">
         <v>16</v>
@@ -11527,10 +11527,10 @@
     </row>
     <row r="318" spans="1:16">
       <c r="A318">
-        <v>1544906237950</v>
+        <v>1544944412734</v>
       </c>
       <c r="B318">
-        <v>49986</v>
+        <v>26170</v>
       </c>
       <c r="C318" t="s">
         <v>16</v>
@@ -11562,10 +11562,10 @@
     </row>
     <row r="319" spans="1:16">
       <c r="A319">
-        <v>1544906238950</v>
+        <v>1544944413734</v>
       </c>
       <c r="B319">
-        <v>50001</v>
+        <v>26191</v>
       </c>
       <c r="C319" t="s">
         <v>16</v>
@@ -11597,10 +11597,10 @@
     </row>
     <row r="320" spans="1:16">
       <c r="A320">
-        <v>1544906239966</v>
+        <v>1544944414750</v>
       </c>
       <c r="B320">
-        <v>49993</v>
+        <v>26191</v>
       </c>
       <c r="C320" t="s">
         <v>16</v>
@@ -11632,10 +11632,10 @@
     </row>
     <row r="321" spans="1:16">
       <c r="A321">
-        <v>1544906240981</v>
+        <v>1544944415765</v>
       </c>
       <c r="B321">
-        <v>49987</v>
+        <v>26226</v>
       </c>
       <c r="C321" t="s">
         <v>16</v>
@@ -11667,10 +11667,10 @@
     </row>
     <row r="322" spans="1:16">
       <c r="A322">
-        <v>1544906241981</v>
+        <v>1544944416781</v>
       </c>
       <c r="B322">
-        <v>49948</v>
+        <v>26199</v>
       </c>
       <c r="C322" t="s">
         <v>16</v>
@@ -11702,10 +11702,10 @@
     </row>
     <row r="323" spans="1:16">
       <c r="A323">
-        <v>1544906242998</v>
+        <v>1544944417781</v>
       </c>
       <c r="B323">
-        <v>49955</v>
+        <v>26207</v>
       </c>
       <c r="C323" t="s">
         <v>16</v>
@@ -11737,10 +11737,10 @@
     </row>
     <row r="324" spans="1:16">
       <c r="A324">
-        <v>1544906244013</v>
+        <v>1544944418796</v>
       </c>
       <c r="B324">
-        <v>50036</v>
+        <v>26175</v>
       </c>
       <c r="C324" t="s">
         <v>16</v>
@@ -11772,10 +11772,10 @@
     </row>
     <row r="325" spans="1:16">
       <c r="A325">
-        <v>1544906245013</v>
+        <v>1544944419797</v>
       </c>
       <c r="B325">
-        <v>49990</v>
+        <v>26171</v>
       </c>
       <c r="C325" t="s">
         <v>16</v>
@@ -11807,10 +11807,10 @@
     </row>
     <row r="326" spans="1:16">
       <c r="A326">
-        <v>1544906246028</v>
+        <v>1544944420797</v>
       </c>
       <c r="B326">
-        <v>50022</v>
+        <v>26178</v>
       </c>
       <c r="C326" t="s">
         <v>16</v>
@@ -11842,10 +11842,10 @@
     </row>
     <row r="327" spans="1:16">
       <c r="A327">
-        <v>1544906247044</v>
+        <v>1544944421812</v>
       </c>
       <c r="B327">
-        <v>50054</v>
+        <v>26195</v>
       </c>
       <c r="C327" t="s">
         <v>16</v>
@@ -11877,10 +11877,10 @@
     </row>
     <row r="328" spans="1:16">
       <c r="A328">
-        <v>1544906248059</v>
+        <v>1544944422828</v>
       </c>
       <c r="B328">
-        <v>49933</v>
+        <v>26236</v>
       </c>
       <c r="C328" t="s">
         <v>16</v>
@@ -11912,10 +11912,10 @@
     </row>
     <row r="329" spans="1:16">
       <c r="A329">
-        <v>1544906249075</v>
+        <v>1544944423844</v>
       </c>
       <c r="B329">
-        <v>49998</v>
+        <v>26180</v>
       </c>
       <c r="C329" t="s">
         <v>16</v>
@@ -11947,10 +11947,10 @@
     </row>
     <row r="330" spans="1:16">
       <c r="A330">
-        <v>1544906250075</v>
+        <v>1544944424859</v>
       </c>
       <c r="B330">
-        <v>49959</v>
+        <v>26206</v>
       </c>
       <c r="C330" t="s">
         <v>16</v>
@@ -11982,10 +11982,10 @@
     </row>
     <row r="331" spans="1:16">
       <c r="A331">
-        <v>1544906251091</v>
+        <v>1544944425875</v>
       </c>
       <c r="B331">
-        <v>49957</v>
+        <v>26160</v>
       </c>
       <c r="C331" t="s">
         <v>16</v>
@@ -12017,10 +12017,10 @@
     </row>
     <row r="332" spans="1:16">
       <c r="A332">
-        <v>1544906252091</v>
+        <v>1544944426875</v>
       </c>
       <c r="B332">
-        <v>49964</v>
+        <v>26218</v>
       </c>
       <c r="C332" t="s">
         <v>16</v>
@@ -12052,10 +12052,10 @@
     </row>
     <row r="333" spans="1:16">
       <c r="A333">
-        <v>1544906253106</v>
+        <v>1544944427890</v>
       </c>
       <c r="B333">
-        <v>49932</v>
+        <v>26280</v>
       </c>
       <c r="C333" t="s">
         <v>16</v>
@@ -12087,10 +12087,10 @@
     </row>
     <row r="334" spans="1:16">
       <c r="A334">
-        <v>1544906254107</v>
+        <v>1544944428906</v>
       </c>
       <c r="B334">
-        <v>50112</v>
+        <v>26159</v>
       </c>
       <c r="C334" t="s">
         <v>16</v>
@@ -12122,10 +12122,10 @@
     </row>
     <row r="335" spans="1:16">
       <c r="A335">
-        <v>1544906255122</v>
+        <v>1544944429906</v>
       </c>
       <c r="B335">
-        <v>49977</v>
+        <v>26174</v>
       </c>
       <c r="C335" t="s">
         <v>16</v>
@@ -12157,10 +12157,10 @@
     </row>
     <row r="336" spans="1:16">
       <c r="A336">
-        <v>1544906256138</v>
+        <v>1544944430922</v>
       </c>
       <c r="B336">
-        <v>49936</v>
+        <v>26142</v>
       </c>
       <c r="C336" t="s">
         <v>16</v>
@@ -12192,10 +12192,10 @@
     </row>
     <row r="337" spans="1:16">
       <c r="A337">
-        <v>1544906257138</v>
+        <v>1544944431922</v>
       </c>
       <c r="B337">
-        <v>49909</v>
+        <v>26274</v>
       </c>
       <c r="C337" t="s">
         <v>16</v>
@@ -12227,10 +12227,10 @@
     </row>
     <row r="338" spans="1:16">
       <c r="A338">
-        <v>1544906258153</v>
+        <v>1544944432937</v>
       </c>
       <c r="B338">
-        <v>50025</v>
+        <v>26188</v>
       </c>
       <c r="C338" t="s">
         <v>16</v>
@@ -12262,10 +12262,10 @@
     </row>
     <row r="339" spans="1:16">
       <c r="A339">
-        <v>1544906259153</v>
+        <v>1544944433937</v>
       </c>
       <c r="B339">
-        <v>49984</v>
+        <v>26180</v>
       </c>
       <c r="C339" t="s">
         <v>16</v>
@@ -12297,10 +12297,10 @@
     </row>
     <row r="340" spans="1:16">
       <c r="A340">
-        <v>1544906260169</v>
+        <v>1544944434953</v>
       </c>
       <c r="B340">
-        <v>49973</v>
+        <v>26168</v>
       </c>
       <c r="C340" t="s">
         <v>16</v>
@@ -12332,10 +12332,10 @@
     </row>
     <row r="341" spans="1:16">
       <c r="A341">
-        <v>1544906261169</v>
+        <v>1544944435968</v>
       </c>
       <c r="B341">
-        <v>49950</v>
+        <v>26274</v>
       </c>
       <c r="C341" t="s">
         <v>16</v>
@@ -12367,10 +12367,10 @@
     </row>
     <row r="342" spans="1:16">
       <c r="A342">
-        <v>1544906262169</v>
+        <v>1544944436968</v>
       </c>
       <c r="B342">
-        <v>50042</v>
+        <v>26216</v>
       </c>
       <c r="C342" t="s">
         <v>16</v>
@@ -12402,10 +12402,10 @@
     </row>
     <row r="343" spans="1:16">
       <c r="A343">
-        <v>1544906263185</v>
+        <v>1544944437968</v>
       </c>
       <c r="B343">
-        <v>49976</v>
+        <v>26211</v>
       </c>
       <c r="C343" t="s">
         <v>16</v>
@@ -12437,10 +12437,10 @@
     </row>
     <row r="344" spans="1:16">
       <c r="A344">
-        <v>1544906264200</v>
+        <v>1544944438969</v>
       </c>
       <c r="B344">
-        <v>49988</v>
+        <v>26162</v>
       </c>
       <c r="C344" t="s">
         <v>16</v>
@@ -12472,10 +12472,10 @@
     </row>
     <row r="345" spans="1:16">
       <c r="A345">
-        <v>1544906265200</v>
+        <v>1544944439984</v>
       </c>
       <c r="B345">
-        <v>49939</v>
+        <v>26139</v>
       </c>
       <c r="C345" t="s">
         <v>16</v>
@@ -12507,10 +12507,10 @@
     </row>
     <row r="346" spans="1:16">
       <c r="A346">
-        <v>1544906266216</v>
+        <v>1544944441000</v>
       </c>
       <c r="B346">
-        <v>49918</v>
+        <v>26227</v>
       </c>
       <c r="C346" t="s">
         <v>16</v>
@@ -12542,10 +12542,10 @@
     </row>
     <row r="347" spans="1:16">
       <c r="A347">
-        <v>1544906267216</v>
+        <v>1544944442015</v>
       </c>
       <c r="B347">
-        <v>50032</v>
+        <v>26251</v>
       </c>
       <c r="C347" t="s">
         <v>16</v>
@@ -12577,10 +12577,10 @@
     </row>
     <row r="348" spans="1:16">
       <c r="A348">
-        <v>1544906268231</v>
+        <v>1544944443031</v>
       </c>
       <c r="B348">
-        <v>49964</v>
+        <v>26169</v>
       </c>
       <c r="C348" t="s">
         <v>16</v>
@@ -12612,10 +12612,10 @@
     </row>
     <row r="349" spans="1:16">
       <c r="A349">
-        <v>1544906269231</v>
+        <v>1544944444047</v>
       </c>
       <c r="B349">
-        <v>50013</v>
+        <v>26170</v>
       </c>
       <c r="C349" t="s">
         <v>16</v>
@@ -12647,10 +12647,10 @@
     </row>
     <row r="350" spans="1:16">
       <c r="A350">
-        <v>1544906270247</v>
+        <v>1544944445062</v>
       </c>
       <c r="B350">
-        <v>49940</v>
+        <v>26232</v>
       </c>
       <c r="C350" t="s">
         <v>16</v>
@@ -12682,10 +12682,10 @@
     </row>
     <row r="351" spans="1:16">
       <c r="A351">
-        <v>1544906271262</v>
+        <v>1544944446063</v>
       </c>
       <c r="B351">
-        <v>50009</v>
+        <v>26186</v>
       </c>
       <c r="C351" t="s">
         <v>16</v>
@@ -12717,10 +12717,10 @@
     </row>
     <row r="352" spans="1:16">
       <c r="A352">
-        <v>1544906272278</v>
+        <v>1544944447082</v>
       </c>
       <c r="B352">
-        <v>49991</v>
+        <v>26276</v>
       </c>
       <c r="C352" t="s">
         <v>16</v>
@@ -12752,10 +12752,10 @@
     </row>
     <row r="353" spans="1:16">
       <c r="A353">
-        <v>1544906273294</v>
+        <v>1544944448084</v>
       </c>
       <c r="B353">
-        <v>49981</v>
+        <v>26161</v>
       </c>
       <c r="C353" t="s">
         <v>16</v>
@@ -12787,10 +12787,10 @@
     </row>
     <row r="354" spans="1:16">
       <c r="A354">
-        <v>1544906274294</v>
+        <v>1544944449092</v>
       </c>
       <c r="B354">
-        <v>49945</v>
+        <v>26263</v>
       </c>
       <c r="C354" t="s">
         <v>16</v>
@@ -12822,10 +12822,10 @@
     </row>
     <row r="355" spans="1:16">
       <c r="A355">
-        <v>1544906275294</v>
+        <v>1544944450093</v>
       </c>
       <c r="B355">
-        <v>50002</v>
+        <v>26241</v>
       </c>
       <c r="C355" t="s">
         <v>16</v>
@@ -12857,10 +12857,10 @@
     </row>
     <row r="356" spans="1:16">
       <c r="A356">
-        <v>1544906276309</v>
+        <v>1544944451094</v>
       </c>
       <c r="B356">
-        <v>50001</v>
+        <v>26197</v>
       </c>
       <c r="C356" t="s">
         <v>16</v>
@@ -12892,10 +12892,10 @@
     </row>
     <row r="357" spans="1:16">
       <c r="A357">
-        <v>1544906277325</v>
+        <v>1544944452094</v>
       </c>
       <c r="B357">
-        <v>50011</v>
+        <v>26194</v>
       </c>
       <c r="C357" t="s">
         <v>16</v>
@@ -12927,10 +12927,10 @@
     </row>
     <row r="358" spans="1:16">
       <c r="A358">
-        <v>1544906278325</v>
+        <v>1544944453095</v>
       </c>
       <c r="B358">
-        <v>49958</v>
+        <v>26292</v>
       </c>
       <c r="C358" t="s">
         <v>16</v>
@@ -12962,10 +12962,10 @@
     </row>
     <row r="359" spans="1:16">
       <c r="A359">
-        <v>1544906279341</v>
+        <v>1544944454095</v>
       </c>
       <c r="B359">
-        <v>50013</v>
+        <v>26403</v>
       </c>
       <c r="C359" t="s">
         <v>16</v>
@@ -12997,10 +12997,10 @@
     </row>
     <row r="360" spans="1:16">
       <c r="A360">
-        <v>1544906280341</v>
+        <v>1544944455095</v>
       </c>
       <c r="B360">
-        <v>50001</v>
+        <v>26402</v>
       </c>
       <c r="C360" t="s">
         <v>16</v>
@@ -13032,10 +13032,10 @@
     </row>
     <row r="361" spans="1:16">
       <c r="A361">
-        <v>1544906281341</v>
+        <v>1544944456096</v>
       </c>
       <c r="B361">
-        <v>50043</v>
+        <v>26374</v>
       </c>
       <c r="C361" t="s">
         <v>16</v>
@@ -13067,10 +13067,10 @@
     </row>
     <row r="362" spans="1:16">
       <c r="A362">
-        <v>1544906282356</v>
+        <v>1544944457097</v>
       </c>
       <c r="B362">
-        <v>49992</v>
+        <v>26712</v>
       </c>
       <c r="C362" t="s">
         <v>16</v>
@@ -13102,10 +13102,10 @@
     </row>
     <row r="363" spans="1:16">
       <c r="A363">
-        <v>1544906283372</v>
+        <v>1544944458097</v>
       </c>
       <c r="B363">
-        <v>50022</v>
+        <v>27580</v>
       </c>
       <c r="C363" t="s">
         <v>16</v>
@@ -13137,10 +13137,10 @@
     </row>
     <row r="364" spans="1:16">
       <c r="A364">
-        <v>1544906284387</v>
+        <v>1544944459097</v>
       </c>
       <c r="B364">
-        <v>49975</v>
+        <v>28602</v>
       </c>
       <c r="C364" t="s">
         <v>16</v>
@@ -13172,10 +13172,10 @@
     </row>
     <row r="365" spans="1:16">
       <c r="A365">
-        <v>1544906285388</v>
+        <v>1544944460097</v>
       </c>
       <c r="B365">
-        <v>49975</v>
+        <v>29664</v>
       </c>
       <c r="C365" t="s">
         <v>16</v>
@@ -13207,10 +13207,10 @@
     </row>
     <row r="366" spans="1:16">
       <c r="A366">
-        <v>1544906286403</v>
+        <v>1544944461168</v>
       </c>
       <c r="B366">
-        <v>49962</v>
+        <v>30488</v>
       </c>
       <c r="C366" t="s">
         <v>16</v>
@@ -13242,10 +13242,10 @@
     </row>
     <row r="367" spans="1:16">
       <c r="A367">
-        <v>1544906287419</v>
+        <v>1544944462196</v>
       </c>
       <c r="B367">
-        <v>49926</v>
+        <v>31150</v>
       </c>
       <c r="C367" t="s">
         <v>16</v>
@@ -13277,10 +13277,10 @@
     </row>
     <row r="368" spans="1:16">
       <c r="A368">
-        <v>1544906288434</v>
+        <v>1544944463196</v>
       </c>
       <c r="B368">
-        <v>50029</v>
+        <v>31448</v>
       </c>
       <c r="C368" t="s">
         <v>16</v>
@@ -13312,10 +13312,10 @@
     </row>
     <row r="369" spans="1:16">
       <c r="A369">
-        <v>1544906289450</v>
+        <v>1544944464196</v>
       </c>
       <c r="B369">
-        <v>49997</v>
+        <v>25822</v>
       </c>
       <c r="C369" t="s">
         <v>16</v>
@@ -13347,10 +13347,10 @@
     </row>
     <row r="370" spans="1:16">
       <c r="A370">
-        <v>1544906290450</v>
+        <v>1544944465197</v>
       </c>
       <c r="B370">
-        <v>49947</v>
+        <v>25850</v>
       </c>
       <c r="C370" t="s">
         <v>16</v>
@@ -13382,10 +13382,10 @@
     </row>
     <row r="371" spans="1:16">
       <c r="A371">
-        <v>1544906291466</v>
+        <v>1544944466199</v>
       </c>
       <c r="B371">
-        <v>49950</v>
+        <v>25807</v>
       </c>
       <c r="C371" t="s">
         <v>16</v>
@@ -13417,10 +13417,10 @@
     </row>
     <row r="372" spans="1:16">
       <c r="A372">
-        <v>1544906292481</v>
+        <v>1544944467199</v>
       </c>
       <c r="B372">
-        <v>50027</v>
+        <v>25848</v>
       </c>
       <c r="C372" t="s">
         <v>16</v>
@@ -13452,10 +13452,10 @@
     </row>
     <row r="373" spans="1:16">
       <c r="A373">
-        <v>1544906293497</v>
+        <v>1544944468234</v>
       </c>
       <c r="B373">
-        <v>49980</v>
+        <v>25864</v>
       </c>
       <c r="C373" t="s">
         <v>16</v>
@@ -13487,10 +13487,10 @@
     </row>
     <row r="374" spans="1:16">
       <c r="A374">
-        <v>1544906294497</v>
+        <v>1544944469235</v>
       </c>
       <c r="B374">
-        <v>50014</v>
+        <v>25865</v>
       </c>
       <c r="C374" t="s">
         <v>16</v>
@@ -13522,10 +13522,10 @@
     </row>
     <row r="375" spans="1:16">
       <c r="A375">
-        <v>1544906295512</v>
+        <v>1544944470238</v>
       </c>
       <c r="B375">
-        <v>49984</v>
+        <v>25799</v>
       </c>
       <c r="C375" t="s">
         <v>16</v>
@@ -13557,10 +13557,10 @@
     </row>
     <row r="376" spans="1:16">
       <c r="A376">
-        <v>1544906296528</v>
+        <v>1544944471239</v>
       </c>
       <c r="B376">
-        <v>49928</v>
+        <v>25759</v>
       </c>
       <c r="C376" t="s">
         <v>16</v>
@@ -13592,10 +13592,10 @@
     </row>
     <row r="377" spans="1:16">
       <c r="A377">
-        <v>1544906297544</v>
+        <v>1544944472245</v>
       </c>
       <c r="B377">
-        <v>50039</v>
+        <v>25847</v>
       </c>
       <c r="C377" t="s">
         <v>16</v>
@@ -13627,10 +13627,10 @@
     </row>
     <row r="378" spans="1:16">
       <c r="A378">
-        <v>1544906298544</v>
+        <v>1544944473259</v>
       </c>
       <c r="B378">
-        <v>49978</v>
+        <v>25912</v>
       </c>
       <c r="C378" t="s">
         <v>16</v>
@@ -13662,10 +13662,10 @@
     </row>
     <row r="379" spans="1:16">
       <c r="A379">
-        <v>1544906299559</v>
+        <v>1544944474259</v>
       </c>
       <c r="B379">
-        <v>50010</v>
+        <v>25788</v>
       </c>
       <c r="C379" t="s">
         <v>16</v>
@@ -13697,10 +13697,10 @@
     </row>
     <row r="380" spans="1:16">
       <c r="A380">
-        <v>1544906300575</v>
+        <v>1544944475259</v>
       </c>
       <c r="B380">
-        <v>50000</v>
+        <v>25863</v>
       </c>
       <c r="C380" t="s">
         <v>16</v>
@@ -13732,10 +13732,10 @@
     </row>
     <row r="381" spans="1:16">
       <c r="A381">
-        <v>1544906301591</v>
+        <v>1544944476267</v>
       </c>
       <c r="B381">
-        <v>49996</v>
+        <v>25860</v>
       </c>
       <c r="C381" t="s">
         <v>16</v>
@@ -13767,10 +13767,10 @@
     </row>
     <row r="382" spans="1:16">
       <c r="A382">
-        <v>1544906302606</v>
+        <v>1544944477269</v>
       </c>
       <c r="B382">
-        <v>50000</v>
+        <v>25837</v>
       </c>
       <c r="C382" t="s">
         <v>16</v>
@@ -13802,10 +13802,10 @@
     </row>
     <row r="383" spans="1:16">
       <c r="A383">
-        <v>1544906303606</v>
+        <v>1544944478271</v>
       </c>
       <c r="B383">
-        <v>49952</v>
+        <v>25839</v>
       </c>
       <c r="C383" t="s">
         <v>16</v>
@@ -13837,10 +13837,10 @@
     </row>
     <row r="384" spans="1:16">
       <c r="A384">
-        <v>1544906304622</v>
+        <v>1544944479280</v>
       </c>
       <c r="B384">
-        <v>49996</v>
+        <v>25810</v>
       </c>
       <c r="C384" t="s">
         <v>16</v>
@@ -13872,10 +13872,10 @@
     </row>
     <row r="385" spans="1:16">
       <c r="A385">
-        <v>1544906305622</v>
+        <v>1544944480284</v>
       </c>
       <c r="B385">
-        <v>50014</v>
+        <v>25870</v>
       </c>
       <c r="C385" t="s">
         <v>16</v>
@@ -13907,10 +13907,10 @@
     </row>
     <row r="386" spans="1:16">
       <c r="A386">
-        <v>1544906306637</v>
+        <v>1544944481284</v>
       </c>
       <c r="B386">
-        <v>50009</v>
+        <v>25868</v>
       </c>
       <c r="C386" t="s">
         <v>16</v>
@@ -13942,10 +13942,10 @@
     </row>
     <row r="387" spans="1:16">
       <c r="A387">
-        <v>1544906307637</v>
+        <v>1544944482292</v>
       </c>
       <c r="B387">
-        <v>49969</v>
+        <v>25806</v>
       </c>
       <c r="C387" t="s">
         <v>16</v>
@@ -13977,10 +13977,10 @@
     </row>
     <row r="388" spans="1:16">
       <c r="A388">
-        <v>1544906308653</v>
+        <v>1544944483292</v>
       </c>
       <c r="B388">
-        <v>49932</v>
+        <v>25803</v>
       </c>
       <c r="C388" t="s">
         <v>16</v>
@@ -14012,10 +14012,10 @@
     </row>
     <row r="389" spans="1:16">
       <c r="A389">
-        <v>1544906309669</v>
+        <v>1544944484293</v>
       </c>
       <c r="B389">
-        <v>49981</v>
+        <v>25864</v>
       </c>
       <c r="C389" t="s">
         <v>16</v>
@@ -14047,10 +14047,10 @@
     </row>
     <row r="390" spans="1:16">
       <c r="A390">
-        <v>1544906310684</v>
+        <v>1544944485294</v>
       </c>
       <c r="B390">
-        <v>49992</v>
+        <v>25856</v>
       </c>
       <c r="C390" t="s">
         <v>16</v>
@@ -14082,10 +14082,10 @@
     </row>
     <row r="391" spans="1:16">
       <c r="A391">
-        <v>1544906311684</v>
+        <v>1544944486295</v>
       </c>
       <c r="B391">
-        <v>50050</v>
+        <v>25875</v>
       </c>
       <c r="C391" t="s">
         <v>16</v>
@@ -14117,10 +14117,10 @@
     </row>
     <row r="392" spans="1:16">
       <c r="A392">
-        <v>1544906312700</v>
+        <v>1544944487296</v>
       </c>
       <c r="B392">
-        <v>49971</v>
+        <v>25854</v>
       </c>
       <c r="C392" t="s">
         <v>16</v>
@@ -14152,10 +14152,10 @@
     </row>
     <row r="393" spans="1:16">
       <c r="A393">
-        <v>1544906313716</v>
+        <v>1544944488298</v>
       </c>
       <c r="B393">
-        <v>49961</v>
+        <v>25901</v>
       </c>
       <c r="C393" t="s">
         <v>16</v>
@@ -14187,10 +14187,10 @@
     </row>
     <row r="394" spans="1:16">
       <c r="A394">
-        <v>1544906314731</v>
+        <v>1544944489299</v>
       </c>
       <c r="B394">
-        <v>50024</v>
+        <v>25833</v>
       </c>
       <c r="C394" t="s">
         <v>16</v>
@@ -14222,10 +14222,10 @@
     </row>
     <row r="395" spans="1:16">
       <c r="A395">
-        <v>1544906315747</v>
+        <v>1544944490299</v>
       </c>
       <c r="B395">
-        <v>50013</v>
+        <v>25833</v>
       </c>
       <c r="C395" t="s">
         <v>16</v>
@@ -14257,10 +14257,10 @@
     </row>
     <row r="396" spans="1:16">
       <c r="A396">
-        <v>1544906316762</v>
+        <v>1544944491300</v>
       </c>
       <c r="B396">
-        <v>49965</v>
+        <v>25875</v>
       </c>
       <c r="C396" t="s">
         <v>16</v>
@@ -14292,10 +14292,10 @@
     </row>
     <row r="397" spans="1:16">
       <c r="A397">
-        <v>1544906317762</v>
+        <v>1544944492304</v>
       </c>
       <c r="B397">
-        <v>50005</v>
+        <v>25792</v>
       </c>
       <c r="C397" t="s">
         <v>16</v>
@@ -14327,10 +14327,10 @@
     </row>
     <row r="398" spans="1:16">
       <c r="A398">
-        <v>1544906318778</v>
+        <v>1544944493304</v>
       </c>
       <c r="B398">
-        <v>49945</v>
+        <v>25853</v>
       </c>
       <c r="C398" t="s">
         <v>16</v>
@@ -14362,10 +14362,10 @@
     </row>
     <row r="399" spans="1:16">
       <c r="A399">
-        <v>1544906319794</v>
+        <v>1544944494305</v>
       </c>
       <c r="B399">
-        <v>50041</v>
+        <v>25864</v>
       </c>
       <c r="C399" t="s">
         <v>16</v>
@@ -14397,10 +14397,10 @@
     </row>
     <row r="400" spans="1:16">
       <c r="A400">
-        <v>1544906320794</v>
+        <v>1544944495305</v>
       </c>
       <c r="B400">
-        <v>49987</v>
+        <v>25811</v>
       </c>
       <c r="C400" t="s">
         <v>16</v>
@@ -14432,10 +14432,10 @@
     </row>
     <row r="401" spans="1:16">
       <c r="A401">
-        <v>1544906321809</v>
+        <v>1544944496305</v>
       </c>
       <c r="B401">
-        <v>49981</v>
+        <v>25795</v>
       </c>
       <c r="C401" t="s">
         <v>16</v>
@@ -14467,10 +14467,10 @@
     </row>
     <row r="402" spans="1:16">
       <c r="A402">
-        <v>1544906322809</v>
+        <v>1544944497306</v>
       </c>
       <c r="B402">
-        <v>49944</v>
+        <v>25868</v>
       </c>
       <c r="C402" t="s">
         <v>16</v>
@@ -14502,10 +14502,10 @@
     </row>
     <row r="403" spans="1:16">
       <c r="A403">
-        <v>1544906323809</v>
+        <v>1544944498308</v>
       </c>
       <c r="B403">
-        <v>50035</v>
+        <v>25828</v>
       </c>
       <c r="C403" t="s">
         <v>16</v>
@@ -14537,10 +14537,10 @@
     </row>
     <row r="404" spans="1:16">
       <c r="A404">
-        <v>1544906324825</v>
+        <v>1544944499308</v>
       </c>
       <c r="B404">
-        <v>49996</v>
+        <v>25773</v>
       </c>
       <c r="C404" t="s">
         <v>16</v>
@@ -14572,10 +14572,10 @@
     </row>
     <row r="405" spans="1:16">
       <c r="A405">
-        <v>1544906325825</v>
+        <v>1544944500312</v>
       </c>
       <c r="B405">
-        <v>50073</v>
+        <v>25833</v>
       </c>
       <c r="C405" t="s">
         <v>16</v>
@@ -14607,10 +14607,10 @@
     </row>
     <row r="406" spans="1:16">
       <c r="A406">
-        <v>1544906326841</v>
+        <v>1544944501313</v>
       </c>
       <c r="B406">
-        <v>49995</v>
+        <v>25841</v>
       </c>
       <c r="C406" t="s">
         <v>16</v>
@@ -14642,10 +14642,10 @@
     </row>
     <row r="407" spans="1:16">
       <c r="A407">
-        <v>1544906327856</v>
+        <v>1544944502314</v>
       </c>
       <c r="B407">
-        <v>50037</v>
+        <v>25821</v>
       </c>
       <c r="C407" t="s">
         <v>16</v>
@@ -14677,10 +14677,10 @@
     </row>
     <row r="408" spans="1:16">
       <c r="A408">
-        <v>1544906328872</v>
+        <v>1544944503315</v>
       </c>
       <c r="B408">
-        <v>50039</v>
+        <v>25810</v>
       </c>
       <c r="C408" t="s">
         <v>16</v>
@@ -14712,10 +14712,10 @@
     </row>
     <row r="409" spans="1:16">
       <c r="A409">
-        <v>1544906329872</v>
+        <v>1544944504316</v>
       </c>
       <c r="B409">
-        <v>49965</v>
+        <v>25832</v>
       </c>
       <c r="C409" t="s">
         <v>16</v>
@@ -14747,10 +14747,10 @@
     </row>
     <row r="410" spans="1:16">
       <c r="A410">
-        <v>1544906330887</v>
+        <v>1544944505318</v>
       </c>
       <c r="B410">
-        <v>49968</v>
+        <v>25856</v>
       </c>
       <c r="C410" t="s">
         <v>16</v>
@@ -14782,10 +14782,10 @@
     </row>
     <row r="411" spans="1:16">
       <c r="A411">
-        <v>1544906331903</v>
+        <v>1544944506321</v>
       </c>
       <c r="B411">
-        <v>50024</v>
+        <v>25899</v>
       </c>
       <c r="C411" t="s">
         <v>16</v>
@@ -14817,10 +14817,10 @@
     </row>
     <row r="412" spans="1:16">
       <c r="A412">
-        <v>1544906332919</v>
+        <v>1544944507322</v>
       </c>
       <c r="B412">
-        <v>50024</v>
+        <v>25798</v>
       </c>
       <c r="C412" t="s">
         <v>16</v>
@@ -14852,10 +14852,10 @@
     </row>
     <row r="413" spans="1:16">
       <c r="A413">
-        <v>1544906333934</v>
+        <v>1544944508323</v>
       </c>
       <c r="B413">
-        <v>50004</v>
+        <v>25786</v>
       </c>
       <c r="C413" t="s">
         <v>16</v>
@@ -14887,10 +14887,10 @@
     </row>
     <row r="414" spans="1:16">
       <c r="A414">
-        <v>1544906334934</v>
+        <v>1544944509325</v>
       </c>
       <c r="B414">
-        <v>49995</v>
+        <v>25860</v>
       </c>
       <c r="C414" t="s">
         <v>16</v>
@@ -14922,10 +14922,10 @@
     </row>
     <row r="415" spans="1:16">
       <c r="A415">
-        <v>1544906335934</v>
+        <v>1544944510325</v>
       </c>
       <c r="B415">
-        <v>50012</v>
+        <v>25890</v>
       </c>
       <c r="C415" t="s">
         <v>16</v>
@@ -14957,10 +14957,10 @@
     </row>
     <row r="416" spans="1:16">
       <c r="A416">
-        <v>1544906336950</v>
+        <v>1544944511326</v>
       </c>
       <c r="B416">
-        <v>50027</v>
+        <v>25851</v>
       </c>
       <c r="C416" t="s">
         <v>16</v>
@@ -14992,10 +14992,10 @@
     </row>
     <row r="417" spans="1:16">
       <c r="A417">
-        <v>1544906337966</v>
+        <v>1544944512327</v>
       </c>
       <c r="B417">
-        <v>50020</v>
+        <v>25836</v>
       </c>
       <c r="C417" t="s">
         <v>16</v>
@@ -15027,10 +15027,10 @@
     </row>
     <row r="418" spans="1:16">
       <c r="A418">
-        <v>1544906338981</v>
+        <v>1544944513328</v>
       </c>
       <c r="B418">
-        <v>49973</v>
+        <v>25845</v>
       </c>
       <c r="C418" t="s">
         <v>16</v>
@@ -15062,10 +15062,10 @@
     </row>
     <row r="419" spans="1:16">
       <c r="A419">
-        <v>1544906339997</v>
+        <v>1544944514328</v>
       </c>
       <c r="B419">
-        <v>50022</v>
+        <v>25842</v>
       </c>
       <c r="C419" t="s">
         <v>16</v>
@@ -15097,10 +15097,10 @@
     </row>
     <row r="420" spans="1:16">
       <c r="A420">
-        <v>1544906341012</v>
+        <v>1544944515328</v>
       </c>
       <c r="B420">
-        <v>50012</v>
+        <v>25861</v>
       </c>
       <c r="C420" t="s">
         <v>16</v>
@@ -15132,10 +15132,10 @@
     </row>
     <row r="421" spans="1:16">
       <c r="A421">
-        <v>1544906342028</v>
+        <v>1544944516329</v>
       </c>
       <c r="B421">
-        <v>49979</v>
+        <v>25912</v>
       </c>
       <c r="C421" t="s">
         <v>16</v>
@@ -15167,10 +15167,10 @@
     </row>
     <row r="422" spans="1:16">
       <c r="A422">
-        <v>1544906343044</v>
+        <v>1544944517330</v>
       </c>
       <c r="B422">
-        <v>49969</v>
+        <v>25843</v>
       </c>
       <c r="C422" t="s">
         <v>16</v>
@@ -15202,10 +15202,10 @@
     </row>
     <row r="423" spans="1:16">
       <c r="A423">
-        <v>1544906344044</v>
+        <v>1544944518331</v>
       </c>
       <c r="B423">
-        <v>49995</v>
+        <v>25876</v>
       </c>
       <c r="C423" t="s">
         <v>16</v>
@@ -15237,10 +15237,10 @@
     </row>
     <row r="424" spans="1:16">
       <c r="A424">
-        <v>1544906345059</v>
+        <v>1544944519347</v>
       </c>
       <c r="B424">
-        <v>50045</v>
+        <v>25881</v>
       </c>
       <c r="C424" t="s">
         <v>16</v>
@@ -15272,10 +15272,10 @@
     </row>
     <row r="425" spans="1:16">
       <c r="A425">
-        <v>1544906346075</v>
+        <v>1544944520358</v>
       </c>
       <c r="B425">
-        <v>50056</v>
+        <v>25831</v>
       </c>
       <c r="C425" t="s">
         <v>16</v>
@@ -15307,10 +15307,10 @@
     </row>
     <row r="426" spans="1:16">
       <c r="A426">
-        <v>1544906347090</v>
+        <v>1544944521358</v>
       </c>
       <c r="B426">
-        <v>49993</v>
+        <v>25832</v>
       </c>
       <c r="C426" t="s">
         <v>16</v>
@@ -15342,10 +15342,10 @@
     </row>
     <row r="427" spans="1:16">
       <c r="A427">
-        <v>1544906348106</v>
+        <v>1544944522358</v>
       </c>
       <c r="B427">
-        <v>49951</v>
+        <v>25879</v>
       </c>
       <c r="C427" t="s">
         <v>16</v>
@@ -15377,10 +15377,10 @@
     </row>
     <row r="428" spans="1:16">
       <c r="A428">
-        <v>1544906349122</v>
+        <v>1544944523359</v>
       </c>
       <c r="B428">
-        <v>50050</v>
+        <v>25820</v>
       </c>
       <c r="C428" t="s">
         <v>16</v>
@@ -15412,10 +15412,10 @@
     </row>
     <row r="429" spans="1:16">
       <c r="A429">
-        <v>1544906350122</v>
+        <v>1544944524360</v>
       </c>
       <c r="B429">
-        <v>50054</v>
+        <v>25812</v>
       </c>
       <c r="C429" t="s">
         <v>16</v>
@@ -15447,10 +15447,10 @@
     </row>
     <row r="430" spans="1:16">
       <c r="A430">
-        <v>1544906351122</v>
+        <v>1544944525362</v>
       </c>
       <c r="B430">
-        <v>49980</v>
+        <v>25794</v>
       </c>
       <c r="C430" t="s">
         <v>16</v>
@@ -15482,10 +15482,10 @@
     </row>
     <row r="431" spans="1:16">
       <c r="A431">
-        <v>1544906352137</v>
+        <v>1544944526375</v>
       </c>
       <c r="B431">
-        <v>49974</v>
+        <v>25862</v>
       </c>
       <c r="C431" t="s">
         <v>16</v>
@@ -15517,10 +15517,10 @@
     </row>
     <row r="432" spans="1:16">
       <c r="A432">
-        <v>1544906353137</v>
+        <v>1544944527375</v>
       </c>
       <c r="B432">
-        <v>50058</v>
+        <v>25958</v>
       </c>
       <c r="C432" t="s">
         <v>16</v>
@@ -15552,10 +15552,10 @@
     </row>
     <row r="433" spans="1:16">
       <c r="A433">
-        <v>1544906354153</v>
+        <v>1544944528375</v>
       </c>
       <c r="B433">
-        <v>50064</v>
+        <v>25862</v>
       </c>
       <c r="C433" t="s">
         <v>16</v>
@@ -15587,10 +15587,10 @@
     </row>
     <row r="434" spans="1:16">
       <c r="A434">
-        <v>1544906355169</v>
+        <v>1544944529376</v>
       </c>
       <c r="B434">
-        <v>49988</v>
+        <v>25822</v>
       </c>
       <c r="C434" t="s">
         <v>16</v>
@@ -15622,10 +15622,10 @@
     </row>
     <row r="435" spans="1:16">
       <c r="A435">
-        <v>1544906356184</v>
+        <v>1544944530377</v>
       </c>
       <c r="B435">
-        <v>50003</v>
+        <v>25869</v>
       </c>
       <c r="C435" t="s">
         <v>16</v>
@@ -15657,10 +15657,10 @@
     </row>
     <row r="436" spans="1:16">
       <c r="A436">
-        <v>1544906357200</v>
+        <v>1544944531378</v>
       </c>
       <c r="B436">
-        <v>50048</v>
+        <v>25890</v>
       </c>
       <c r="C436" t="s">
         <v>16</v>
@@ -15692,10 +15692,10 @@
     </row>
     <row r="437" spans="1:16">
       <c r="A437">
-        <v>1544906358200</v>
+        <v>1544944532390</v>
       </c>
       <c r="B437">
-        <v>50033</v>
+        <v>25844</v>
       </c>
       <c r="C437" t="s">
         <v>16</v>
@@ -15727,10 +15727,10 @@
     </row>
     <row r="438" spans="1:16">
       <c r="A438">
-        <v>1544906359215</v>
+        <v>1544944533406</v>
       </c>
       <c r="B438">
-        <v>50014</v>
+        <v>25833</v>
       </c>
       <c r="C438" t="s">
         <v>16</v>
@@ -15762,10 +15762,10 @@
     </row>
     <row r="439" spans="1:16">
       <c r="A439">
-        <v>1544906360231</v>
+        <v>1544944534422</v>
       </c>
       <c r="B439">
-        <v>49982</v>
+        <v>25829</v>
       </c>
       <c r="C439" t="s">
         <v>16</v>
@@ -15797,10 +15797,10 @@
     </row>
     <row r="440" spans="1:16">
       <c r="A440">
-        <v>1544906361247</v>
+        <v>1544944535437</v>
       </c>
       <c r="B440">
-        <v>50038</v>
+        <v>25960</v>
       </c>
       <c r="C440" t="s">
         <v>16</v>
@@ -15832,10 +15832,10 @@
     </row>
     <row r="441" spans="1:16">
       <c r="A441">
-        <v>1544906362247</v>
+        <v>1544944536437</v>
       </c>
       <c r="B441">
-        <v>50042</v>
+        <v>25897</v>
       </c>
       <c r="C441" t="s">
         <v>16</v>
@@ -15867,10 +15867,10 @@
     </row>
     <row r="442" spans="1:16">
       <c r="A442">
-        <v>1544906363262</v>
+        <v>1544944537437</v>
       </c>
       <c r="B442">
-        <v>50062</v>
+        <v>25842</v>
       </c>
       <c r="C442" t="s">
         <v>16</v>
@@ -15902,10 +15902,10 @@
     </row>
     <row r="443" spans="1:16">
       <c r="A443">
-        <v>1544906364278</v>
+        <v>1544944538453</v>
       </c>
       <c r="B443">
-        <v>49948</v>
+        <v>25860</v>
       </c>
       <c r="C443" t="s">
         <v>16</v>
@@ -15937,10 +15937,10 @@
     </row>
     <row r="444" spans="1:16">
       <c r="A444">
-        <v>1544906365293</v>
+        <v>1544944539454</v>
       </c>
       <c r="B444">
-        <v>50106</v>
+        <v>25922</v>
       </c>
       <c r="C444" t="s">
         <v>16</v>
@@ -15972,10 +15972,10 @@
     </row>
     <row r="445" spans="1:16">
       <c r="A445">
-        <v>1544906366294</v>
+        <v>1544944540469</v>
       </c>
       <c r="B445">
-        <v>50024</v>
+        <v>25843</v>
       </c>
       <c r="C445" t="s">
         <v>16</v>
@@ -16007,10 +16007,10 @@
     </row>
     <row r="446" spans="1:16">
       <c r="A446">
-        <v>1544906367309</v>
+        <v>1544944541469</v>
       </c>
       <c r="B446">
-        <v>49972</v>
+        <v>25854</v>
       </c>
       <c r="C446" t="s">
         <v>16</v>
@@ -16042,10 +16042,10 @@
     </row>
     <row r="447" spans="1:16">
       <c r="A447">
-        <v>1544906368325</v>
+        <v>1544944542469</v>
       </c>
       <c r="B447">
-        <v>49995</v>
+        <v>25794</v>
       </c>
       <c r="C447" t="s">
         <v>16</v>
@@ -16077,10 +16077,10 @@
     </row>
     <row r="448" spans="1:16">
       <c r="A448">
-        <v>1544906369325</v>
+        <v>1544944543484</v>
       </c>
       <c r="B448">
-        <v>49934</v>
+        <v>25876</v>
       </c>
       <c r="C448" t="s">
         <v>16</v>
@@ -16112,10 +16112,10 @@
     </row>
     <row r="449" spans="1:16">
       <c r="A449">
-        <v>1544906370340</v>
+        <v>1544944544484</v>
       </c>
       <c r="B449">
-        <v>50039</v>
+        <v>25867</v>
       </c>
       <c r="C449" t="s">
         <v>16</v>
@@ -16147,10 +16147,10 @@
     </row>
     <row r="450" spans="1:16">
       <c r="A450">
-        <v>1544906371340</v>
+        <v>1544944545484</v>
       </c>
       <c r="B450">
-        <v>49993</v>
+        <v>25919</v>
       </c>
       <c r="C450" t="s">
         <v>16</v>
@@ -16182,10 +16182,10 @@
     </row>
     <row r="451" spans="1:16">
       <c r="A451">
-        <v>1544906372356</v>
+        <v>1544944546485</v>
       </c>
       <c r="B451">
-        <v>49980</v>
+        <v>25800</v>
       </c>
       <c r="C451" t="s">
         <v>16</v>
@@ -16217,10 +16217,10 @@
     </row>
     <row r="452" spans="1:16">
       <c r="A452">
-        <v>1544906373356</v>
+        <v>1544944547500</v>
       </c>
       <c r="B452">
-        <v>50010</v>
+        <v>25868</v>
       </c>
       <c r="C452" t="s">
         <v>16</v>
@@ -16252,10 +16252,10 @@
     </row>
     <row r="453" spans="1:16">
       <c r="A453">
-        <v>1544906374372</v>
+        <v>1544944548515</v>
       </c>
       <c r="B453">
-        <v>50005</v>
+        <v>25851</v>
       </c>
       <c r="C453" t="s">
         <v>16</v>
@@ -16287,10 +16287,10 @@
     </row>
     <row r="454" spans="1:16">
       <c r="A454">
-        <v>1544906375387</v>
+        <v>1544944549515</v>
       </c>
       <c r="B454">
-        <v>49990</v>
+        <v>25834</v>
       </c>
       <c r="C454" t="s">
         <v>16</v>
@@ -16322,10 +16322,10 @@
     </row>
     <row r="455" spans="1:16">
       <c r="A455">
-        <v>1544906376403</v>
+        <v>1544944550515</v>
       </c>
       <c r="B455">
-        <v>49999</v>
+        <v>25926</v>
       </c>
       <c r="C455" t="s">
         <v>16</v>
@@ -16357,10 +16357,10 @@
     </row>
     <row r="456" spans="1:16">
       <c r="A456">
-        <v>1544906377418</v>
+        <v>1544944551518</v>
       </c>
       <c r="B456">
-        <v>49942</v>
+        <v>25900</v>
       </c>
       <c r="C456" t="s">
         <v>16</v>
@@ -16392,10 +16392,10 @@
     </row>
     <row r="457" spans="1:16">
       <c r="A457">
-        <v>1544906378419</v>
+        <v>1544944552524</v>
       </c>
       <c r="B457">
-        <v>50105</v>
+        <v>25876</v>
       </c>
       <c r="C457" t="s">
         <v>16</v>
@@ -16427,10 +16427,10 @@
     </row>
     <row r="458" spans="1:16">
       <c r="A458">
-        <v>1544906379434</v>
+        <v>1544944553531</v>
       </c>
       <c r="B458">
-        <v>50013</v>
+        <v>25871</v>
       </c>
       <c r="C458" t="s">
         <v>16</v>
@@ -16462,10 +16462,10 @@
     </row>
     <row r="459" spans="1:16">
       <c r="A459">
-        <v>1544906380434</v>
+        <v>1544944554531</v>
       </c>
       <c r="B459">
-        <v>50112</v>
+        <v>25809</v>
       </c>
       <c r="C459" t="s">
         <v>16</v>
@@ -16497,10 +16497,10 @@
     </row>
     <row r="460" spans="1:16">
       <c r="A460">
-        <v>1544906381450</v>
+        <v>1544944555531</v>
       </c>
       <c r="B460">
-        <v>50019</v>
+        <v>25891</v>
       </c>
       <c r="C460" t="s">
         <v>16</v>
@@ -16532,10 +16532,10 @@
     </row>
     <row r="461" spans="1:16">
       <c r="A461">
-        <v>1544906382465</v>
+        <v>1544944556547</v>
       </c>
       <c r="B461">
-        <v>50045</v>
+        <v>25862</v>
       </c>
       <c r="C461" t="s">
         <v>16</v>
@@ -16567,10 +16567,10 @@
     </row>
     <row r="462" spans="1:16">
       <c r="A462">
-        <v>1544906383481</v>
+        <v>1544944557562</v>
       </c>
       <c r="B462">
-        <v>49973</v>
+        <v>25819</v>
       </c>
       <c r="C462" t="s">
         <v>16</v>
@@ -16602,10 +16602,10 @@
     </row>
     <row r="463" spans="1:16">
       <c r="A463">
-        <v>1544906384481</v>
+        <v>1544944558562</v>
       </c>
       <c r="B463">
-        <v>50003</v>
+        <v>26003</v>
       </c>
       <c r="C463" t="s">
         <v>16</v>
@@ -16637,10 +16637,10 @@
     </row>
     <row r="464" spans="1:16">
       <c r="A464">
-        <v>1544906385497</v>
+        <v>1544944559578</v>
       </c>
       <c r="B464">
-        <v>49959</v>
+        <v>25896</v>
       </c>
       <c r="C464" t="s">
         <v>16</v>
@@ -16672,10 +16672,10 @@
     </row>
     <row r="465" spans="1:16">
       <c r="A465">
-        <v>1544906386497</v>
+        <v>1544944560594</v>
       </c>
       <c r="B465">
-        <v>50048</v>
+        <v>25875</v>
       </c>
       <c r="C465" t="s">
         <v>16</v>
@@ -16707,10 +16707,10 @@
     </row>
     <row r="466" spans="1:16">
       <c r="A466">
-        <v>1544906387512</v>
+        <v>1544944561609</v>
       </c>
       <c r="B466">
-        <v>49989</v>
+        <v>25874</v>
       </c>
       <c r="C466" t="s">
         <v>16</v>
@@ -16742,10 +16742,10 @@
     </row>
     <row r="467" spans="1:16">
       <c r="A467">
-        <v>1544906388528</v>
+        <v>1544944562625</v>
       </c>
       <c r="B467">
-        <v>50021</v>
+        <v>25925</v>
       </c>
       <c r="C467" t="s">
         <v>16</v>
@@ -16777,10 +16777,10 @@
     </row>
     <row r="468" spans="1:16">
       <c r="A468">
-        <v>1544906389528</v>
+        <v>1544944563625</v>
       </c>
       <c r="B468">
-        <v>49973</v>
+        <v>25921</v>
       </c>
       <c r="C468" t="s">
         <v>16</v>
@@ -16812,10 +16812,10 @@
     </row>
     <row r="469" spans="1:16">
       <c r="A469">
-        <v>1544906390543</v>
+        <v>1544944564641</v>
       </c>
       <c r="B469">
-        <v>50071</v>
+        <v>25907</v>
       </c>
       <c r="C469" t="s">
         <v>16</v>
@@ -16847,10 +16847,10 @@
     </row>
     <row r="470" spans="1:16">
       <c r="A470">
-        <v>1544906391559</v>
+        <v>1544944565656</v>
       </c>
       <c r="B470">
-        <v>50010</v>
+        <v>25899</v>
       </c>
       <c r="C470" t="s">
         <v>16</v>
@@ -16882,10 +16882,10 @@
     </row>
     <row r="471" spans="1:16">
       <c r="A471">
-        <v>1544906392575</v>
+        <v>1544944566656</v>
       </c>
       <c r="B471">
-        <v>50009</v>
+        <v>26000</v>
       </c>
       <c r="C471" t="s">
         <v>16</v>
@@ -16917,10 +16917,10 @@
     </row>
     <row r="472" spans="1:16">
       <c r="A472">
-        <v>1544906393590</v>
+        <v>1544944567672</v>
       </c>
       <c r="B472">
-        <v>49987</v>
+        <v>25891</v>
       </c>
       <c r="C472" t="s">
         <v>16</v>
@@ -16952,10 +16952,10 @@
     </row>
     <row r="473" spans="1:16">
       <c r="A473">
-        <v>1544906394606</v>
+        <v>1544944568672</v>
       </c>
       <c r="B473">
-        <v>50020</v>
+        <v>25878</v>
       </c>
       <c r="C473" t="s">
         <v>16</v>
@@ -16987,10 +16987,10 @@
     </row>
     <row r="474" spans="1:16">
       <c r="A474">
-        <v>1544906395606</v>
+        <v>1544944569687</v>
       </c>
       <c r="B474">
-        <v>50065</v>
+        <v>25843</v>
       </c>
       <c r="C474" t="s">
         <v>16</v>
@@ -17022,10 +17022,10 @@
     </row>
     <row r="475" spans="1:16">
       <c r="A475">
-        <v>1544906396622</v>
+        <v>1544944570703</v>
       </c>
       <c r="B475">
-        <v>49984</v>
+        <v>25883</v>
       </c>
       <c r="C475" t="s">
         <v>16</v>
@@ -17057,10 +17057,10 @@
     </row>
     <row r="476" spans="1:16">
       <c r="A476">
-        <v>1544906397622</v>
+        <v>1544944571703</v>
       </c>
       <c r="B476">
-        <v>49974</v>
+        <v>25901</v>
       </c>
       <c r="C476" t="s">
         <v>16</v>
@@ -17092,10 +17092,10 @@
     </row>
     <row r="477" spans="1:16">
       <c r="A477">
-        <v>1544906398637</v>
+        <v>1544944572726</v>
       </c>
       <c r="B477">
-        <v>50052</v>
+        <v>25839</v>
       </c>
       <c r="C477" t="s">
         <v>16</v>
@@ -17127,10 +17127,10 @@
     </row>
     <row r="478" spans="1:16">
       <c r="A478">
-        <v>1544906399653</v>
+        <v>1544944573734</v>
       </c>
       <c r="B478">
-        <v>50053</v>
+        <v>25870</v>
       </c>
       <c r="C478" t="s">
         <v>16</v>
@@ -17162,10 +17162,10 @@
     </row>
     <row r="479" spans="1:16">
       <c r="A479">
-        <v>1544906400668</v>
+        <v>1544944574734</v>
       </c>
       <c r="B479">
-        <v>50015</v>
+        <v>25896</v>
       </c>
       <c r="C479" t="s">
         <v>16</v>
@@ -17197,10 +17197,10 @@
     </row>
     <row r="480" spans="1:16">
       <c r="A480">
-        <v>1544906401668</v>
+        <v>1544944575734</v>
       </c>
       <c r="B480">
-        <v>50018</v>
+        <v>25871</v>
       </c>
       <c r="C480" t="s">
         <v>16</v>
@@ -17232,10 +17232,10 @@
     </row>
     <row r="481" spans="1:16">
       <c r="A481">
-        <v>1544906402684</v>
+        <v>1544944576734</v>
       </c>
       <c r="B481">
-        <v>49968</v>
+        <v>25879</v>
       </c>
       <c r="C481" t="s">
         <v>16</v>
@@ -17267,10 +17267,10 @@
     </row>
     <row r="482" spans="1:16">
       <c r="A482">
-        <v>1544906403700</v>
+        <v>1544944577750</v>
       </c>
       <c r="B482">
-        <v>50092</v>
+        <v>25814</v>
       </c>
       <c r="C482" t="s">
         <v>16</v>
@@ -17302,10 +17302,10 @@
     </row>
     <row r="483" spans="1:16">
       <c r="A483">
-        <v>1544906404715</v>
+        <v>1544944578750</v>
       </c>
       <c r="B483">
-        <v>50051</v>
+        <v>25934</v>
       </c>
       <c r="C483" t="s">
         <v>16</v>
@@ -17337,10 +17337,10 @@
     </row>
     <row r="484" spans="1:16">
       <c r="A484">
-        <v>1544906405731</v>
+        <v>1544944579766</v>
       </c>
       <c r="B484">
-        <v>50008</v>
+        <v>25899</v>
       </c>
       <c r="C484" t="s">
         <v>16</v>
@@ -17372,10 +17372,10 @@
     </row>
     <row r="485" spans="1:16">
       <c r="A485">
-        <v>1544906406731</v>
+        <v>1544944580766</v>
       </c>
       <c r="B485">
-        <v>49987</v>
+        <v>25861</v>
       </c>
       <c r="C485" t="s">
         <v>16</v>
@@ -17407,10 +17407,10 @@
     </row>
     <row r="486" spans="1:16">
       <c r="A486">
-        <v>1544906407747</v>
+        <v>1544944581781</v>
       </c>
       <c r="B486">
-        <v>49988</v>
+        <v>25829</v>
       </c>
       <c r="C486" t="s">
         <v>16</v>
@@ -17442,10 +17442,10 @@
     </row>
     <row r="487" spans="1:16">
       <c r="A487">
-        <v>1544906408762</v>
+        <v>1544944582797</v>
       </c>
       <c r="B487">
-        <v>50044</v>
+        <v>25981</v>
       </c>
       <c r="C487" t="s">
         <v>16</v>
@@ -17477,10 +17477,10 @@
     </row>
     <row r="488" spans="1:16">
       <c r="A488">
-        <v>1544906409778</v>
+        <v>1544944583812</v>
       </c>
       <c r="B488">
-        <v>50033</v>
+        <v>25870</v>
       </c>
       <c r="C488" t="s">
         <v>16</v>
@@ -17512,10 +17512,10 @@
     </row>
     <row r="489" spans="1:16">
       <c r="A489">
-        <v>1544906410778</v>
+        <v>1544944584812</v>
       </c>
       <c r="B489">
-        <v>49995</v>
+        <v>25858</v>
       </c>
       <c r="C489" t="s">
         <v>16</v>
@@ -17547,10 +17547,10 @@
     </row>
     <row r="490" spans="1:16">
       <c r="A490">
-        <v>1544906411778</v>
+        <v>1544944585828</v>
       </c>
       <c r="B490">
-        <v>50000</v>
+        <v>25839</v>
       </c>
       <c r="C490" t="s">
         <v>16</v>
@@ -17582,10 +17582,10 @@
     </row>
     <row r="491" spans="1:16">
       <c r="A491">
-        <v>1544906412793</v>
+        <v>1544944586828</v>
       </c>
       <c r="B491">
-        <v>50073</v>
+        <v>25912</v>
       </c>
       <c r="C491" t="s">
         <v>16</v>
@@ -17617,10 +17617,10 @@
     </row>
     <row r="492" spans="1:16">
       <c r="A492">
-        <v>1544906413793</v>
+        <v>1544944587844</v>
       </c>
       <c r="B492">
-        <v>50032</v>
+        <v>25845</v>
       </c>
       <c r="C492" t="s">
         <v>16</v>
@@ -17652,10 +17652,10 @@
     </row>
     <row r="493" spans="1:16">
       <c r="A493">
-        <v>1544906414809</v>
+        <v>1544944588844</v>
       </c>
       <c r="B493">
-        <v>50006</v>
+        <v>25842</v>
       </c>
       <c r="C493" t="s">
         <v>16</v>
@@ -17687,10 +17687,10 @@
     </row>
     <row r="494" spans="1:16">
       <c r="A494">
-        <v>1544906415809</v>
+        <v>1544944589844</v>
       </c>
       <c r="B494">
-        <v>50019</v>
+        <v>25818</v>
       </c>
       <c r="C494" t="s">
         <v>16</v>
@@ -17722,10 +17722,10 @@
     </row>
     <row r="495" spans="1:16">
       <c r="A495">
-        <v>1544906416809</v>
+        <v>1544944590859</v>
       </c>
       <c r="B495">
-        <v>50070</v>
+        <v>25895</v>
       </c>
       <c r="C495" t="s">
         <v>16</v>
@@ -17757,10 +17757,10 @@
     </row>
     <row r="496" spans="1:16">
       <c r="A496">
-        <v>1544906417825</v>
+        <v>1544944591875</v>
       </c>
       <c r="B496">
-        <v>50008</v>
+        <v>25854</v>
       </c>
       <c r="C496" t="s">
         <v>16</v>
@@ -17792,10 +17792,10 @@
     </row>
     <row r="497" spans="1:16">
       <c r="A497">
-        <v>1544906418840</v>
+        <v>1544944592875</v>
       </c>
       <c r="B497">
-        <v>50065</v>
+        <v>25848</v>
       </c>
       <c r="C497" t="s">
         <v>16</v>
@@ -17827,10 +17827,10 @@
     </row>
     <row r="498" spans="1:16">
       <c r="A498">
-        <v>1544906419840</v>
+        <v>1544944593875</v>
       </c>
       <c r="B498">
-        <v>50026</v>
+        <v>25832</v>
       </c>
       <c r="C498" t="s">
         <v>16</v>
@@ -17862,10 +17862,10 @@
     </row>
     <row r="499" spans="1:16">
       <c r="A499">
-        <v>1544906420840</v>
+        <v>1544944594891</v>
       </c>
       <c r="B499">
-        <v>50060</v>
+        <v>25882</v>
       </c>
       <c r="C499" t="s">
         <v>16</v>
@@ -17897,10 +17897,10 @@
     </row>
     <row r="500" spans="1:16">
       <c r="A500">
-        <v>1544906421856</v>
+        <v>1544944595906</v>
       </c>
       <c r="B500">
-        <v>50073</v>
+        <v>25924</v>
       </c>
       <c r="C500" t="s">
         <v>16</v>
@@ -17932,10 +17932,10 @@
     </row>
     <row r="501" spans="1:16">
       <c r="A501">
-        <v>1544906422872</v>
+        <v>1544944596922</v>
       </c>
       <c r="B501">
-        <v>50010</v>
+        <v>25860</v>
       </c>
       <c r="C501" t="s">
         <v>16</v>
@@ -17967,10 +17967,10 @@
     </row>
     <row r="502" spans="1:16">
       <c r="A502">
-        <v>1544906423887</v>
+        <v>1544944597922</v>
       </c>
       <c r="B502">
-        <v>49966</v>
+        <v>25798</v>
       </c>
       <c r="C502" t="s">
         <v>16</v>
@@ -18002,10 +18002,10 @@
     </row>
     <row r="503" spans="1:16">
       <c r="A503">
-        <v>1544906424887</v>
+        <v>1544944598937</v>
       </c>
       <c r="B503">
-        <v>50022</v>
+        <v>25912</v>
       </c>
       <c r="C503" t="s">
         <v>16</v>
@@ -18037,10 +18037,10 @@
     </row>
     <row r="504" spans="1:16">
       <c r="A504">
-        <v>1544906425887</v>
+        <v>1544944599937</v>
       </c>
       <c r="B504">
-        <v>50034</v>
+        <v>25843</v>
       </c>
       <c r="C504" t="s">
         <v>16</v>
@@ -18072,10 +18072,10 @@
     </row>
     <row r="505" spans="1:16">
       <c r="A505">
-        <v>1544906426904</v>
+        <v>1544944600953</v>
       </c>
       <c r="B505">
-        <v>50032</v>
+        <v>25869</v>
       </c>
       <c r="C505" t="s">
         <v>16</v>
@@ -18107,10 +18107,10 @@
     </row>
     <row r="506" spans="1:16">
       <c r="A506">
-        <v>1544906427919</v>
+        <v>1544944601969</v>
       </c>
       <c r="B506">
-        <v>50001</v>
+        <v>25805</v>
       </c>
       <c r="C506" t="s">
         <v>16</v>
@@ -18142,10 +18142,10 @@
     </row>
     <row r="507" spans="1:16">
       <c r="A507">
-        <v>1544906428934</v>
+        <v>1544944602985</v>
       </c>
       <c r="B507">
-        <v>50088</v>
+        <v>25887</v>
       </c>
       <c r="C507" t="s">
         <v>16</v>
@@ -18177,10 +18177,10 @@
     </row>
     <row r="508" spans="1:16">
       <c r="A508">
-        <v>1544906429950</v>
+        <v>1544944603985</v>
       </c>
       <c r="B508">
-        <v>50047</v>
+        <v>25863</v>
       </c>
       <c r="C508" t="s">
         <v>16</v>
@@ -18212,10 +18212,10 @@
     </row>
     <row r="509" spans="1:16">
       <c r="A509">
-        <v>1544906430965</v>
+        <v>1544944605002</v>
       </c>
       <c r="B509">
-        <v>50010</v>
+        <v>25857</v>
       </c>
       <c r="C509" t="s">
         <v>16</v>
@@ -18247,10 +18247,10 @@
     </row>
     <row r="510" spans="1:16">
       <c r="A510">
-        <v>1544906431965</v>
+        <v>1544944606016</v>
       </c>
       <c r="B510">
-        <v>50010</v>
+        <v>25874</v>
       </c>
       <c r="C510" t="s">
         <v>16</v>
@@ -18282,10 +18282,10 @@
     </row>
     <row r="511" spans="1:16">
       <c r="A511">
-        <v>1544906432996</v>
+        <v>1544944607016</v>
       </c>
       <c r="B511">
-        <v>49984</v>
+        <v>25870</v>
       </c>
       <c r="C511" t="s">
         <v>16</v>
@@ -18317,10 +18317,10 @@
     </row>
     <row r="512" spans="1:16">
       <c r="A512">
-        <v>1544906433996</v>
+        <v>1544944608032</v>
       </c>
       <c r="B512">
-        <v>50070</v>
+        <v>25915</v>
       </c>
       <c r="C512" t="s">
         <v>16</v>
@@ -18352,10 +18352,10 @@
     </row>
     <row r="513" spans="1:16">
       <c r="A513">
-        <v>1544906434997</v>
+        <v>1544944609048</v>
       </c>
       <c r="B513">
-        <v>50034</v>
+        <v>25851</v>
       </c>
       <c r="C513" t="s">
         <v>16</v>
@@ -18387,10 +18387,10 @@
     </row>
     <row r="514" spans="1:16">
       <c r="A514">
-        <v>1544906436012</v>
+        <v>1544944610063</v>
       </c>
       <c r="B514">
-        <v>50031</v>
+        <v>25847</v>
       </c>
       <c r="C514" t="s">
         <v>16</v>
@@ -18422,10 +18422,10 @@
     </row>
     <row r="515" spans="1:16">
       <c r="A515">
-        <v>1544906437028</v>
+        <v>1544944611079</v>
       </c>
       <c r="B515">
-        <v>49973</v>
+        <v>25918</v>
       </c>
       <c r="C515" t="s">
         <v>16</v>
@@ -18457,10 +18457,10 @@
     </row>
     <row r="516" spans="1:16">
       <c r="A516">
-        <v>1544906438028</v>
+        <v>1544944612094</v>
       </c>
       <c r="B516">
-        <v>50052</v>
+        <v>25892</v>
       </c>
       <c r="C516" t="s">
         <v>16</v>
@@ -18492,10 +18492,10 @@
     </row>
     <row r="517" spans="1:16">
       <c r="A517">
-        <v>1544906439043</v>
+        <v>1544944613095</v>
       </c>
       <c r="B517">
-        <v>50043</v>
+        <v>25880</v>
       </c>
       <c r="C517" t="s">
         <v>16</v>
@@ -18527,10 +18527,10 @@
     </row>
     <row r="518" spans="1:16">
       <c r="A518">
-        <v>1544906440059</v>
+        <v>1544944614110</v>
       </c>
       <c r="B518">
-        <v>50083</v>
+        <v>25839</v>
       </c>
       <c r="C518" t="s">
         <v>16</v>
@@ -18562,10 +18562,10 @@
     </row>
     <row r="519" spans="1:16">
       <c r="A519">
-        <v>1544906441059</v>
+        <v>1544944615126</v>
       </c>
       <c r="B519">
-        <v>49990</v>
+        <v>25861</v>
       </c>
       <c r="C519" t="s">
         <v>16</v>
@@ -18597,10 +18597,10 @@
     </row>
     <row r="520" spans="1:16">
       <c r="A520">
-        <v>1544906442075</v>
+        <v>1544944616126</v>
       </c>
       <c r="B520">
-        <v>50092</v>
+        <v>25923</v>
       </c>
       <c r="C520" t="s">
         <v>16</v>
@@ -18632,10 +18632,10 @@
     </row>
     <row r="521" spans="1:16">
       <c r="A521">
-        <v>1544906443090</v>
+        <v>1544944617141</v>
       </c>
       <c r="B521">
-        <v>50130</v>
+        <v>25865</v>
       </c>
       <c r="C521" t="s">
         <v>16</v>
@@ -18667,10 +18667,10 @@
     </row>
     <row r="522" spans="1:16">
       <c r="A522">
-        <v>1544906444090</v>
+        <v>1544944618157</v>
       </c>
       <c r="B522">
-        <v>50136</v>
+        <v>25840</v>
       </c>
       <c r="C522" t="s">
         <v>16</v>
@@ -18702,10 +18702,10 @@
     </row>
     <row r="523" spans="1:16">
       <c r="A523">
-        <v>1544906445090</v>
+        <v>1544944619172</v>
       </c>
       <c r="B523">
-        <v>49995</v>
+        <v>25924</v>
       </c>
       <c r="C523" t="s">
         <v>16</v>
@@ -18737,10 +18737,10 @@
     </row>
     <row r="524" spans="1:16">
       <c r="A524">
-        <v>1544906446090</v>
+        <v>1544944620188</v>
       </c>
       <c r="B524">
-        <v>50013</v>
+        <v>25862</v>
       </c>
       <c r="C524" t="s">
         <v>16</v>
@@ -18772,10 +18772,10 @@
     </row>
     <row r="525" spans="1:16">
       <c r="A525">
-        <v>1544906447090</v>
+        <v>1544944621188</v>
       </c>
       <c r="B525">
-        <v>50083</v>
+        <v>25884</v>
       </c>
       <c r="C525" t="s">
         <v>16</v>
@@ -18807,10 +18807,10 @@
     </row>
     <row r="526" spans="1:16">
       <c r="A526">
-        <v>1544906448090</v>
+        <v>1544944622188</v>
       </c>
       <c r="B526">
-        <v>50068</v>
+        <v>25845</v>
       </c>
       <c r="C526" t="s">
         <v>16</v>
@@ -18842,10 +18842,10 @@
     </row>
     <row r="527" spans="1:16">
       <c r="A527">
-        <v>1544906449106</v>
+        <v>1544944623204</v>
       </c>
       <c r="B527">
-        <v>49988</v>
+        <v>25939</v>
       </c>
       <c r="C527" t="s">
         <v>16</v>
@@ -18877,10 +18877,10 @@
     </row>
     <row r="528" spans="1:16">
       <c r="A528">
-        <v>1544906450122</v>
+        <v>1544944624219</v>
       </c>
       <c r="B528">
-        <v>50008</v>
+        <v>25883</v>
       </c>
       <c r="C528" t="s">
         <v>16</v>
@@ -18912,10 +18912,10 @@
     </row>
     <row r="529" spans="1:16">
       <c r="A529">
-        <v>1544906451138</v>
+        <v>1544944625235</v>
       </c>
       <c r="B529">
-        <v>50049</v>
+        <v>25942</v>
       </c>
       <c r="C529" t="s">
         <v>16</v>
@@ -18947,10 +18947,10 @@
     </row>
     <row r="530" spans="1:16">
       <c r="A530">
-        <v>1544906452154</v>
+        <v>1544944626235</v>
       </c>
       <c r="B530">
-        <v>50055</v>
+        <v>25886</v>
       </c>
       <c r="C530" t="s">
         <v>16</v>
@@ -18982,10 +18982,10 @@
     </row>
     <row r="531" spans="1:16">
       <c r="A531">
-        <v>1544906453169</v>
+        <v>1544944627251</v>
       </c>
       <c r="B531">
-        <v>49989</v>
+        <v>25892</v>
       </c>
       <c r="C531" t="s">
         <v>16</v>
@@ -19017,10 +19017,10 @@
     </row>
     <row r="532" spans="1:16">
       <c r="A532">
-        <v>1544906454169</v>
+        <v>1544944628266</v>
       </c>
       <c r="B532">
-        <v>49982</v>
+        <v>25922</v>
       </c>
       <c r="C532" t="s">
         <v>16</v>
@@ -19052,10 +19052,10 @@
     </row>
     <row r="533" spans="1:16">
       <c r="A533">
-        <v>1544906455170</v>
+        <v>1544944629266</v>
       </c>
       <c r="B533">
-        <v>50063</v>
+        <v>25874</v>
       </c>
       <c r="C533" t="s">
         <v>16</v>
@@ -19087,10 +19087,10 @@
     </row>
     <row r="534" spans="1:16">
       <c r="A534">
-        <v>1544906456185</v>
+        <v>1544944630282</v>
       </c>
       <c r="B534">
-        <v>50114</v>
+        <v>25844</v>
       </c>
       <c r="C534" t="s">
         <v>16</v>
@@ -19122,10 +19122,10 @@
     </row>
     <row r="535" spans="1:16">
       <c r="A535">
-        <v>1544906457185</v>
+        <v>1544944631297</v>
       </c>
       <c r="B535">
-        <v>50069</v>
+        <v>25907</v>
       </c>
       <c r="C535" t="s">
         <v>16</v>
@@ -19157,10 +19157,10 @@
     </row>
     <row r="536" spans="1:16">
       <c r="A536">
-        <v>1544906458185</v>
+        <v>1544944632313</v>
       </c>
       <c r="B536">
-        <v>49980</v>
+        <v>25886</v>
       </c>
       <c r="C536" t="s">
         <v>16</v>
@@ -19192,10 +19192,10 @@
     </row>
     <row r="537" spans="1:16">
       <c r="A537">
-        <v>1544906459201</v>
+        <v>1544944633313</v>
       </c>
       <c r="B537">
-        <v>50004</v>
+        <v>25880</v>
       </c>
       <c r="C537" t="s">
         <v>16</v>
@@ -19227,10 +19227,10 @@
     </row>
     <row r="538" spans="1:16">
       <c r="A538">
-        <v>1544906460201</v>
+        <v>1544944634313</v>
       </c>
       <c r="B538">
-        <v>50119</v>
+        <v>25887</v>
       </c>
       <c r="C538" t="s">
         <v>16</v>
@@ -19262,10 +19262,10 @@
     </row>
     <row r="539" spans="1:16">
       <c r="A539">
-        <v>1544906461216</v>
+        <v>1544944635313</v>
       </c>
       <c r="B539">
-        <v>50121</v>
+        <v>25909</v>
       </c>
       <c r="C539" t="s">
         <v>16</v>
@@ -19297,10 +19297,10 @@
     </row>
     <row r="540" spans="1:16">
       <c r="A540">
-        <v>1544906462217</v>
+        <v>1544944636329</v>
       </c>
       <c r="B540">
-        <v>49997</v>
+        <v>25889</v>
       </c>
       <c r="C540" t="s">
         <v>16</v>
@@ -19332,10 +19332,10 @@
     </row>
     <row r="541" spans="1:16">
       <c r="A541">
-        <v>1544906463232</v>
+        <v>1544944637344</v>
       </c>
       <c r="B541">
-        <v>50046</v>
+        <v>25851</v>
       </c>
       <c r="C541" t="s">
         <v>16</v>
@@ -19367,10 +19367,10 @@
     </row>
     <row r="542" spans="1:16">
       <c r="A542">
-        <v>1544906464247</v>
+        <v>1544944638344</v>
       </c>
       <c r="B542">
-        <v>50036</v>
+        <v>25833</v>
       </c>
       <c r="C542" t="s">
         <v>16</v>
@@ -19402,10 +19402,10 @@
     </row>
     <row r="543" spans="1:16">
       <c r="A543">
-        <v>1544906465248</v>
+        <v>1544944639360</v>
       </c>
       <c r="B543">
-        <v>50029</v>
+        <v>25796</v>
       </c>
       <c r="C543" t="s">
         <v>16</v>
@@ -19437,10 +19437,10 @@
     </row>
     <row r="544" spans="1:16">
       <c r="A544">
-        <v>1544906466263</v>
+        <v>1544944640376</v>
       </c>
       <c r="B544">
-        <v>50028</v>
+        <v>25897</v>
       </c>
       <c r="C544" t="s">
         <v>16</v>
@@ -19472,10 +19472,10 @@
     </row>
     <row r="545" spans="1:16">
       <c r="A545">
-        <v>1544906467263</v>
+        <v>1544944641376</v>
       </c>
       <c r="B545">
-        <v>50037</v>
+        <v>25915</v>
       </c>
       <c r="C545" t="s">
         <v>16</v>
@@ -19507,10 +19507,10 @@
     </row>
     <row r="546" spans="1:16">
       <c r="A546">
-        <v>1544906468279</v>
+        <v>1544944642391</v>
       </c>
       <c r="B546">
-        <v>50089</v>
+        <v>25901</v>
       </c>
       <c r="C546" t="s">
         <v>16</v>
@@ -19542,10 +19542,10 @@
     </row>
     <row r="547" spans="1:16">
       <c r="A547">
-        <v>1544906469294</v>
+        <v>1544944643391</v>
       </c>
       <c r="B547">
-        <v>50067</v>
+        <v>25860</v>
       </c>
       <c r="C547" t="s">
         <v>16</v>
@@ -19577,10 +19577,10 @@
     </row>
     <row r="548" spans="1:16">
       <c r="A548">
-        <v>1544906470310</v>
+        <v>1544944644407</v>
       </c>
       <c r="B548">
-        <v>50006</v>
+        <v>25900</v>
       </c>
       <c r="C548" t="s">
         <v>16</v>
@@ -19612,10 +19612,10 @@
     </row>
     <row r="549" spans="1:16">
       <c r="A549">
-        <v>1544906471310</v>
+        <v>1544944645423</v>
       </c>
       <c r="B549">
-        <v>50016</v>
+        <v>25851</v>
       </c>
       <c r="C549" t="s">
         <v>16</v>
@@ -19647,10 +19647,10 @@
     </row>
     <row r="550" spans="1:16">
       <c r="A550">
-        <v>1544906472326</v>
+        <v>1544944646438</v>
       </c>
       <c r="B550">
-        <v>49990</v>
+        <v>25920</v>
       </c>
       <c r="C550" t="s">
         <v>16</v>
@@ -19682,10 +19682,10 @@
     </row>
     <row r="551" spans="1:16">
       <c r="A551">
-        <v>1544906473326</v>
+        <v>1544944647454</v>
       </c>
       <c r="B551">
-        <v>50086</v>
+        <v>25821</v>
       </c>
       <c r="C551" t="s">
         <v>16</v>
@@ -19717,10 +19717,10 @@
     </row>
     <row r="552" spans="1:16">
       <c r="A552">
-        <v>1544906474326</v>
+        <v>1544944648454</v>
       </c>
       <c r="B552">
-        <v>50022</v>
+        <v>25919</v>
       </c>
       <c r="C552" t="s">
         <v>16</v>
@@ -19752,10 +19752,10 @@
     </row>
     <row r="553" spans="1:16">
       <c r="A553">
-        <v>1544906475341</v>
+        <v>1544944649454</v>
       </c>
       <c r="B553">
-        <v>49990</v>
+        <v>25885</v>
       </c>
       <c r="C553" t="s">
         <v>16</v>
@@ -19787,10 +19787,10 @@
     </row>
     <row r="554" spans="1:16">
       <c r="A554">
-        <v>1544906476341</v>
+        <v>1544944650470</v>
       </c>
       <c r="B554">
-        <v>50072</v>
+        <v>25846</v>
       </c>
       <c r="C554" t="s">
         <v>16</v>
@@ -19822,10 +19822,10 @@
     </row>
     <row r="555" spans="1:16">
       <c r="A555">
-        <v>1544906477357</v>
+        <v>1544944651485</v>
       </c>
       <c r="B555">
-        <v>50081</v>
+        <v>25912</v>
       </c>
       <c r="C555" t="s">
         <v>16</v>
@@ -19857,10 +19857,10 @@
     </row>
     <row r="556" spans="1:16">
       <c r="A556">
-        <v>1544906478372</v>
+        <v>1544944652501</v>
       </c>
       <c r="B556">
-        <v>50052</v>
+        <v>25882</v>
       </c>
       <c r="C556" t="s">
         <v>16</v>
@@ -19892,10 +19892,10 @@
     </row>
     <row r="557" spans="1:16">
       <c r="A557">
-        <v>1544906479388</v>
+        <v>1544944653501</v>
       </c>
       <c r="B557">
-        <v>50046</v>
+        <v>25851</v>
       </c>
       <c r="C557" t="s">
         <v>16</v>
@@ -19927,10 +19927,10 @@
     </row>
     <row r="558" spans="1:16">
       <c r="A558">
-        <v>1544906480404</v>
+        <v>1544944654516</v>
       </c>
       <c r="B558">
-        <v>50022</v>
+        <v>25823</v>
       </c>
       <c r="C558" t="s">
         <v>16</v>
@@ -19962,10 +19962,10 @@
     </row>
     <row r="559" spans="1:16">
       <c r="A559">
-        <v>1544906481419</v>
+        <v>1544944655532</v>
       </c>
       <c r="B559">
-        <v>50055</v>
+        <v>25944</v>
       </c>
       <c r="C559" t="s">
         <v>16</v>
@@ -19997,10 +19997,10 @@
     </row>
     <row r="560" spans="1:16">
       <c r="A560">
-        <v>1544906482435</v>
+        <v>1544944656532</v>
       </c>
       <c r="B560">
-        <v>50066</v>
+        <v>25900</v>
       </c>
       <c r="C560" t="s">
         <v>16</v>
@@ -20032,10 +20032,10 @@
     </row>
     <row r="561" spans="1:16">
       <c r="A561">
-        <v>1544906483451</v>
+        <v>1544944657547</v>
       </c>
       <c r="B561">
-        <v>50041</v>
+        <v>25869</v>
       </c>
       <c r="C561" t="s">
         <v>16</v>
@@ -20067,10 +20067,10 @@
     </row>
     <row r="562" spans="1:16">
       <c r="A562">
-        <v>1544906484451</v>
+        <v>1544944658563</v>
       </c>
       <c r="B562">
-        <v>49996</v>
+        <v>25830</v>
       </c>
       <c r="C562" t="s">
         <v>16</v>
@@ -20102,10 +20102,10 @@
     </row>
     <row r="563" spans="1:16">
       <c r="A563">
-        <v>1544906485466</v>
+        <v>1544944659563</v>
       </c>
       <c r="B563">
-        <v>50045</v>
+        <v>25893</v>
       </c>
       <c r="C563" t="s">
         <v>16</v>
@@ -20137,10 +20137,10 @@
     </row>
     <row r="564" spans="1:16">
       <c r="A564">
-        <v>1544906486466</v>
+        <v>1544944660563</v>
       </c>
       <c r="B564">
-        <v>50055</v>
+        <v>25867</v>
       </c>
       <c r="C564" t="s">
         <v>16</v>
@@ -20172,10 +20172,10 @@
     </row>
     <row r="565" spans="1:16">
       <c r="A565">
-        <v>1544906487482</v>
+        <v>1544944661579</v>
       </c>
       <c r="B565">
-        <v>50030</v>
+        <v>25850</v>
       </c>
       <c r="C565" t="s">
         <v>16</v>
@@ -20207,10 +20207,10 @@
     </row>
     <row r="566" spans="1:16">
       <c r="A566">
-        <v>1544906488482</v>
+        <v>1544944662579</v>
       </c>
       <c r="B566">
-        <v>50009</v>
+        <v>25800</v>
       </c>
       <c r="C566" t="s">
         <v>16</v>
@@ -20242,10 +20242,10 @@
     </row>
     <row r="567" spans="1:16">
       <c r="A567">
-        <v>1544906489497</v>
+        <v>1544944663579</v>
       </c>
       <c r="B567">
-        <v>49973</v>
+        <v>25804</v>
       </c>
       <c r="C567" t="s">
         <v>16</v>
@@ -20277,10 +20277,10 @@
     </row>
     <row r="568" spans="1:16">
       <c r="A568">
-        <v>1544906490497</v>
+        <v>1544944664595</v>
       </c>
       <c r="B568">
-        <v>50048</v>
+        <v>25869</v>
       </c>
       <c r="C568" t="s">
         <v>16</v>
@@ -20312,10 +20312,10 @@
     </row>
     <row r="569" spans="1:16">
       <c r="A569">
-        <v>1544906491497</v>
+        <v>1544944665610</v>
       </c>
       <c r="B569">
-        <v>50019</v>
+        <v>25841</v>
       </c>
       <c r="C569" t="s">
         <v>16</v>
@@ -20347,10 +20347,10 @@
     </row>
     <row r="570" spans="1:16">
       <c r="A570">
-        <v>1544906492513</v>
+        <v>1544944666641</v>
       </c>
       <c r="B570">
-        <v>50018</v>
+        <v>25833</v>
       </c>
       <c r="C570" t="s">
         <v>16</v>
@@ -20382,10 +20382,10 @@
     </row>
     <row r="571" spans="1:16">
       <c r="A571">
-        <v>1544906493513</v>
+        <v>1544944667641</v>
       </c>
       <c r="B571">
-        <v>50001</v>
+        <v>25809</v>
       </c>
       <c r="C571" t="s">
         <v>16</v>
@@ -20417,10 +20417,10 @@
     </row>
     <row r="572" spans="1:16">
       <c r="A572">
-        <v>1544906494529</v>
+        <v>1544944668657</v>
       </c>
       <c r="B572">
-        <v>50037</v>
+        <v>25879</v>
       </c>
       <c r="C572" t="s">
         <v>16</v>
@@ -20452,10 +20452,10 @@
     </row>
     <row r="573" spans="1:16">
       <c r="A573">
-        <v>1544906495544</v>
+        <v>1544944669657</v>
       </c>
       <c r="B573">
-        <v>50136</v>
+        <v>25888</v>
       </c>
       <c r="C573" t="s">
         <v>16</v>
@@ -20487,10 +20487,10 @@
     </row>
     <row r="574" spans="1:16">
       <c r="A574">
-        <v>1544906496544</v>
+        <v>1544944670673</v>
       </c>
       <c r="B574">
-        <v>50079</v>
+        <v>25844</v>
       </c>
       <c r="C574" t="s">
         <v>16</v>
@@ -20522,10 +20522,10 @@
     </row>
     <row r="575" spans="1:16">
       <c r="A575">
-        <v>1544906497560</v>
+        <v>1544944671688</v>
       </c>
       <c r="B575">
-        <v>50056</v>
+        <v>25806</v>
       </c>
       <c r="C575" t="s">
         <v>16</v>
@@ -20557,10 +20557,10 @@
     </row>
     <row r="576" spans="1:16">
       <c r="A576">
-        <v>1544906498560</v>
+        <v>1544944672704</v>
       </c>
       <c r="B576">
-        <v>50118</v>
+        <v>25886</v>
       </c>
       <c r="C576" t="s">
         <v>16</v>
@@ -20592,10 +20592,10 @@
     </row>
     <row r="577" spans="1:16">
       <c r="A577">
-        <v>1544906499560</v>
+        <v>1544944673704</v>
       </c>
       <c r="B577">
-        <v>50113</v>
+        <v>25894</v>
       </c>
       <c r="C577" t="s">
         <v>16</v>
@@ -20627,10 +20627,10 @@
     </row>
     <row r="578" spans="1:16">
       <c r="A578">
-        <v>1544906500575</v>
+        <v>1544944674704</v>
       </c>
       <c r="B578">
-        <v>50118</v>
+        <v>25825</v>
       </c>
       <c r="C578" t="s">
         <v>16</v>
@@ -20662,10 +20662,10 @@
     </row>
     <row r="579" spans="1:16">
       <c r="A579">
-        <v>1544906501576</v>
+        <v>1544944675720</v>
       </c>
       <c r="B579">
-        <v>50060</v>
+        <v>25882</v>
       </c>
       <c r="C579" t="s">
         <v>16</v>
@@ -20697,10 +20697,10 @@
     </row>
     <row r="580" spans="1:16">
       <c r="A580">
-        <v>1544906502591</v>
+        <v>1544944676735</v>
       </c>
       <c r="B580">
-        <v>49995</v>
+        <v>25860</v>
       </c>
       <c r="C580" t="s">
         <v>16</v>
@@ -20732,10 +20732,10 @@
     </row>
     <row r="581" spans="1:16">
       <c r="A581">
-        <v>1544906503607</v>
+        <v>1544944677735</v>
       </c>
       <c r="B581">
-        <v>50084</v>
+        <v>25826</v>
       </c>
       <c r="C581" t="s">
         <v>16</v>
@@ -20767,10 +20767,10 @@
     </row>
     <row r="582" spans="1:16">
       <c r="A582">
-        <v>1544906504607</v>
+        <v>1544944678735</v>
       </c>
       <c r="B582">
-        <v>50067</v>
+        <v>25822</v>
       </c>
       <c r="C582" t="s">
         <v>16</v>
@@ -20802,10 +20802,10 @@
     </row>
     <row r="583" spans="1:16">
       <c r="A583">
-        <v>1544906505622</v>
+        <v>1544944679735</v>
       </c>
       <c r="B583">
-        <v>50115</v>
+        <v>25951</v>
       </c>
       <c r="C583" t="s">
         <v>16</v>
@@ -20837,10 +20837,10 @@
     </row>
     <row r="584" spans="1:16">
       <c r="A584">
-        <v>1544906506638</v>
+        <v>1544944680751</v>
       </c>
       <c r="B584">
-        <v>49976</v>
+        <v>25905</v>
       </c>
       <c r="C584" t="s">
         <v>16</v>
@@ -20872,10 +20872,10 @@
     </row>
     <row r="585" spans="1:16">
       <c r="A585">
-        <v>1544906507654</v>
+        <v>1544944681766</v>
       </c>
       <c r="B585">
-        <v>50053</v>
+        <v>25821</v>
       </c>
       <c r="C585" t="s">
         <v>16</v>
@@ -20907,10 +20907,10 @@
     </row>
     <row r="586" spans="1:16">
       <c r="A586">
-        <v>1544906508669</v>
+        <v>1544944682766</v>
       </c>
       <c r="B586">
-        <v>50085</v>
+        <v>25805</v>
       </c>
       <c r="C586" t="s">
         <v>16</v>
@@ -20942,10 +20942,10 @@
     </row>
     <row r="587" spans="1:16">
       <c r="A587">
-        <v>1544906509685</v>
+        <v>1544944683782</v>
       </c>
       <c r="B587">
-        <v>50045</v>
+        <v>26001</v>
       </c>
       <c r="C587" t="s">
         <v>16</v>
@@ -20977,10 +20977,10 @@
     </row>
     <row r="588" spans="1:16">
       <c r="A588">
-        <v>1544906510700</v>
+        <v>1544944684782</v>
       </c>
       <c r="B588">
-        <v>50003</v>
+        <v>25879</v>
       </c>
       <c r="C588" t="s">
         <v>16</v>
@@ -21012,10 +21012,10 @@
     </row>
     <row r="589" spans="1:16">
       <c r="A589">
-        <v>1544906511716</v>
+        <v>1544944685797</v>
       </c>
       <c r="B589">
-        <v>50015</v>
+        <v>25894</v>
       </c>
       <c r="C589" t="s">
         <v>16</v>
@@ -21047,10 +21047,10 @@
     </row>
     <row r="590" spans="1:16">
       <c r="A590">
-        <v>1544906512732</v>
+        <v>1544944686813</v>
       </c>
       <c r="B590">
-        <v>50050</v>
+        <v>25786</v>
       </c>
       <c r="C590" t="s">
         <v>16</v>
@@ -21082,10 +21082,10 @@
     </row>
     <row r="591" spans="1:16">
       <c r="A591">
-        <v>1544906513732</v>
+        <v>1544944687813</v>
       </c>
       <c r="B591">
-        <v>50019</v>
+        <v>25874</v>
       </c>
       <c r="C591" t="s">
         <v>16</v>
@@ -21117,10 +21117,10 @@
     </row>
     <row r="592" spans="1:16">
       <c r="A592">
-        <v>1544906514747</v>
+        <v>1544944688813</v>
       </c>
       <c r="B592">
-        <v>50013</v>
+        <v>25832</v>
       </c>
       <c r="C592" t="s">
         <v>16</v>
@@ -21152,10 +21152,10 @@
     </row>
     <row r="593" spans="1:16">
       <c r="A593">
-        <v>1544906515747</v>
+        <v>1544944689829</v>
       </c>
       <c r="B593">
-        <v>49995</v>
+        <v>25845</v>
       </c>
       <c r="C593" t="s">
         <v>16</v>
@@ -21187,10 +21187,10 @@
     </row>
     <row r="594" spans="1:16">
       <c r="A594">
-        <v>1544906516763</v>
+        <v>1544944690844</v>
       </c>
       <c r="B594">
-        <v>50113</v>
+        <v>25821</v>
       </c>
       <c r="C594" t="s">
         <v>16</v>
@@ -21222,10 +21222,10 @@
     </row>
     <row r="595" spans="1:16">
       <c r="A595">
-        <v>1544906517763</v>
+        <v>1544944691845</v>
       </c>
       <c r="B595">
-        <v>50079</v>
+        <v>25850</v>
       </c>
       <c r="C595" t="s">
         <v>16</v>
@@ -21257,10 +21257,10 @@
     </row>
     <row r="596" spans="1:16">
       <c r="A596">
-        <v>1544906518763</v>
+        <v>1544944692860</v>
       </c>
       <c r="B596">
-        <v>50048</v>
+        <v>25944</v>
       </c>
       <c r="C596" t="s">
         <v>16</v>
@@ -21292,10 +21292,10 @@
     </row>
     <row r="597" spans="1:16">
       <c r="A597">
-        <v>1544906519779</v>
+        <v>1544944693860</v>
       </c>
       <c r="B597">
-        <v>50017</v>
+        <v>25912</v>
       </c>
       <c r="C597" t="s">
         <v>16</v>
@@ -21327,10 +21327,10 @@
     </row>
     <row r="598" spans="1:16">
       <c r="A598">
-        <v>1544906520779</v>
+        <v>1544944694876</v>
       </c>
       <c r="B598">
-        <v>49994</v>
+        <v>25826</v>
       </c>
       <c r="C598" t="s">
         <v>16</v>
@@ -21362,10 +21362,10 @@
     </row>
     <row r="599" spans="1:16">
       <c r="A599">
-        <v>1544906521779</v>
+        <v>1544944695891</v>
       </c>
       <c r="B599">
-        <v>50035</v>
+        <v>25815</v>
       </c>
       <c r="C599" t="s">
         <v>16</v>
@@ -21397,10 +21397,10 @@
     </row>
     <row r="600" spans="1:16">
       <c r="A600">
-        <v>1544906522779</v>
+        <v>1544944696907</v>
       </c>
       <c r="B600">
-        <v>50119</v>
+        <v>25890</v>
       </c>
       <c r="C600" t="s">
         <v>16</v>
@@ -21432,10 +21432,10 @@
     </row>
     <row r="601" spans="1:16">
       <c r="A601">
-        <v>1544906523794</v>
+        <v>1544944697923</v>
       </c>
       <c r="B601">
-        <v>49997</v>
+        <v>25848</v>
       </c>
       <c r="C601" t="s">
         <v>16</v>
@@ -21467,10 +21467,10 @@
     </row>
     <row r="602" spans="1:16">
       <c r="A602">
-        <v>1544906524810</v>
+        <v>1544944698938</v>
       </c>
       <c r="B602">
-        <v>50016</v>
+        <v>25848</v>
       </c>
       <c r="C602" t="s">
         <v>16</v>
@@ -21502,10 +21502,10 @@
     </row>
     <row r="603" spans="1:16">
       <c r="A603">
-        <v>1544906525825</v>
+        <v>1544944699954</v>
       </c>
       <c r="B603">
-        <v>50061</v>
+        <v>25896</v>
       </c>
       <c r="C603" t="s">
         <v>16</v>
@@ -21537,10 +21537,10 @@
     </row>
     <row r="604" spans="1:16">
       <c r="A604">
-        <v>1544906526825</v>
+        <v>1544944700954</v>
       </c>
       <c r="B604">
-        <v>50061</v>
+        <v>25908</v>
       </c>
       <c r="C604" t="s">
         <v>16</v>
@@ -21572,10 +21572,10 @@
     </row>
     <row r="605" spans="1:16">
       <c r="A605">
-        <v>1544906527825</v>
+        <v>1544944701970</v>
       </c>
       <c r="B605">
-        <v>50075</v>
+        <v>25904</v>
       </c>
       <c r="C605" t="s">
         <v>16</v>
@@ -21607,10 +21607,10 @@
     </row>
     <row r="606" spans="1:16">
       <c r="A606">
-        <v>1544906528841</v>
+        <v>1544944702970</v>
       </c>
       <c r="B606">
-        <v>49992</v>
+        <v>25835</v>
       </c>
       <c r="C606" t="s">
         <v>16</v>
@@ -21642,10 +21642,10 @@
     </row>
     <row r="607" spans="1:16">
       <c r="A607">
-        <v>1544906529857</v>
+        <v>1544944703970</v>
       </c>
       <c r="B607">
-        <v>50092</v>
+        <v>25855</v>
       </c>
       <c r="C607" t="s">
         <v>16</v>
@@ -21677,10 +21677,10 @@
     </row>
     <row r="608" spans="1:16">
       <c r="A608">
-        <v>1544906530872</v>
+        <v>1544944704985</v>
       </c>
       <c r="B608">
-        <v>50082</v>
+        <v>25873</v>
       </c>
       <c r="C608" t="s">
         <v>16</v>
@@ -21712,10 +21712,10 @@
     </row>
     <row r="609" spans="1:16">
       <c r="A609">
-        <v>1544906531888</v>
+        <v>1544944706003</v>
       </c>
       <c r="B609">
-        <v>50048</v>
+        <v>25875</v>
       </c>
       <c r="C609" t="s">
         <v>16</v>
@@ -21747,10 +21747,10 @@
     </row>
     <row r="610" spans="1:16">
       <c r="A610">
-        <v>1544906532888</v>
+        <v>1544944707016</v>
       </c>
       <c r="B610">
-        <v>50019</v>
+        <v>25803</v>
       </c>
       <c r="C610" t="s">
         <v>16</v>
@@ -21782,10 +21782,10 @@
     </row>
     <row r="611" spans="1:16">
       <c r="A611">
-        <v>1544906533903</v>
+        <v>1544944708032</v>
       </c>
       <c r="B611">
-        <v>50060</v>
+        <v>25921</v>
       </c>
       <c r="C611" t="s">
         <v>16</v>
@@ -21817,10 +21817,10 @@
     </row>
     <row r="612" spans="1:16">
       <c r="A612">
-        <v>1544906534904</v>
+        <v>1544944709048</v>
       </c>
       <c r="B612">
-        <v>50072</v>
+        <v>25925</v>
       </c>
       <c r="C612" t="s">
         <v>16</v>
@@ -21852,10 +21852,10 @@
     </row>
     <row r="613" spans="1:16">
       <c r="A613">
-        <v>1544906535919</v>
+        <v>1544944710063</v>
       </c>
       <c r="B613">
-        <v>49986</v>
+        <v>25814</v>
       </c>
       <c r="C613" t="s">
         <v>16</v>
@@ -21887,10 +21887,10 @@
     </row>
     <row r="614" spans="1:16">
       <c r="A614">
-        <v>1544906536935</v>
+        <v>1544944711063</v>
       </c>
       <c r="B614">
-        <v>50015</v>
+        <v>25840</v>
       </c>
       <c r="C614" t="s">
         <v>16</v>
@@ -21922,10 +21922,10 @@
     </row>
     <row r="615" spans="1:16">
       <c r="A615">
-        <v>1544906537935</v>
+        <v>1544944712064</v>
       </c>
       <c r="B615">
-        <v>50014</v>
+        <v>25892</v>
       </c>
       <c r="C615" t="s">
         <v>16</v>
@@ -21957,10 +21957,10 @@
     </row>
     <row r="616" spans="1:16">
       <c r="A616">
-        <v>1544906538951</v>
+        <v>1544944713079</v>
       </c>
       <c r="B616">
-        <v>50029</v>
+        <v>25835</v>
       </c>
       <c r="C616" t="s">
         <v>16</v>
@@ -21992,10 +21992,10 @@
     </row>
     <row r="617" spans="1:16">
       <c r="A617">
-        <v>1544906539966</v>
+        <v>1544944714079</v>
       </c>
       <c r="B617">
-        <v>50006</v>
+        <v>25900</v>
       </c>
       <c r="C617" t="s">
         <v>16</v>
@@ -22027,10 +22027,10 @@
     </row>
     <row r="618" spans="1:16">
       <c r="A618">
-        <v>1544906540966</v>
+        <v>1544944715095</v>
       </c>
       <c r="B618">
-        <v>49978</v>
+        <v>25877</v>
       </c>
       <c r="C618" t="s">
         <v>16</v>
@@ -22062,10 +22062,10 @@
     </row>
     <row r="619" spans="1:16">
       <c r="A619">
-        <v>1544906541966</v>
+        <v>1544944716095</v>
       </c>
       <c r="B619">
-        <v>50006</v>
+        <v>25869</v>
       </c>
       <c r="C619" t="s">
         <v>16</v>
@@ -22097,10 +22097,10 @@
     </row>
     <row r="620" spans="1:16">
       <c r="A620">
-        <v>1544906542982</v>
+        <v>1544944717110</v>
       </c>
       <c r="B620">
-        <v>49979</v>
+        <v>25990</v>
       </c>
       <c r="C620" t="s">
         <v>16</v>
@@ -22132,10 +22132,10 @@
     </row>
     <row r="621" spans="1:16">
       <c r="A621">
-        <v>1544906543997</v>
+        <v>1544944718110</v>
       </c>
       <c r="B621">
-        <v>49978</v>
+        <v>25845</v>
       </c>
       <c r="C621" t="s">
         <v>16</v>
@@ -22167,10 +22167,10 @@
     </row>
     <row r="622" spans="1:16">
       <c r="A622">
-        <v>1544906544997</v>
+        <v>1544944719110</v>
       </c>
       <c r="B622">
-        <v>49913</v>
+        <v>25846</v>
       </c>
       <c r="C622" t="s">
         <v>16</v>
@@ -22202,10 +22202,10 @@
     </row>
     <row r="623" spans="1:16">
       <c r="A623">
-        <v>1544906545997</v>
+        <v>1544944720110</v>
       </c>
       <c r="B623">
-        <v>49987</v>
+        <v>25907</v>
       </c>
       <c r="C623" t="s">
         <v>16</v>
@@ -22237,10 +22237,10 @@
     </row>
     <row r="624" spans="1:16">
       <c r="A624">
-        <v>1544906547013</v>
+        <v>1544944721126</v>
       </c>
       <c r="B624">
-        <v>49990</v>
+        <v>25841</v>
       </c>
       <c r="C624" t="s">
         <v>16</v>
@@ -22272,10 +22272,10 @@
     </row>
     <row r="625" spans="1:16">
       <c r="A625">
-        <v>1544906548013</v>
+        <v>1544944722126</v>
       </c>
       <c r="B625">
-        <v>49968</v>
+        <v>25869</v>
       </c>
       <c r="C625" t="s">
         <v>16</v>
@@ -22307,10 +22307,10 @@
     </row>
     <row r="626" spans="1:16">
       <c r="A626">
-        <v>1544906549028</v>
+        <v>1544944723142</v>
       </c>
       <c r="B626">
-        <v>49939</v>
+        <v>25829</v>
       </c>
       <c r="C626" t="s">
         <v>16</v>
@@ -22342,10 +22342,10 @@
     </row>
     <row r="627" spans="1:16">
       <c r="A627">
-        <v>1544906550029</v>
+        <v>1544944724157</v>
       </c>
       <c r="B627">
-        <v>50003</v>
+        <v>25903</v>
       </c>
       <c r="C627" t="s">
         <v>16</v>
@@ -22377,10 +22377,10 @@
     </row>
     <row r="628" spans="1:16">
       <c r="A628">
-        <v>1544906551044</v>
+        <v>1544944725173</v>
       </c>
       <c r="B628">
-        <v>49996</v>
+        <v>25874</v>
       </c>
       <c r="C628" t="s">
         <v>16</v>
@@ -22412,10 +22412,10 @@
     </row>
     <row r="629" spans="1:16">
       <c r="A629">
-        <v>1544906552060</v>
+        <v>1544944726189</v>
       </c>
       <c r="B629">
-        <v>49979</v>
+        <v>25840</v>
       </c>
       <c r="C629" t="s">
         <v>16</v>
@@ -22447,10 +22447,10 @@
     </row>
     <row r="630" spans="1:16">
       <c r="A630">
-        <v>1544906553076</v>
+        <v>1544944727204</v>
       </c>
       <c r="B630">
-        <v>49947</v>
+        <v>25810</v>
       </c>
       <c r="C630" t="s">
         <v>16</v>
@@ -22482,10 +22482,10 @@
     </row>
     <row r="631" spans="1:16">
       <c r="A631">
-        <v>1544906554091</v>
+        <v>1544944728235</v>
       </c>
       <c r="B631">
-        <v>50018</v>
+        <v>25910</v>
       </c>
       <c r="C631" t="s">
         <v>16</v>
@@ -22517,10 +22517,10 @@
     </row>
     <row r="632" spans="1:16">
       <c r="A632">
-        <v>1544906555107</v>
+        <v>1544944729235</v>
       </c>
       <c r="B632">
-        <v>49975</v>
+        <v>25879</v>
       </c>
       <c r="C632" t="s">
         <v>16</v>
@@ -22552,10 +22552,10 @@
     </row>
     <row r="633" spans="1:16">
       <c r="A633">
-        <v>1544906556122</v>
+        <v>1544944730266</v>
       </c>
       <c r="B633">
-        <v>49948</v>
+        <v>25831</v>
       </c>
       <c r="C633" t="s">
         <v>16</v>
@@ -22587,10 +22587,10 @@
     </row>
     <row r="634" spans="1:16">
       <c r="A634">
-        <v>1544906557123</v>
+        <v>1544944731298</v>
       </c>
       <c r="B634">
-        <v>50050</v>
+        <v>25781</v>
       </c>
       <c r="C634" t="s">
         <v>16</v>
@@ -22622,10 +22622,10 @@
     </row>
     <row r="635" spans="1:16">
       <c r="A635">
-        <v>1544906558138</v>
+        <v>1544944732298</v>
       </c>
       <c r="B635">
-        <v>49998</v>
+        <v>25872</v>
       </c>
       <c r="C635" t="s">
         <v>16</v>
@@ -22657,10 +22657,10 @@
     </row>
     <row r="636" spans="1:16">
       <c r="A636">
-        <v>1544906559153</v>
+        <v>1544944733298</v>
       </c>
       <c r="B636">
-        <v>50040</v>
+        <v>25902</v>
       </c>
       <c r="C636" t="s">
         <v>16</v>
@@ -22692,10 +22692,10 @@
     </row>
     <row r="637" spans="1:16">
       <c r="A637">
-        <v>1544906560153</v>
+        <v>1544944734313</v>
       </c>
       <c r="B637">
-        <v>49963</v>
+        <v>25863</v>
       </c>
       <c r="C637" t="s">
         <v>16</v>
@@ -22727,10 +22727,10 @@
     </row>
     <row r="638" spans="1:16">
       <c r="A638">
-        <v>1544906561154</v>
+        <v>1544944735329</v>
       </c>
       <c r="B638">
-        <v>49931</v>
+        <v>25941</v>
       </c>
       <c r="C638" t="s">
         <v>16</v>
@@ -22762,10 +22762,10 @@
     </row>
     <row r="639" spans="1:16">
       <c r="A639">
-        <v>1544906562169</v>
+        <v>1544944736345</v>
       </c>
       <c r="B639">
-        <v>49923</v>
+        <v>25887</v>
       </c>
       <c r="C639" t="s">
         <v>16</v>
@@ -22797,10 +22797,10 @@
     </row>
     <row r="640" spans="1:16">
       <c r="A640">
-        <v>1544906563185</v>
+        <v>1544944737360</v>
       </c>
       <c r="B640">
-        <v>49973</v>
+        <v>25847</v>
       </c>
       <c r="C640" t="s">
         <v>16</v>
@@ -22832,10 +22832,10 @@
     </row>
     <row r="641" spans="1:16">
       <c r="A641">
-        <v>1544906564185</v>
+        <v>1544944738360</v>
       </c>
       <c r="B641">
-        <v>49972</v>
+        <v>25817</v>
       </c>
       <c r="C641" t="s">
         <v>16</v>
@@ -22867,10 +22867,10 @@
     </row>
     <row r="642" spans="1:16">
       <c r="A642">
-        <v>1544906565200</v>
+        <v>1544944739360</v>
       </c>
       <c r="B642">
-        <v>49967</v>
+        <v>25893</v>
       </c>
       <c r="C642" t="s">
         <v>16</v>
@@ -22897,6 +22897,251 @@
         <v>0</v>
       </c>
       <c r="P642">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="643" spans="1:16">
+      <c r="A643">
+        <v>1544944740376</v>
+      </c>
+      <c r="B643">
+        <v>25932</v>
+      </c>
+      <c r="C643" t="s">
+        <v>16</v>
+      </c>
+      <c r="H643" t="s">
+        <v>17</v>
+      </c>
+      <c r="J643">
+        <v>0</v>
+      </c>
+      <c r="K643">
+        <v>0</v>
+      </c>
+      <c r="L643">
+        <v>0</v>
+      </c>
+      <c r="M643">
+        <v>0</v>
+      </c>
+      <c r="N643">
+        <v>0</v>
+      </c>
+      <c r="O643">
+        <v>0</v>
+      </c>
+      <c r="P643">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="644" spans="1:16">
+      <c r="A644">
+        <v>1544944741391</v>
+      </c>
+      <c r="B644">
+        <v>25860</v>
+      </c>
+      <c r="C644" t="s">
+        <v>16</v>
+      </c>
+      <c r="H644" t="s">
+        <v>17</v>
+      </c>
+      <c r="J644">
+        <v>0</v>
+      </c>
+      <c r="K644">
+        <v>0</v>
+      </c>
+      <c r="L644">
+        <v>0</v>
+      </c>
+      <c r="M644">
+        <v>0</v>
+      </c>
+      <c r="N644">
+        <v>0</v>
+      </c>
+      <c r="O644">
+        <v>0</v>
+      </c>
+      <c r="P644">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="645" spans="1:16">
+      <c r="A645">
+        <v>1544944742391</v>
+      </c>
+      <c r="B645">
+        <v>25912</v>
+      </c>
+      <c r="C645" t="s">
+        <v>16</v>
+      </c>
+      <c r="H645" t="s">
+        <v>17</v>
+      </c>
+      <c r="J645">
+        <v>0</v>
+      </c>
+      <c r="K645">
+        <v>0</v>
+      </c>
+      <c r="L645">
+        <v>0</v>
+      </c>
+      <c r="M645">
+        <v>0</v>
+      </c>
+      <c r="N645">
+        <v>0</v>
+      </c>
+      <c r="O645">
+        <v>0</v>
+      </c>
+      <c r="P645">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="646" spans="1:16">
+      <c r="A646">
+        <v>1544944743391</v>
+      </c>
+      <c r="B646">
+        <v>25973</v>
+      </c>
+      <c r="C646" t="s">
+        <v>16</v>
+      </c>
+      <c r="H646" t="s">
+        <v>17</v>
+      </c>
+      <c r="J646">
+        <v>0</v>
+      </c>
+      <c r="K646">
+        <v>0</v>
+      </c>
+      <c r="L646">
+        <v>0</v>
+      </c>
+      <c r="M646">
+        <v>0</v>
+      </c>
+      <c r="N646">
+        <v>0</v>
+      </c>
+      <c r="O646">
+        <v>0</v>
+      </c>
+      <c r="P646">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="647" spans="1:16">
+      <c r="A647">
+        <v>1544944744391</v>
+      </c>
+      <c r="B647">
+        <v>25906</v>
+      </c>
+      <c r="C647" t="s">
+        <v>16</v>
+      </c>
+      <c r="H647" t="s">
+        <v>17</v>
+      </c>
+      <c r="J647">
+        <v>0</v>
+      </c>
+      <c r="K647">
+        <v>0</v>
+      </c>
+      <c r="L647">
+        <v>0</v>
+      </c>
+      <c r="M647">
+        <v>0</v>
+      </c>
+      <c r="N647">
+        <v>0</v>
+      </c>
+      <c r="O647">
+        <v>0</v>
+      </c>
+      <c r="P647">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="648" spans="1:16">
+      <c r="A648">
+        <v>1544944745407</v>
+      </c>
+      <c r="B648">
+        <v>25861</v>
+      </c>
+      <c r="C648" t="s">
+        <v>16</v>
+      </c>
+      <c r="H648" t="s">
+        <v>17</v>
+      </c>
+      <c r="J648">
+        <v>0</v>
+      </c>
+      <c r="K648">
+        <v>0</v>
+      </c>
+      <c r="L648">
+        <v>0</v>
+      </c>
+      <c r="M648">
+        <v>0</v>
+      </c>
+      <c r="N648">
+        <v>0</v>
+      </c>
+      <c r="O648">
+        <v>0</v>
+      </c>
+      <c r="P648">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="649" spans="1:16">
+      <c r="A649">
+        <v>1544944746423</v>
+      </c>
+      <c r="B649">
+        <v>25821</v>
+      </c>
+      <c r="C649" t="s">
+        <v>16</v>
+      </c>
+      <c r="H649" t="s">
+        <v>17</v>
+      </c>
+      <c r="J649">
+        <v>0</v>
+      </c>
+      <c r="K649">
+        <v>0</v>
+      </c>
+      <c r="L649">
+        <v>0</v>
+      </c>
+      <c r="M649">
+        <v>0</v>
+      </c>
+      <c r="N649">
+        <v>0</v>
+      </c>
+      <c r="O649">
+        <v>0</v>
+      </c>
+      <c r="P649">
         <v>0</v>
       </c>
     </row>
